--- a/Antidemidovich_3.xlsx
+++ b/Antidemidovich_3.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\test_check\math_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CC17A1-5E11-4077-97F7-7F1F079B6FF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC63207-4256-462F-B892-453A1E292737}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14085" yWindow="1035" windowWidth="14145" windowHeight="13530" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14085" yWindow="1035" windowWidth="14145" windowHeight="13530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Оглавление" sheetId="1" r:id="rId1"/>
     <sheet name="Часть 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Часть 2" sheetId="3" r:id="rId3"/>
+    <sheet name="Часть 3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="1114">
   <si>
     <t>id</t>
   </si>
@@ -3718,6 +3720,3817 @@
 &amp; =1 n\left|\frac{x^{2}-1+\sqrt{x}+1}{x}\right|+C .
 \end{aligned}
 $$</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1866</t>
+  </si>
+  <si>
+    <t>$\int \frac{2 x+3}{(x-2)(x+5)} d x$</t>
+  </si>
+  <si>
+    <t>Решите уравнение $\frac{2 x+3}{(x-2)(x+5)}=\frac{A}{x-2}+\frac{B}{x+5}$, после приведения к общему знаменателю должно быть
+$$
+2 x+3=A(x+5)+B(x-2)
+$$
+В этой тождестве式中，
+$$
+\begin{aligned}
+&amp; \text { Пусть } x^{\prime}=2^{*} \text { )，получаем } 7=7 A, A=1 \text { ； } \\
+&amp;\text { 令 } x=-5 \text {, 得 }-7=-7 B, B=1 \text { 。 }
+\end{aligned}
+$$
+于是，
+$$
+\int(x=2) \frac{2x+3}{x+5)} d x=\int\left(\frac{1}{x-2}+\frac{1}{x+5}\right) d x
+$$
+$$
+=\ln |(x-2)(x+5)|+C .
+$$Please provide the text you would like me to translate to Russian.</t>
+  </si>
+  <si>
+    <t>1867</t>
+  </si>
+  <si>
+    <t>$\int \frac{x d x}{(x+1)(x+2)(x+3)}$</t>
+  </si>
+  <si>
+    <t>Решим уравнение $\frac{x}{(x+1)(x+2)(x+3)}=\frac{A}{x+1}+\frac{B}{x+2}+\frac{C}{x+3}$,
+после приведения к общему знаменателю должно быть
+$$
+\begin{alignd}
+x= &amp; A(x+2)(x+3)+B(x+1)(x+3)+C(x+1) \\
+&amp; \cdot(x+2) .
+\end{aligned}
+$$
+В этом тождестве,
+$$
+\begin{aligned}
+&amp; \text { 令 } x=-1, \text { 得 }-1=2 A, \quad A=-\frac{1}{2}, \\
+&amp; \text { 令 } x=-2, \text{ 得 }-2=-B, B=2 ; \\
+&amp; \text { 令 } x=-3, \text { 得 }-3=2 C, C=-\frac{3}{2} .
+\end{aligned}
+$$
+Таким образом,
+$$
+\begin{aligned}
+&amp; \int \frac{x d x}{(x+1)(x+2)(x+3)} \\
+= &amp; \int\left(\frac{-\frac{1}{2}}{x+1}+\frac{2}{x+2}+\frac{-\frac{3}{2}}{x+3}\right) d x \\
+= &amp; -\frac{1}{2} \ln |x+1|+2 \ln |x+2|-\frac{3}{2} \ln |x+3|+C
+\end{aligned}
+$$
+$$
+=\frac{1}{2} \ln \left|\frac{(x+2)^{4}}{(x+1)(x+3)^{3}}\right|+C
+$$</t>
+  </si>
+  <si>
+    <t>1868</t>
+  </si>
+  <si>
+    <t>$\int \frac{x^{10}}{x^{2}+x-2} d x$</t>
+  </si>
+  <si>
+    <t>Решите $\frac{x^{10}}{x^{2}+x-2}=x^{4}-x^{7}+3 x^{6}-5 x^{6}+11 x^{4}-21 x^{8}$
+$$
+\begin{aligned}
+&amp; +43 x^{2}-85 x+171+\frac{-341 x+342}{x^{2}+x-2}, \\
+&amp; \text { пусть }-\frac{341 x+342}{x^{2}+\frac{x}{x-2}}=\frac{A}{x+2}+\frac{B}{x-1}, \text { после приведения к общему знаменателю должно быть } \\
+&amp; -341 x+342 \equiv A(x-1)+B(x+2)
+\end{aligned}
+$$
+В этом тождестве,
+$$
+\begin{aligned}
+&amp; \text { Пусть } x=-2 \text {, тогда } 1024=-3 A, A=-\frac{1024}{3}, \令 x=1；得 1=3 B, B=\frac{1}{3} .
+车是，} 
+&amp; \int \frac{x^{10}}{x^{2}+x-2} d x=\int\left[x^{8}-x^{7}+3 x^{4}-5 x^{5}+11 x^{4}\right. \\ 
+&amp; -21 x^{3}+43 x^{2}-85 x+171 \\
+&amp; \left.-\frac{1024}{3(x+2)}+\frac{1}{3(x-1)}\right] d x \\
+&amp; = \\&amp; =\frac{x^{9}}{9}-\frac{x^{8}}{8}+\frac{3 x^{7}}{7}-\frac{5 x^{6}}{6}+\frac{11 x^{5}}{5}-\frac{21 x^{4}}{4}+\frac{43 x^{8}}{3}-\frac{85 x^{2}}{2}
+\end{aligned}
+$$
+$$
++171 x+\frac{1}{3}-14\left|\frac{x-1}{(x+2)^{1024}}\right|+C
+$$</t>
+  </si>
+  <si>
+    <t>1869</t>
+  </si>
+  <si>
+    <t>$\int \frac{x^{3}+1}{x^{3}-5 x^{2}+6 x} d x$</t>
+  </si>
+  <si>
+    <t>Решите $\frac{x^{3}+1}{x^{8}-5 x^{2}+6 x}=1+\frac{5 x^{2}-6 x+1}{x^{3}-5 x^{2}+6 x}$ 
+$$
+=1+\frac{5 x^{2}-6 x+1}{x(x-2)(x-3)},
+$$
+轧 $\frac{5 x^{2}-6 x+1}{x(x-2)(x-3)}=\frac{A}{x}+\frac{B}{x-2}+\frac{C}{x-3}$ ，通分后应有
+$$
+\begin{aligned}
+&amp; 5 x^{2}-6 x+1=A(x-2)(x-3)+B x(x-3) \\
+&amp; \quad+C x(x-2) .
+\end{выравненный}
+$$
+В этом тождестве,
+положим $x=0$, получим $1=6 A, 4=\frac{1}{6}$,
+положим $x=3$, получим $28=3 C, C=\frac{28}{3}$.Итак,
+$$
+\begin{aligned}
+&amp; \int \frac{x^{5}+1}{x^{8}-5 x^{2}-6 x} d x \\
+= &amp; \int\left[1+\frac{1}{6 x}-\frac{9}{2(x-2)}+\frac{28}{3(x-3)}\right] d x \\
+= &amp; x+\frac{1}{6} \ln |x|-\frac{9}{2} \ln |x-2|+\frac{28}{3} \ln |x-3|+C .
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_f5c3e1220d3585d02564g-102.jpg?height=112&amp;width=877&amp;top_left_y=1663&amp;top_left_x=521)
+</t>
+  </si>
+  <si>
+    <t>1870</t>
+  </si>
+  <si>
+    <t>$\int \frac{x^{4}}{x^{4}+5 x^{2}+4} d x$</t>
+  </si>
+  <si>
+    <t>Решите $\frac{x^{4}}{x^{4}+5 x^{2}+4}=1+\frac{-\left(5 x^{2}+4\right)}{\left(x^{2}+1\right)\left(x^{2}+4\right)}$право)}$.
+$$
+\text { Пусть } \frac{-\left(5 x^{2}+4\right)}{\left(x^{2}+1\right)\left(x^{2}+4\right)}=""\frac{A_{1} x+B_{4}}{x^{2}+1}+\frac{A_{2} x+B_{2}}{x^{2}+4} \text {, приводим к общему знаменателю }
+$$
+После этого должно быть
+$$
+\begin{aligned}
+&amp; -\left(5 x^{2}+4\right) \equiv\left(A_{1} x+B_{1}\right)\left(x^{2}+4\right)+\left(A_{2} x\riСравнив коэффициенты одинаковых степеней $x$ с обеих сторон уравнения, получаем\begin{array}{c|l}
+x^{3} &amp; A_{1}+A_{2}=0, \\
+x^{2} &amp; B_{1}+B_{2}=-5, \\
+x^{1} &amp; 4 A_{1}+A_{2}=0, \\x^{0} &amp; 4 B_{1}+B_{2}=-4 .
+\end{array}
+$$
+Таким образом, $A_{1}=0, B_{1}=\frac{1}{3}, A_{2}=0, B_{2}=-\frac{16}{3}$. Таким образом,
+$$
+\begin{aligned}
+&amp; \int \frac{x^{4}}{x^{4}+5 x^{2}+4} d x \\
+&amp; =\int\left[1+\frac{1}{3\left(x^{2}+1\right)}-\frac{16}{3\left(x^{2}+4\right)}\right] d x \\
+&amp; =x+\frac{1}{3} \times\operatorname{retg} x-\frac{8}{3} \text { arcte } \frac{x}{2}+C .
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1871</t>
+  </si>
+  <si>
+    <t>$\int \frac{x d x}{x^{3}-3 x+2}$</t>
+  </si>
+  <si>
+    <t>軗 $\frac{x}{x^{3}-3 x+2^{4}}=\frac{x}{(x-1)^{2}(x+2)}$
+$=\frac{A}{x-1}+\frac{B}{(x-1)^{2}}+\frac{C}{x+2}，通分后应有
+$$
+x=A(x-1)(x+2)+B(x+2)+C(x+1)^{2}
+$$
+在这柦等式巾，
+$$
+\begin{aligned}
+&amp; \text { 令 }x=1, 得 1=3 B, B=\frac{1}{3}; \\
+&amp; \text { 令 } x=-2, 得 -2=9 C, C=-\frac{2}{9},\end{aligned}
+$$
+Сравнивая коэффициенты $x^{2}$, получаем $A+C=0$, откуда $A=\frac{2}{9}$.
+Таким образом,
+$$
+\begin{aligned}
+&amp; \int \frac{x d x}{x^{3}-3 x+2}=\int\left[\begin{array}{c}
+2 \\
+9(x-1) \\
+\\
+\\
++ \\
+\int\left(\frac{1}{x-1)^{2}}-\frac{2}{9(x+2)}\right] d x . \\
+\\
+= \\
+-\frac{1}{x-1)}+\frac{2}{9} \ln \left|\frac{x-1}{x+2}\right|+C .
+\end{array}\right.
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1872</t>
+  </si>
+  <si>
+    <t>$\int \frac{x^{2}+1}{(x+1)^{2}(x-1)} d x$ .</t>
+  </si>
+  <si>
+    <t>Решим уравнение $\frac{x^{2}+1}{(x+1)^{2}(x-1)}=\frac{A}{x+1}+\frac{B}{(x+1)^{2}}+\frac{C}{x-1}$, после приведения к общему знаменателю должно быть
+$$
+x^{2}+1 \equiv A(x+1)(x-1)+B(x-1)+C(x+1)^{2}
+$$
+В этом уравнении,
+$$
+\begin{aligned}
+&amp; \text { Пусть } x=-1 \text {, 得 } 2=-2 B, B=-13 \\
+&amp; \text { Пусть } x=1 \text { , получаем } 2=4 C, C=\frac{1}{2},
+\end{aligned}
+$$Сравнив коэффициенты при $x^{2}$, получаем $A+C=1$, откуда $A=\frac{1}{2}$. Таким образом, 
+$$
+\begin{aligned}
+&amp; \int \frac{x^{2}+1}{(x+1)^{2}(x-1)} d x \\
+&amp; =\int\left[\frac{1}{2(x+1)}-\frac{1}{(x+1)^{2}}+\frac{1}{2(x+1)}\right] d x \\&amp; =\frac{1}{2} \ln \left|x^{2}-1\right|+\frac{1}{x+1}+C
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1873</t>
+  </si>
+  <si>
+    <t>$\int\left(\frac{x}{x^{2}-3 x+2}\right)^{2} d x$</t>
+  </si>
+  <si>
+    <t>Решите $\left(\frac{x}{x^{2}-3 x+2}\right)^{2}=\frac{x^{2}}{(x-1)^{2}(x-2)^{2}}$
+$$
+\begin{aligned}
+=&amp; \frac{A}{x-1}+\frac{B}{(x-1)^{2}}+\frac{C}{x-2}+\frac{D}{(x-2)^{2}}, \text { После приведения к общему знаменателю должно быть } \\
+&amp; x^{2}равно A(x-1)(x-2)^{2}+B(x-2)^{2} \\
+&amp; +C(x-2)(x-1)^{2}+D(x-1)^{2} .
+\end{aligned}
+$$
+В этом тождестве,
+$$\begin{aligned}
+&amp; \text { Пусть } x=1 \text { , тогда } B=1 \text { ; } \\
+&amp; \text { Пусть } x=2 \text { , тогда }D=4 \text { ； }
+\end{aligned}
+$$
+Сравнив коэффициенты $x^{3}$ и $x^{2}$, получаем
+$$
+A+C=0 \text { и }-5 A+B-4 C+D=1$$
+Таким образом, $A=4, C=-4$ .
+Итак,
+$$
+\begin{aligned}
+&amp; \int\left(\frac{-c}{x^{2}-3 x+2}\right)^{2} d x\\
+= &amp; \int\left[\frac{4}{x-1}+\frac{1}{(x-1)^{2}}-\frac{4}{x-2}+\frac{4}{(x-2)^{2}}\right] d x \\= &amp; 4 \ln |x-1|-\frac{1}{x-1}-4 \ln |x-2|-\frac{4}{x-2}+C \\
+= &amp; 4 \ln \left|\frac{x-1}{x-2}\right||-\frac{5 x-6}{x^{2}-3 x+2}+C .
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1874</t>
+  </si>
+  <si>
+    <t>$\int \frac{d x}{(x+1)\left(x+\frac{1}{2}\right)^{2}(x+3)^{3}}$</t>
+  </si>
+  <si>
+    <t>Решите $\frac{1}{(x+1)(x+2)^{2}(x+3)^{3}}$
+$$
+=\frac{A}{x+1}+\frac{B}{x+2}+\frac{C}{(x+2)^{2}}+\frac{D}{x+3}+\frac{E}{(x+3)^{2}}
+$$
+$+\frac{F}{(x+3)^{3}}$ ，通分后应有
+$$
+\begin{aligned}
+\mathbf{1} \equiv &amp; A(x+2)^{2}(x+3)^{3}+B(x+1)(x+2)(x+3)^{3} \\
+&amp; +C(x+1)(x+3)^{3}+D(x+1)(x+2)^{2} \\
+&amp; (x+3)^{2}+E(x+1)(x+2)^{2}(x+3) \\
+&amp; +F(x+1)(x+2)^{2} .
+\end{aligned}
+$$
+В этом тождестве,
+$$
+\begin{aligned}
+&amp;text { 令 } x=-1 \text {, 得 } 1=8 A, A=\frac{1}{8} ; \\
+&amp; \text { 令 } x=-2 \text {, 得 } 1=-C, C=-1 ;\text { Пусть } x=-3 \text {, тогда } 1=-2 F, F=-\frac{1}{2},}{l|l}
+x^{6} &amp; A+B+D=0 \\
+x^{4} &amp; 13 A+12 B+C+11 D+E=0 \\
+x^{3} &amp; 67 A+56 B+10 C+47 D+8 E+F=0
+\end{array}
+$$
+Таким образом, $B=2, D=-\frac{17}{8}, E=-\frac{5}{4}$ .
+Таким образом,
+$$
+\begin{aligned}
+&amp; \int \frac{d x}{(x+1)(x+2)^{2}(x+3)^{3}} \\
+&amp; =\int\left[\frac{1}{8(x+1)}+\frac{2}{x+2}-\frac{.1}{(x+2)^{2}}-frac{17}{8(x+3)}\right. \\
+&amp; \left.-\frac{f(5}{4(x+3)^{2}}-\frac{1}{2(x+3)^{3}}\right] d x \\
+&amp; =\\
+&amp; =\frac{1}{8} \ln |x+1|+2 \ln |x+2|+\frac{1}{x+2}-\frac{17}{6} \ln |x+3| \\
+&amp; +\frac{5}{4(x+3)}+\frac{1}{4(x+3)^{2}}+C \\
+&amp; = \\
+&amp; =\frac{1}{8} \ln \left|\frac{(x+1)(x+2)^{16}}{(x+3)^{17}}\right|+\frac{9 x^{2}+50 x+68}{4(x+2)(x+3)^{2}}+C .
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_f5c3e1220d3585d02564g-107.jpg?height=81&amp;width=721&amp;top_left_y=522&amp;top_left_x=439)
+</t>
+  </si>
+  <si>
+    <t>1875</t>
+  </si>
+  <si>
+    <t>$\int \frac{d x}{x^{8}+x^{4}-2 x^{3}-2 x^{2}+x+1}$</t>
+  </si>
+  <si>
+    <t>Решите $\frac{1}{x^{5}+x^{4}-2 x^{3}-2 x^{2}+x+1}=\frac{1}{(x-1)^{2}(x+1)^{3}}$
+$$
+=\frac{A}{x-1}+\frac{B}{(x-1)^{2}}+\frac{C}{x+1}+\frac{D}{(x+1)^{2}}+\frac{E}{(x+1)^{9}},
+$$
+после приведения к общему знаменателю должно быть
+$$
+\begin{aligned}
+&amp; 1 \equiv A(x-1)(x+1)^{3}+B(x+1)^{2}+C(x-1)^{2} \\
+&amp; \cdot(x+1)^{2}+D(x-1)^{2}(x+1)+E(x-1)^{2}В этом тождестве,
+положим $x=1$, получаем $1=8 B; \quad B=\frac{1}{8}$;
+положим $x=-1$, получаем $1=4 E, E=\frac{1}{4}$ ；
+Пусть $x=0$, получаем $-A+B+C+D+E=1$ ；
+Пусть $x=2$, получаем $27 A+27 B+9 C+3 D+E=1 ;$
+Пусть $x=-2$, получаем $3 A-B+9C-9 D+9 E=1$；
+Таким образом, $A=-\frac{3}{16}, C=\frac{3}{16}, \quad \dot{D}=\frac{1}{4}$.
+Таким образом, 
+$$
+\begin{выравненный}
+&amp; \int \frac{d x}{x^{5}+x^{4}-2 x^{3}-2 x^{2}+x+1} \\
+&amp; =\int\left[-\frac{3}{16(x-1)}+\frac{1}{8(x-1)^{2}}+\frac{3}{16(x+1)}\right. \\
+&amp; \left.\quad+\frac{1}{4(x+1)^{2}}+\frac{1}{4(x+1)^{3}}\right] d x \\
+&amp; \left.=-\frac{3}{16} \ln |x-1|-\frac{1}{8(x-1)}+\frac{3}{16} \ln \right\rvert\,x+11 \\
+&amp; -\frac{1}{4(x+1)}-\frac{1}{8(x+1)}+C . \\
+&amp; =\frac{3}{16} \ln \left|\frac{x+1}{x-1}\right|t|-\frac{3 x^{2}+3 x-2}{8(x-1)(x+1)^{2}}+C .
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1876</t>
+  </si>
+  <si>
+    <t>$\int \frac{x^{2}+5 x+4}{x^{4}+5 x^{2}+4} d x$</t>
+  </si>
+  <si>
+    <t>Решите уравнение $\frac{x^{2}+5 x+4}{x^{4}+5 x^{2}+4}=\frac{A x+B}{x^{2}+1}+\frac{C x+D}{x^{2}+4}$, после приведения к общему знаменателю должно быть
+$$
+\bbegin{aligned}
+&amp; x^{2}+5 x+4 \doteq(A x+B)\left(x^{2}+4\right) \\
+&amp; \quad+(C x+D)\left(x^{2}+1\right)
+\end{aligned}
+$$
+Сравнив коэффициенты при $x$ с обеих сторон уравнения, получаем
+$$
+\begin{array}{l|l}
+x^{3} &amp; A+C=0, \\
+x^{2} &amp; B+D=1, \\
+x^{1} &amp; 4 A+C=5, \\
+x^{0} &amp; 4 B+D=4 .
+\end{array}
+$$
+Таким образом, $A=\frac{5}{3}, B=1, C=-\frac{5}{3}, D=0$ 。
+Таким образом,
+$$
+\begin{aligned}
+&amp; \int \frac{x^{2}+5 x+4}{x^{4}+5 x^{2}+4} d x=\int\left(\frac{5}{\frac{5}{x^{2}+1}+1}+\frac{-\frac{5}{3} x}{x^{2}+4}\right) d x \\
+= &amp; \frac{5}{6} \ln \frac{x^{2}+1}{x^{2}+4}+\operatorname{arctg} x+C .
+\end{aligned}
+$$
+Если в этой задаче не использовать метод неопределенных коэффициентов для разложения подынтегральной функции, а применять другие приемы, то можно получить более простое решение.Метод. На самом деле,
+$$
+\begin{aligned}
+&amp; \int \frac{x^{2}+5 x+4}{x^{4}+5 x^{2}+4} d x \\
+= &amp; \int \frac{x^{2}+4}{\left(x^{2}+1\right)\left(x^{2}+4\right)} d x+5 \int \frac{x d x}{\left(x^{2}+4\right)\left(x^{2}+1\right)}
+\end{aligned}
+$$
+$$
+\begin{aligned}
+&amp; =\int \frac{d x}{x^{2}+1}+\frac{5}{2} \int \frac{d\left(x^{2}\right)}{\left(x^{2}+4\right)\left(x^{2}+13\right.} \\
+&amp; =\operatorname{srctg} x+\"""frac{5}{6} \int\left(\frac{1}{x^{2}+1}-\frac{1}{x^{2}+4}\right) d\left(x^{2}\right) \\
+&amp; =\operatorname{arctg} x+\frac{5}{6} \ln \frac{x^{2}+1}{x^{2}+4}+C
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1877</t>
+  </si>
+  <si>
+    <t>$\int \frac{d x}{(x+1)\left(x^{2}+1\right)}$</t>
+  </si>
+  <si>
+    <t>Решим уравнение $\frac{1}{(x+1)} \frac{1}{\left(x^{2}+1\right)}=\frac{A}{x+1}+\frac{B x+C}{x^{2}+1}$, после приведения к общему знаменателю должно получиться
+$$1 \equiv A\left(x^{2}+1\right)+(B x+C)(x+1)
+$$
+Сравнив коэффициенты при одинаковых степенях $x$ с обеих сторон уравнения, получаем
+$$
+\begin{array}{l|l}
+x^{2} &amp; A+B=0, \\
+x^{2} &amp; B+C=0, \\
+x^{0} &amp; A+C=1,
+\end{array}
+$$
+Таким образом, $A=\frac{1}{2}, B=-\frac{1}{2}, C=\frac{1}{2}$ 。
+Так,
+$$
+\begin{aligned}
+&amp; \int \frac{d x}{(x+1)\left(x^{2}+1\right)}=\int\left[\frac{1}{2(x+1)}-\frac{x-1}{2\left(x^{2}+1\right)}\right] d x \\
+&amp; =\frac{1}{2} \ln |x+1|-\frac{1}{4} \ln \left(x^{2}+1\right)+\frac{1}{2} \operatorname{arctg} x+C \\
+&amp; =\frac{1}{4} \ln \frac{(x+1)^{2}}{x^{2}+1}+\frac{1}{2} \operatorname{setg} x+C .
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1878</t>
+  </si>
+  <si>
+    <t>$\int \frac{d x}{\left(x^{2}-4 x+4\right)\left(x^{2}-4 x+5\right)}$</t>
+  </si>
+  <si>
+    <t>Решение: $\frac{1}{\left(x^{2}-4 x+4\right)\left(x^{2}-4 x+5\right)}$
+$$
+\begin{aligned}
+&amp; =\frac{\left\left(x^{2}-4 x+5\right)-\left(x^{2}-4 x+4\right)}{\left(x^{2}-4 x+4\right)\left(x^{2}-4 x+5\right)}&amp; =\frac{1}{(x-2)^{2}}-\frac{1}{x^{2}-4 x+5} .
+\end{aligned}
+$$
+Таким образом,
+$$
+\begin{aligned}
+&amp; \int\left(x^{2}-4 x+\frac{d x}{\left(x^{2}-4 x+5\right)}\right. \\
+&amp; =\int\left[\frac{1}{(x-2)^{2}}-\frac{1}{x^{2}-4 x+5}\right] d x \\
+&amp; =-\frac{1}{x-2}-\int \frac{d(x-2)}{(x-2)^{2}+1} \\
+&amp; =-\frac{1}{x-2}-\operatorname{arctg}(x-2)+C
+\end{aligned}
+$$
+В данной задаче, если использовать метод неопределенных коэффициентов, это будет довольно затруднительно, но можно получить тот же результат, поэтому здесь опустим.</t>
+  </si>
+  <si>
+    <t>1879</t>
+  </si>
+  <si>
+    <t>∫ \frac{x d x}{(x-1)^{2}\left(x^{2}+2 x+2\right)}</t>
+  </si>
+  <si>
+    <t>Решите уравнение $(x-1)^{2}-\frac{x}{\left(x^{2}+2 x+2\right)}=\frac{A}{x-1}+\frac{B}{(x-1)^{2}}$gned}
+&amp; +\frac{C x+D}{x^{2}+2 x+2} ; \text { После приведения к общему знаменателю внизу } \\
+&amp; x \equiv A(x-1)\left(x^{2}+2 x+2\right)+B\left(x^{2}+2 x+2\right) \\
+&amp; +(C x+D)(x-1)^{2}
+\end{aligned}
+$$
+Сравнив коэффициенты при $x$ с обеих сторон равенства, получаем
+$$
+\begin{array}{l|l}
+x^{3} &amp; A+C=0, \\
+x^{2} &amp; A+B-2 C+D=0, \\
+x^{1} &amp; 2 B+C-2 D=\mathbf{1}, \\
+x^{6} &amp;-2 A+2 B+D=0 .
+\end{array}
+$$
+Таким образом, $A=\frac{1}{25}, B=\frac{1}{5}, C=-\frac{1}{25}, D=-\frac{8}{25}$ 。
+Таким образом,
+$$
+\begin{aligned}
+\int &amp; \frac{x d x}{(x-1)^{2}\left(x^{2}+2 x+2\right)} \\
+= &amp; \int\left[\frac{1}{25(x-1)}+\frac{1}{5(x-1)^{2}}-\frac{x+8}{25\left(x^{2}+2 x+2\right)}\right] d x \\
+=\frac{1}{25} \ln |x-1|-\frac{1}{5(x-1)}-\frac{1}{50} \int \frac{2 x+2}{x^{2}+2 x+2} d x \\
+&amp; -\frac{7}{25} \int \frac{d(x+1)}{(x+1)^{2}+1} \\
+= &amp; \frac{1}{25} \ln |x-1|-\frac{1}{5(x-1)}-\frac{1}{50} \ln \left(x^{2}+2 x+2\right) \\
+&amp; -\frac{7}{25} \operatorname{arctg}(x+1)+C
+\end{aligned}
+$$$$
+\begin{gathered}
+=\frac{1}{50^{2}} \ln \frac{(x-1)^{2}}{x^{2}+2 x+2}-\frac{1}{5(x-1)} \\
+-\frac{7}{25} \operatorname{arctg}(x+1)+C .
+\end{gathered}
+$$</t>
+  </si>
+  <si>
+    <t>1880</t>
+  </si>
+  <si>
+    <t>$\int \frac{d x}{x(1+x)}\left(1+x+x^{2}\right)$</t>
+  </si>
+  <si>
+    <t>Решите уравнение $\frac{1}{\dot{x}(1+x)\left(1+x+x^{2}\right)}=\frac{A}{x}+\frac{B}{x+1}+\frac{C x+D}{x^{2}+x+1}$, после приведения к общему знаменателю должно быть
+$$
+\begin{aligned}
+1 \equiv &amp; A(x+1)\left(1+x+x^{2}\right)+B x\left(1+x+x^{2}\right) \\
+&amp;+x(x+1)(C x+D) .
+\end{aligned}
+$$
+Сравнив коэффициенты при одинаковых степенях x с обеих сторон равенства, получаем
+$$
+\begin{array}{c|l}
+x^{3} &amp; A+B+C=0,\\
+x^{2} &amp; 2 A+B+C+D=0 \\
+x^{1} &amp; 2 A+B+D=0, \\
+x^{0} &amp; A=1
+\end{array}
+$$
+Отсюда, $A=1, B=-1, C=0ac{2}{\sqrt{3}^{3}} \operatorname{arctg} \frac{2 x+1}{\sqrt{3}}+C .
+\end{aligned}
+$$
+Эту задачу также можно решить без метода неопределенных коэффициентов.На самом деле, 
+$$
+\begin{aligned}
+&amp; \frac{1}{x(1+x)\left(1+x+x^{2}\right)}=\frac{1}{\left(x+x^{2}\right)\left(1+x+x^{2}\right)} \\
+&amp; =\frac{1}{x+x^{2}}-\frac{1}{1+x+x^{2}}=\frac{1}{x}-\frac{1}{1+x}-\frac{1}{1+x+x^{2}}
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1881</t>
+  </si>
+  <si>
+    <t>$\int \frac{d x}{x^{4}+1}$,</t>
+  </si>
+  <si>
+    <t>Решите $\frac{1}{x^{3}+1}=\frac{A}{x+1}+\frac{B x+C}{x^{2}-x+1}$, после приведения к общему знаменателю должно быть
+$$
+1=A\left(x^{2}-x+1\right)+(B x+C)(x+1) .
+$$
+$$
+\begin{array}{l|l}
+x^{2} &amp; A+B=0, \\
+x^{\prime} &amp; -A+B+C=0, \\
+x^{0} &amp; A+C=1 .
+\end{array}
+$$
+Таким образом, $A=\frac{1}{3}, B=-\frac{1}{3}, C=\frac{2}{3}$ .
+Таким образом,
+$$
+\begin{aligned}
+&amp; \int \frac{d x}{x^{3}+1}=\int\left[\frac{1}{3(x+1)}-\frac{x-2}{3\left(x^{2}-x+1\right)}\right]d x \\
+= &amp; \frac{1}{3} \int \frac{d x}{x+1}-\frac{1}{6} \int \frac{2 x-1}{x^{2}-x+1} d x+\frac{1}{2} \int \frac{d\left(x-\frac{1}{2}\right)}{\left(x-\frac{1}{2}\right)^{2}+\frac{3}{4}} \\
+= &amp; \frac{1}{6} \ln \frac{(x+1)^{2}}{x^{2}-x+1}+\frac{1}{\sqrt{3}} \operatorname{arcte} \frac{2 x-1}{\sqrt{3}}+C .
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_f5c3e1220d3585d02564g-114.jpg?height=75&amp;width=909&amp;top_left_y=1253&amp;top_left_x=411)
+</t>
+  </si>
+  <si>
+    <t>1882</t>
+  </si>
+  <si>
+    <t>$\int \frac{x d x}{x^{2}-1}$</t>
+  </si>
+  <si>
+    <t>Решите уравнение $\frac{x}{x^{3}-1}=\frac{A}{x-1}+\frac{B x+C}{x^{2}+x+1}$, после приведения к общему знаменателю должно получиться
+$$
+x \equiv A\left(x^{2}+x+1право)+(B x+C)(x-1) .
+$$
+Сравнив коэффициенты при $x$ с обеих сторон уравнения, получаем
+$$
+\begin{array}{l|l}
+x^{2} &amp; A+B=0, \\
+x^{1} &amp; A-Б+C=1, \\
+x^{0} &amp; A-C=0 .
+\end{array}
+$$
+Таким образом, $A=\frac{1}{3}, B=-\frac{1}{3}, C=\frac{1}{3}$ :Таким образом,
+$$
+\begin{aligned}
+&amp; \int_{x^{3}-1} \frac{x}{2} d x=\int\left[\frac{1}{3(x-1)}-\frac{x-1}{3\left(x^{2}+x+1\right)}\right] d x \\
+&amp; =\frac{1}{3} \int \frac{d x}{x-1}-\frac{1}{6} \int \frac{2 x+1}{x^{2}+x+1} d x+\frac{1}{2} \int \frac{d\left(x+\frac{1}{2}\right)}{\left(x+\frac{1}{2}\right)^{2}+\frac{3}{4}} \\
+&amp; =\frac{1}{6} \ln \frac{(x-1)^{2}}{x^{2}+x+1}+\frac{1}{\sqrt{3}^{3}} \operatorname{arctg} \frac{2 x+1}{\sqrt{3}}+C .
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1884</t>
+  </si>
+  <si>
+    <t>$\int \frac{d x}{x^{4}+1}$</t>
+  </si>
+  <si>
+    <t>Решение этой задачи, если использовать метод неопределённых коэффициентов, основные шаги следующие:
+$$
+\text { Пусть } \frac{1}{x^{4}+1}=\frac{A x+B}{x^{2}+x \sqrt{2}+1}+\frac{C x+D}{x^{2}-x \sqrt{2}+1} \text {, тогда после вычислений }
+$$
+можно получить $A=\frac{\sqrt{2}}{4}, B=\frac{1}{2}, C=-\frac{\sqrt{2}}{4}, D=\frac{1}{2}$. Таким образом,
+$$
+\begin{aligned}
+&amp; \int \frac{d x}{x^{4}+1}=\int \frac{\frac{\sqrt{2}}{4} x+\frac{1}{2}}{x^{2}+x \sqrt{2}+1} d x+\int \frac{-\frac{\sqrt{2}}{4} x+\frac{1}{2}}{x^{2}-x\sqrt{2}+1} d x \\
+&amp; =\frac{\sqrt{2}}{4} \int \frac{\left(x+\frac{\sqrt{2}}{2}\right) d x}{\left(x+\frac{\sqrt{2}}{2}\right)^{2}+\frac{1}{2}}+\frac{1}{4} \int \frac{d x}{\left(x+\frac{x}{2}\right)^{2}+\frac{1}{2}} \\
+&amp; -\frac{\sqrt{2}}{4} \int \frac{\left(x-\frac{\sqrt{2}}{2}\right) d x}{\left(x-\frac{\sqrt{2}}{2}\right)^{2}+\frac{1}{2}}+\frac{1}{4} \int \frac{d x}{\left(x-\frac{\sqrt{2}}{2}\right)^{2}+\frac{1}{2}} \\
+&amp; =\frac{1}{4 \sqrt{2}}\left[\ln \left(x^{2}+x \sqrt{2}+1\right)-\ln \left(x^{2}-x \sqrt{2}+1\right)\right] \\
+&amp; \quad+\frac{\sqrt{2}}{4}\left[\operatorname{arctg}\left(\frac{2 x+\sqrt{2}}{\sqrt{2}}\right)\right. \\
+&amp; \left.\quad+\operatorname{arctg}\left(\frac{2 x-\sqrt{2}}{\sqrt{2}}\right)\right]+C
+\end{aligned}
+$$
+$$
+\begin{aligned}
+&amp; =\frac{1}{4 \sqrt{2}} \frac{x^{2}+x \sqrt{2}+1}{x^{2}-x \sqrt{2}+1} \\
+&amp; +\frac{x^{2}}{4} \cdot \operatorname{xctg}\left(\frac{x+2}{1-x^{2}}\right)+C .
+\end{aligned}
+$$
+Если применить следующий метод, будет проще.
+$$
+\begin{aligned}
+&amp; \int \frac{d x}{x^{4}+1}=\frac{1}{2} \int \frac{x^{2}+1}{x^{4}+1} d x=\frac{1}{2} \int \frac{x^{2}+1}{x^{4}+1} d x\\
+&amp; \left.=\frac{1}{2 \sqrt{2}} \text { арктан( } \frac{x^{2}-1}{x \sqrt{2}}\right)^{*} \text { ? } \\
+&amp; -\frac{j}{4}{ }^{2} \ln ^{x^{2}-x \sqrt{2}+1^{* *}} x^{2}+C_{1} \frac{1}{2}+1
+\end{aligned}$$
+Обратите внимание на arctg $\left(\frac{x^{2}-1}{x \sqrt{2}}\right)=\frac{\pi}{2}+\operatorname{arctg}\left(\frac{x \sqrt{2}}{1-\dot{x}^{2}}\right)$ ，最后即得：
+$$
+\begin{aligned}
+&amp; \int \frac{d x}{x^{4}+1}=\frac{1}{2 \sqrt{2}} \operatorname{arctg}\left(\frac{x \sqrt{2}}{1-x^{2}}\right) \\
+&amp; +\frac{1}{4 \sqrt{2}} \ln \frac{x^{2}+x \sqrt{2}+1}{x^{2}-x \sqrt{2}+1}+C .
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1885</t>
+  </si>
+  <si>
+    <t>$\int \frac{d x}{x^{4}+x^{2}+1}$</t>
+  </si>
+  <si>
+    <t>Решите уравнение $\frac{1}{x^{4}+x^{2}+1}=\frac{A x+B}{x^{2}+x+1}+\frac{C x+D}{x^{2}}-x+1$, после приведения к общему знаменателю должно получиться $$ \left.1\equiv(A x+B)\left(x^{2}-x+1\right)+C x+D\right)\left(x^{2}+x+1\right)
+$$
+Сравнив коэффициенты при одинаковых степенях $x$ с обеих сторон равенства, получаем
+$$\begin{array}{l|l}
+x^{3} &amp; A+C=0, \\
+x^{2} &amp; -A+B+C+D=0, \\
+x^{1} &amp; A-D+C+D=0, \\
+x^{0} &amp; B+D=1,
+\end{array}
+$$
+Таким образом, $A=\frac{1}{2}, B=\frac{1}{2}, C=-\frac{1}{2}, D=\frac{1}{2}$ .
+Следовательно,
+$$
+\b\begin{aligned}
+&amp; \int \frac{d x}{x^{4}+x^{2}+1}=\int \frac{\frac{1}{2}(x+1)}{x^{2}+x+1} d x-\int \frac{\frac{1}{2}(x-1)}{x^{2}-x+1} d x \\
+&amp; =\frac{1}{4} \int \frac{(2 x+1) d x}{x^{2}+x+1}+\frac{1}{4} \int \frac{d\left(x+\frac{1}{2}\right)}{\left(x+\frac{1}{2}\right)^{2}+\frac{3}{4}} \\
+&amp; -\frac{1}{4} \int \frac{(2 x-1) d x}{x^{2}-x+1}+\frac{1}{4} \int \frac{d\left(x-\frac{1}{2}\right)}{\left(x-\frac{1}{2}\right)^{2}+\frac{3}{4}} \\
+&amp; =\frac{1}{4}\left[\ln \left(x^{2}+x+1\right)-\ln \left(x^{2}-x+1\right)\right] \\
+&amp; +\frac{1}{2}\left[\operatorname{arctg}\left(\frac{2 x+1}{\sqrt{3}}\right)+\operatorname{arctg}\left(\frac{2 x-1}{\sqrt{3}}\right)\right]+C_{1}
+\end{aligned}
+$$
+$$
+\begin{выравненный}
+&amp; =\frac{1}{4} \ln \frac{x^{2}+x+1}{x^{2}-x+1}+\frac{1}{2} \frac{1}{3} \text { являются } \operatorname{tg}\left(\frac{\sqrt{3} x}{1-x^{2}}\right)+C_{1} \\
+&amp; =\frac{1}{4} \ln \frac{x^{2}+x+1}{x^{2}-x+1}+\frac{1}{2 \sqrt{3}} \operatorname{arcte}\left(\frac{x^{2}-1}{x \sqrt{3}}\right)+C
+\end{aвыровненный}
+$$
+如术用待定系数法解本题，则更筒单些，解法与上题类脃：
+$$
+\begin{выровненный}
+&amp; \int \frac{d x}{x^{4}+x^{2}+1}=\frac{1}{2} \int \frac{x^{2}+1}{x^{4}+x^{2}+1} d x \\
+&amp; -\frac{1}{2} \int \frac{x^{2}-1}{x^{4}+x^{2}+1}d x \\
+= &amp; \frac{1}{2} \int \frac{1+\frac{1}{x^{2}}}{x^{2}+1+\frac{1}{x^{2}}} d x-\frac{1}{2} \int\frac{1-\frac{1}{x^{2}}}{x^{2}+1-\frac{1}{x^{2}}} d x \\
+= &amp; \frac{1}{2} \int \frac{d\left(x-\frac{1}{x}\right)}{\left(x-\frac{1}{x}\right)^{2}+3}-\frac{1}{2} \int \frac{d\left(x+\frac{1}{x}\right)}{\left(x+\frac{1}{x}\right)^{2}-1} \\
+= &amp; \frac{1}{2 \sqrt{2}-\operatorname{srctg}\left(\frac{x^{2}-</t>
+  </si>
+  <si>
+    <t>1886</t>
+  </si>
+  <si>
+    <t>$\int \frac{d x}{x^{6}+1}$</t>
+  </si>
+  <si>
+    <t>Решение данной задачи с использованием метода неопределённых коэффициентов оказывается довольно сложным. После вычислений можно получить
+$$
+\frac{1}{x^{6}+1}=\frac{1}{3\left(x^{2}+1\right)}+\frac{\frac{\sqrt{3}}{...}}{x^{2}}+\frac{6}{x+1}+\frac{1}{3}}{x^{3}+1}
+$$
+$$
+\begin{array}{r}
+-\frac{\sqrt{3}}{6} x+\frac{1}{3} \\
++\frac{x^{2}-x \sqrt{3}+1}{}
+\end{array}
+$$
+Интегральные шаги в вопросах 1884 и 1885 аналогичны, не будем подробно объяснять, их результат равен $\frac{1}{2} \operatorname{arctg} x+\frac{1}{6} \operatorname{arctg}\left(x^{3}\right)$
+$$
++\cdots \frac{1}{4 \sqrt{3}} \ln \frac{x^{2}+x \sqrt{3}}{x^{2}-x \sqrt{3}}+1
+$$
+Если использовать метод неопределённых коэффициентов для решения этой задачи, то будет проще. Ниже приведены два способа решения:
+СпособОдин
+$$
+\begin{aligned}
+&amp; \int \frac{d x}{x^{6}+1}=\frac{1}{2} \int \frac{x^{4}+1}{x^{6}+1} d x-\frac{1}{2} \int \frac{x^{4}-1}{x^{6}+1} d x \\
+&amp; =\frac{1}{2} \int \frac{x^{2}+\left(x^{4}-x^{2}+1\right)}{x^{6}+1} d x \\
+&amp; -\frac{1}{2} \int \frac{\left(x^{2}-1\right)\left(x^{2}+1\right)}{\left(x^{2}+1\right)\left(x^{4}\right.}-\frac{\left.x^{2}+1\right)}{-1} d x \\
+&amp; =\frac{1}{2} \int \frac{x^{2}}{x^{6}+1} d x+\frac{1}{2} \int \frac{d x}{1+x^{2}}-\frac{1}{2} \int \frac{x^{2}-1}{x^{4}-x^{2}+1}d x \\
+&amp; =\frac{1}{6} \int \frac{d\left(x^{3}\right)}{1+\left(x^{3}\right)^{2}}+\frac{1}{2} \operatorname{arctg} x-\frac{1}{2} \int \frac{d\left(x+\frac{1}{x}\right)}{\left(x+\frac{1}{x}\right)^{2}-3} \\
+&amp; =\frac{1}{6} \operatorname{arctg}\left(x^{3}\right)+\frac{1}{2} \operatorname{arc} \operatorимя{tg} x
+\end{aligned}
+$$
+$$
++\frac{1}{4 \sqrt{3}} \ln \frac{x^{2}+x \sqrt{3}+1}{x^{2}-x \sqrt{3}+1}+C
+$$
+Решение два
+По аналогии с разложением задачи 1881, можно получить
+$$
+\frac{1}{x^{6}+1}=\frac{1}{3\left(x^{2}+1\right)}-\frac{x^{2}-2}{3\left(x^{4}-x^{2}+1\right)}
+$$
+Таким образом,
+$$
+\begin{aligned}
+&amp; \int \frac{d x}{x^{6}+1}=\frac{1}{3} \int \frac{d x}{x^{2}+1}-\frac{1}{3} \int \frac{\left(x^{2}-2\right) d x}{x^{2}+1} \\
+= &amp; \frac{1}{3} \operatorname{arctg} x-\frac{1}{6} \int \frac{\left(x^{2}+1\right)+\left(x^{2}-1\right)}{x^{4}-x^{2}+1} d x \\
++ &amp; \frac{1}{3} \int \frac{\left(x^{2}+1\right)-\left(x^{2}-1\right)}{x^{4}-x^{2}}+\frac{1}{2}} d x \\
+= &amp; \frac{1}{3} \operatorname{arctg} x+\frac{1}{6} \int \frac{x^{2}+1}{x^{4}-x^{2}+1} d x \\
+- &amp; \frac{1}{2} \int \frac{x^{2}-1}{x^{4}-x^{2}+1} d x \\
+= &amp; \frac{1}{3} \operatorname{arctg} x+\frac{1}{6} \int \frac{d\left(x-\frac{1}{x}\right)}{\left(x-\frac{1}{x}\right)^{2}+1}-\frac{1}{2} \int \frac{d\left(x+\frac{1}{x}\right)}{\left(x+\frac{1}{x}\right)^{2}-3} \\
+= &amp; \frac{1}{3} \operatorname{arctg} x+\frac{1}{6} \operatorname{arctg}\left(\frac{x^{2}-1}{x}\right) \\
++ &amp;\frac{1}{4 \sqrt{3}} \ln \frac{x^{2}+x \sqrt{3}+1}{x^{2}-x \sqrt{3}+1}+C .
+\end{aligned}
+$$
+Два ответаФорма различна, но суть одна и та же.</t>
+  </si>
+  <si>
+    <t>1887</t>
+  </si>
+  <si>
+    <t>$\int \frac{d x}{(1+x)\left(1+x^{2}\right)\left(1+x^{3}\right)}$</t>
+  </si>
+  <si>
+    <t>Решите уравнение $\frac{1}{(1+x)\left(1+x^{2}\right)\left(1+x^{3}\right)}=\frac{A}{x+1}+\frac{B}{(x+1)^{2}}$+\frac{C x+D}{x^{2}+1}+\frac{E x+F}{x^{2}-x+1}
+$$
+После приведения к общему знаменателю виртуально есть
+$$
+\begin{aligned}
+1 \equiv &amp; A(x+0)\left(x^{2}+1\right)\left(x^{2}-x+1\right)+B\left(x^{2}+1\right) \\
+&amp; \left(x^{2}-x+1\right)+(C x+D)x+1)^{2}\left(x^{2}-x+1\right) \\
+&amp; +(E x+F)(x+1)^{2}\left(x^{2}+1\right) .
+\end{aligned}
+$$
+Сравнить равенства式两端 $x$ 的局次需系数，得
+$$
+\begin{array}{l:l}
+x^{5} &amp; A+C+E=0, \\
+x^{4} &amp; B+C+D+2 E+F=0, \\
+x^{3} &amp; A+D+2 E+2 F-B=0, \\
+x^{2} &amp; A+2 B+C+2 E+2 F=0, \\
+x^{1} &amp; -B+C+D+E+2 F=0, \\
+x^{0} &amp; A+B+D+F=1d{array}
+$$
+Таким образом, $A=\frac{1}{3}, B=\frac{1}{6}, C=0, D=\frac{1}{2}: E=-\frac{1}{3}, F=0$ 。
+Таким образом,
+$$\int \frac{d x}{(1+x)\left(1+x^{2}\right)\left(1+x^{3}\right)}=\int\left[\frac{1}{3(x+1)}+\frac{1}{6(x+1)^{2}}\right.
+$$
+$$
+\begin{aligned}
+&amp; \left.+\frac{1}{2\left(x^{2}+1\right)}-\frac{x}{3\left(x^{2}-x+1\right)}\right) d x \\
+= &amp; \frac{1}{3} \ln |1+x|-\frac{1}{6(x+1)}+\frac{1}{2} \operatorname{arctg} x \\
+&amp; -\frac{1}{6} \int \frac{(2 x-1) d x}{x^{2}-x+1}-\frac{1}{6} \int \frac{d\left(x-\frac{1}{2}\right)}{\left(x-\frac{1}{2}\right)^{2}+\frac{3}{4}} \\
+= &amp; \frac{1}{6} \ln \frac{(x+1)^{2}}{x^{2}-x+1}-\frac{1}{6(x+1)}+\frac{1}{2} \operatorname{arctgx} \\
+&amp; -\frac{1}{3 \sqrt{3}} \operatorname{arctg}\left(\frac{2 x-1}{\sqrt{3}}\right)+C .
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1888</t>
+  </si>
+  <si>
+    <t>$\int \frac{d x}{x^{5}-x^{4}+x^{3}-x^{2}+x-1}$</t>
+  </si>
+  <si>
+    <t>解设 $\frac{1}{x^{5}-x^{4}+x^{3}-x^{2}+x-1}$
+$$
+\begin{aligned}
+&amp; =\frac{1}{(x-1)\left(x^{2}-x+1\right)\left(x^{2}+x+1\right)} \\
+&amp; =\frac{A}{x-1}+\frac{B x+C}{x^{2}+x+1}+\frac{C x+D}{x^{2}-x+1},\end{aligned}
+$$
+После приведения к общему знаменателю должно быть
+$$
+\begin{aligned}
+1 \equiv &amp; A\left(x^{2}+x+1\right)\left(x^{2}-x+1\right)+(B x+C)(x-1) \\
+&amp; \quad\left(x^{2}-x+1\right)+(D x+E)(x-1)\left(x^{2}+x+1\right) .
+\end{aligneсравнив коэффициенты одноименных степеней $\boldsymbol{x}$ с обеих сторон равенства, получаем
+\begin{array}{c|l}
+x^{4} &amp; A+B+D=0, \\
+x^{3} &amp; -2 B+C+E=0, \\
+x^{2} &amp; A+2 B-2 C=0, \\
+x^{\prime} &amp; -B+2 C-D=0, \\
+x^{0} &amp; A-C-E=1 .
+\end{array}
+$$Таким образом, $A=\frac{1}{3}, B=-\frac{1}{3}, C=-\frac{1}{6}, D=0, E=-\frac{1}{2}$. 
+Следовательно, 
+$$
+\begin{aligned}&amp; \int \frac{1}{x^{5}-x^{4}+x^{3}-x^{2}+x-1} \\
+= &amp; \int\left[\frac{1}{3(x-1)}-\frac{2 x+1}{6\left(x^{2}+x+1\right)}-\frac{1}{2\left(x^{2}+x+1\right)}\right] d x \\
+= &amp; \frac{1}{6} \ln \frac{(x-1)^{2}}{x^{2}+x+1}-\sqrt{ }-\frac{1}{3}^{\operatorname{arctg}}\left(\frac{2 x-1}{\sqrt{3}}\right)+C .\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1889</t>
+  </si>
+  <si>
+    <t>$\int \frac{x^{2} d x}{x^{4}+3 x^{3}+\frac{9}{2} x^{2}+3 x+1}$</t>
+  </si>
+  <si>
+    <t>нед}
+&amp; +\frac{C x+D}{x^{2}+x+\frac{1}{2}}, \text { 眮分后应有 } \\
+&amp; x^{2} \equiv(A x+B)\left(x^{2}+x+\frac{1}{2}\right)
+\end{aligned}
+$$
+$$
++(C x+D)\left(x^{2}+2 x+2\right)
+$$
+Сравните обе стороны равенства $\boldsymbol{x}$ однородные коэффициенты; получаем
+$$
+\begin{aligned}
+&amp; x^{3}\left|\begin{array}{l}
+A+C=0, \\
+x^{2}
+\end{array}\right| \begin{array}{l}
+A+B+2 C+D=1, \\
+\frac{A}{2}+B+2 C+2 D=0, \\
+\frac{B}{2}+2 D=0 .
+\end{array}\\
+&amp; x^{0}+2,
+\end{aligned}
+$$
+Таким образом, $A=\frac{4}{5}, B=\frac{12}{5}, C=-\frac{4}{5}, D=-\frac{3}{5}$.
+于基，
+$$
+\begin{aligned}
+&amp; \int \frac{x^{2} d x}{x^{4}+3 x^{3}+\frac{9}{2} x^{2}+3 x+1} \\
+=""∫\left[\frac{4(x+3)}{5\left(x^{2}+2 x+2\right)}-\frac{4 x+3}{5\left(x^{2}+x+\frac{1}{2}\right)}\right] d x \\
+= &amp; \frac{2}{5} \int \frac{(2 x+2) d x}{x^{2}+2 x+2}+\frac{8}{5} \int \frac{d(x+1)}{(x+1)^{2}+1} \\
+- &amp; \frac{2}{5} \int \frac{(2 x+1) d x}{x^{2}+x+\frac{1}{2}}-\frac{1}{5} \int \frac{d\left(x+\frac{1}{2}\right)}{\left(x+\frac{1}{2}\right)^{2}+\frac{1}{4}} \\
+= &amp; \frac{2}{5} \lnfrac{x^{2}+2 x+2}{x^{2}+x+\frac{1}{2}}+\frac{8}{5} \operatorname{arctg}(x+1)
+\end{aligned}
+$$
+$$-\frac{2}{5} \operatorname{arctg}(2 x+1)+C</t>
+  </si>
+  <si>
+    <t>1890</t>
+  </si>
+  <si>
+    <t>При каких условиях, накопление</t>
+  </si>
+  <si>
+    <t>$$
+\int \frac{a x^{2}+b x+c}{x^{3}(x-1)^{2}} d x
+$$
+является ли это рациональной функцией?
+Решение: пусть $\frac{a x^{2}+b x-c}{x^{3}(x-1)^{2}}=\frac{A}{x}-\frac{B}{x^{2}}+\frac{C}{x^{3}}+\frac{D}{x-1}+\frac{F}{(x-1)^{2}}$ ，
+После приведения к общему знаменателю должно остаться
+$$
+\b\begin{aligned}
+&amp; a x^{2}+b x+c \equiv A x^{2}(x-1)^{2}+B x(x-1)^{2} \\
+&amp; +C(x-1)^{2}+D x^{3}(x-1)+Ex^{3}
+\end{aligned}
+$$
+По уравнению Бяна на обоих концах $x$ степени, получаем
+$$
+\begin{aligned}
+&amp; x^{4}: A+D=0, \\
+&amp; x^{2} \\&amp; x^{2} \\
+&amp; x^{2} \\
+&amp; x^{2} \\
+&amp; x^{2} \\
+&amp; x^{2}
+\end{aligned}
+$$
+Исходя из этого, $A=a+2 b+3 c, B=b+2c, C=c$,
+$$
+D=-(a+2 b+3 c), E=a+b+c .
+$$
+Когда $A=D=0$, то есть $a+2 b+3 c=0$, интеграл
+$$
+\int \frac{a x^{2}+b x+c}{x^{3}(x-1)^{2}} d x
+$$
+Для рациональной функции.
+Используя метод Остроградского, вычислите интеграл,</t>
+  </si>
+  <si>
+    <t>1891</t>
+  </si>
+  <si>
+    <t>$\int \frac{x d x}{(x-1)^{2}(x+1)^{3}}$</t>
+  </si>
+  <si>
+    <t>Решите $Q=(x-1)^{2}(x+1)^{9}$,
+$$
+\begin{aligned}
+&amp; Q_{1}=(x-1)(x+1)^{2}=x^{3}+x^{2}-x-1, \\
+&amp; Q_{2}=""(x-1)(x+1)=x^{2}-1 .
+\end{aligned}
+$$
+Пусть $\frac{x}{(x-1)^{2}(x+1)^{8}}$
+$$
+\begin{aligned}
+= &amp;\left(\frac{A x^{2}+B x+C}{x^{3}+x^{2}-x-1}\right)^{\prime}+\frac{D x+E}{x^{2}-1}, \text { таким образом } \\&amp; x \equiv(2 A x+B)(x-1)(x+1)-(3 x-1) \\
+&amp; \cdot\left(A x^{2}+B x+C\right)+(D x+E)(x-1)(x+1)^{2} .\end{aligned}
+$$
+Сравнив коэффициенты при $x$ с обеих сторон равенства, получаем
+$$
+\int \frac{P(x)}{Q(x)} d x=\frac{P_{1}(x)}{Q_{t}(x)}+\int \frac{P_{2}(x)}{Q_{2}(x)} d x
+$$
+$$
+\begin{aligned}
+&amp; g_{1}(x)=(x-a)^{k-1} \cdots\left(x^{2}+p x+q\right)^{H-1} \cdots, \\
+&amp; Q_{2}(x)(q-a) \cdots\left(x^{2}+p x+q\right) \cdots
+\end{aligned}$$
+$$
+\begin{array}{r|l}
+x^{4} &amp; D=0 \\
+x^{3} &amp; -A+D+E=0 \\
+x^{2} &amp; A-2 B-D+E=0, \\
+x^{1} &amp; -2 A-3 C+B-D-E=1, \\
+x^{0} &amp; -B-C-E=0
+\end{array}
+$$
+出趾， $A=-\frac{1}{8}, B=-\frac{1}{8}, C=-\frac{1}{4}, D=0, E=-\frac{1}{8}$. Таким образом,
+$$
+\begin{aligned}
+&amp; \int(x-1)^{2}(x+1)^{3}=-\frac{x^{2}+x+2}{8(x-1)(x+1)^{2}} \\
+&amp; -\frac{1}{8} \int \frac{d x}{x^{2}-1} \\
+&amp; =-\frac{x^{2}+x+\frac{1}{2}}{8(x-1)(x+1)^{2}}+\frac{1}{16} \ln \left|\frac{x+1}{x-1}\right|+C
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_f5c3e1220d3585d02564g-127.jpg?height=104&amp;width=1489&amp;top_left_y=1621&amp;top_left_x=295)
+(https://cdn.mathpix.com/cropped/2024_12_19_f5c3e1220d3585d02564g-127.jpg?height=56&amp;width=1566&amp;top_left_y=1728&amp;top_left_x=202)
+(https://cdn.mathpix.com/cropped/2024_12_19_f5c3e1220d3585d02564g-127.jpg?height=58&amp;width=780&amp;top_left_y=1781&amp;top_left_x=204)
+(https://cdn.mathpix.com/cropped/2024_12_19_f5c3e1220d3585d02564g-127.jpg?height=64&amp;width=1585&amp;top_left_y=1964&amp;top_left_x=207)甸：
+(https://cdn.mathpix.com/cropped/2024_12_19_f5c3e1220d3585d02564g-127.jpg?height=61&amp;width=1275&amp;top_left_y=2131&amp;top_left_x=205)
+(https://cdn.mathpix.com/cropped/2024_12_19_f5c3e1220d3585d02564g-127.jpg?height=64&amp;width=1586&amp;top_left_y=2315&amp;top_left_x=206)
+(https://cdn.mathpix.com/cropped/2024_12_19_f5c3e1220d3585d02564g-127.jpg?height=61&amp;width=1585&amp;top_left_y=2374&amp;top_left_x=207)
+(https://cdn.mathpix.com/cropped/2024_12_19_f5c3e1220d3585d02564g-127.jpg?height=58&amp;width=1585&amp;top_left_y=2432&amp;top_left_x=207)
+(https://cdn.mathpix.com/cropped/2024_12_19_f5c3e1220d3585d02564g-127.jpg?height=61&amp;width=969&amp;top_left_y=2488&amp;top_left_x=201)
+</t>
+  </si>
+  <si>
+    <t>1892</t>
+  </si>
+  <si>
+    <t>$\int \frac{d x}{\left(x^{3}+1\right)^{2}}$</t>
+  </si>
+  <si>
+    <t>Решите $Q=(x+1)^{2}\left(x^{2}-x+1\right)^{2}$,
+$$
+Q_{1}=Q_{2}=x^{3}+1
+$$
+Пусть $\left(x^{3}+1\right)^{2}=\left(\frac{A x^{2}+B x+C}{x^{3}+1}\right)^{\prime}+\frac{D x^{2}+E x+F}{x^{3}+1}$, таким образом
+$$
+1 \equiv(2 A x+B)\left(x^{3}+1\right)-3 x^{2}\left(A x^{3}+B x+C\right)
+$$
+$$
++\left(D x^{2}+E x+F\right)\left(x^{3}+1\right)
+$$
+Сравнивая коэффициенты при $x$ с обеих сторон равенства, получаем
+$$
+\begin{array}{l:l}
+x^{5} &amp; D=0, \\
+x^{4} &amp; -A+E=0, \\
+x^{3} &amp; -2 B+F=0, \\
+x^{2} &amp; -3 C+D=0, \\
+x^{1} &amp; 2 A+E=0, \\
+x^{0} &amp; B+F=1 . 
+\end{arrай}
+$$
+Таким образом, $A=0, B=\frac{1}{3}, C=0, D=0, E=0, F^{\prime}=\frac{2}{3}$. Таким образом,
+$$
+\begin{aligned}
+&amp;∫ \frac{d x}{\left(x^{3}+1\right)^{2}}=\frac{x}{3\left(x^{3}+1\right)}+\frac{2}{3} ∫ x^{3}+1\\
+&amp; =\frac{x}{3\left(x^{3}+1\right)}+\frac{1}{9} \ln \frac{(x+1)^{2}}{x^{2}-x+1} \\
+&amp; +\frac{2}{3} \sqrt{ }^{3} \\
+&amp; \text { арктан } \left(\frac{2 x-1}{\sqrt{3}}\right)^{2}+C
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1893</t>
+  </si>
+  <si>
+    <t>$\int \frac{d x}{\left(x^{2}+1\right)}=$</t>
+  </si>
+  <si>
+    <t>Решите $Q=\left(x^{2}+1\right)^{3}, Q_{1}=\left(x^{2}+1\right)^{2}, Q_{2}=x^{2}+1$.
+Пусть $\left._{\left(x^{2}+1\right)^{3}} \frac{1}{\left(x^{3}+B x^{2}+C x+D\right.}\right]^{2}+\frac{F x+F}{x^{2}+1}$,
+так что$$
+1 \equiv\left(3 A x^{2}+2 B x+C\right)\left(x^{2}+1\right)-4 x\left(A x^{3}+B x^{2}\right.
+$$$$
++C x+D)+(E x+F)\left(x^{2}+1\right)^{2}
+$$
+Сравнив коэффициенты при равенстве с обеих сторон для $x$, получаем
+$$
+\begin{aligned}
+&amp; x^{5} }^{\prime} E=0, \\
+&amp; x^{4} \mid-A+F=0 \text { ， } \\
+&amp; x^{3}-2 B+2 E=0, \\
+&amp; x^{2} 3 A-3 C+2 F=0 \text {, } \\
+&amp; \begin{array}{l:l}
+x^{1} &amp; 2 B-4 D+E=0, \\
+x^{0} &amp; C+F=1 .
+\end{array}
+\end{alС этого следует, что $A=\frac{3}{8}, B=0, C=\frac{5}{8}, D=0, E=0, F=\frac{3}{8}$.&amp; \int \frac{d x}{\left(x^{2}+1\right)^{5}}=\frac{x\left(3 x^{2}+-5\right)}{8\left(x^{2}+1\right)^{3}}+\frac{3}{8} \int \frac{d x}{x^{2}+1} \\
+&amp; =\frac{x\left(3 x^{2}+5\right)}{8\left(x^{2}+1\right)^{3}}+\frac{3}{8} \operatorname{arctg} x+C .
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1894</t>
+  </si>
+  <si>
+    <t>$\int \frac{x^{2} d x}{\left(x^{2}+2 x+2\right)^{2}}$</t>
+  </si>
+  <si>
+    <t>Решите $Q=\left(x^{2}+2 x+2\right)^{2}, Q_{1}=Q_{2}=x^{2}+2 x+2$ .
+Пусть $\frac{x^{2}}{\left(x^{2}+2 x+2\right)^{2}}=\left(\frac{A x+B}{x^{2}+2 x+3}\right)^{\prime}+\frac{C x+D}{x^{2}+2 x+2}$,
+из Юга
+$$
+\begin{выравненный}
+&amp; x^{2} \equiv A\left(x^{2}+2 x+2\right)-2(x+1)(A x+B) \\
+&amp; +(C x+D)\left(x^{2}+2 x+2\риght)
+\end{aligned}
+$$
+Сравнив однородные коэффициенты $x$ с обеих сторон уравнения, получаем
+$$
+\begin{array}{l|l}
+x^{3} &amp; C=0, \\
+x^{2} &amp; -A+2C=0, D=1$ 。
+Таким образом,
+$$
+\begin{aligned}
+&amp; \int \frac{x^{2} d x}{\left(x^{2}+2 x+2\right)^{2}}=\frac{1}{x^{2}+2 x+2}+\int \frac{d x}{x^{2}+2 x+2} \\
+= &amp; \frac{1}{x^{2}+2 x+2}+\int \frac{d(x+1)}{(x+1)^{2}+1} \\
+= &amp; \frac{1}{x^{2}+2 x+2}+\operatorname{arctg}(x+1)+C .
+\end{aligned}
+$$
+Если в этой задаче не использовать метод ОстриоградскогоОсновным методом легче получить: описать результат, на самом деле, 
+$$
+\begin{aligned}
+&amp; \int \frac{x^{2} d x}{\left(x^{2}+2 x+2\right)^{2}}=\int \frac{\left(x^{2}+2 x+2\right)-(2 x+2)}{\left(x^{2}+2 x+2\right)^{2}} d x \\
+= &amp; \int \frac{d x}{x^{2}+2 x+2}-\int \frac{(2 x+2) d x}{\left(x^{2}+2 x+2\right)^{2}} \\
+= &amp; \int \frac{d(x+1)}{(x+1)^{2}}-\int \frac{d\left(x^{2}+2 x-2\right)}{\left(x^{2}+2 x+2\right)^{2}} \\
+= &amp; \operatorname{arctg}(x+1)+\frac{1}{x^{2}-2 x+2}+C .
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1895</t>
+  </si>
+  <si>
+    <t>$\int \frac{d x}{\left(x^{4}+1\right)^{2}}$</t>
+  </si>
+  <si>
+    <t>Решите $Q=\left(x^{4}+1\right)^{2}, Q_{1}=Q_{2}=x^{4}+1$,
+положим $\frac{1}{\left(x^{4}+1\right)^{2}}=\left(\frac{A x^{3}+B x^{2}+C x+D}{x^{4}+1}\right)^{\prime}$
+$+\frac{E x^{3} \pm F x^{2}+G x+H}{x^{4}+1}$Таким образом
+$$
+\begin{aligned}
+&amp; 1 \equiv\left(3 A x^{2}+2 B x+C\right)\left(x^{4}+1\right)-4 x^{5}\left(Ax^{3}+B x^{2}\right. \\
+&amp; +C x+D)+\left(E x^{3}+F x^{2}+G x+H\right)\left(x^{4}+1\right) . 
+\end{aСравнивая коэффициенты одноимённых степеней $x$ с обеих сторон уравнения, получаем
+\begin{array}{l|l}
+x^{7} &amp; E=0, \\
+x^{6} &amp; -A+F=0, \\
+x^{5} &amp; -2 B+G=0, \\
+x^{4} &amp; -3 C+H=0, \\
+x^{3} &amp; -4 D+E=0, \\
+x^{2} &amp; 3 A+F=0, \\
+x^{1} &amp; 2 B+G=0, \
+x^{0} &amp; C+H=1 .
+\end{array}
+$$
+Таким образом, $A=0, B=0, C=\frac{1}{4}, D=0, E=0, F=0$ ，
+$$
+G=0, \quadH=-\frac{3}{4} .
+$$
+Таким образом,
+$$
+\begin{aligned}
+&amp; \int \frac{d x}{\left(x^{4}+1\right)^{2}}=\frac{x}{4\left(x^{4}+1\right)}+\frac{3}{4} \int \frac{d x}{x^{4}+1} \\
+&amp; =\frac{x}{4\left(x^{4}+1\right)}+\frac{3}{16 \sqrt{2}} \ln \frac{x^{2}+x}{x^{2}-x \sqrt{\frac{2}{2}+1}} 
+\end{aligned} 
+$$</t>
+  </si>
+  <si>
+    <t>1896</t>
+  </si>
+  <si>
+    <t>$\int \frac{x^{2}+3 x-2}{(x-1)\left(x^{2}+x+1\right)^{2}} d x$</t>
+  </si>
+  <si>
+    <t>铚 $\mathrm{Q}=(x-1)\left(x^{2}+x+1\right)^{2}, Q_{1}=x^{2}+x+1$,
+$$
+Q_{2}=(x-1)\left(x^{2}+x+1\right) .
+$$
+Задайте $\frac{x^{2}+3 x-2}{(x-1)\left(x^{2}+x+1\right)^{2}}=\left(\frac{A x+B}{x^{2}+x+1}\right)^{\prime}$
+$+\frac{C x^{2}+D x+E}{(x-1)\left(x^{2}+x+1\right)}$, таким образом
+$$
+\begin{aligned}
+&amp; x^{2}+3 x-2=A(x-1)\left(x^{2}+x+1\right)-(2 x+1) \\
+&amp; \cdot(A x+B)(x-1)+\left(C x^{2}+D x+E\right)\left(x^{2}+x+1\right) .
+\end{aligned}
+$$
+Сравнив коэффициенты при одинаковых степенях $x$ в равенстве, получаем
+$$
+\begin{aligned}
+&amp; x^{4} C=0, \\
+&amp;x^{3}-A+C+D=0, \\
+&amp; x^{2} A-2 B+C+D+E=1, \\
+&amp; x^{1} A+B+D+E=3, \\
+&amp; x^{0}-A+B+E=-2 . 
+\end{aligned}
+$$
+Таким образом, $A=\frac{5}{3}, B=\frac{2}{3}, C=0, D=\frac{5}{3}, E=-1$ .
+Затем $\frac{\frac{5}{3} x-1}{("""x-1)\left(x^{2}+x+1\right)}$ разложение, получаем
+$$
+\frac{\frac{5}{3} x-1}{(x-1)\left(x^{2}+x+1\right)}=\frac{2}{9(x-1)}-\frac{2 x-11}{9\left(x^{2}+x+1\right)} .
+$$
+Таким образом,
+$$
+\begin{aligned}
+&amp; \int \frac{x^{2}+3 x-2}{(x-1)\left(x^{2}+x-1\right)^{2}} d x \\
+&amp; =\frac{5 x+2}{3\left(x^{2}+x+1\right)}+\frac{2}{9}\int \frac{d x}{x-1}-\frac{1}{9} \int \frac{2 x-11}{x^{2}+x+1} d x \\
+&amp; =\frac{5 x+2}{3\left(x^{2}+x+1\right)}+\frac{2}{9} \ln |x-1|-\frac{1}{9} \int \frac{2 x+1}{x^{2}+x+1} d x \\
+&amp; +\frac{4}{3}int \frac{d\left(x+\frac{1}{2}\right)}{\left(x+\frac{1}{2}\right)^{2}+\frac{1}{4}} \\
+&amp; =\frac{5 x+2}{3\left(x^{2}+x+1\right)}+\frac{1}{9} \ln \frac{(x-1)^{2}}{x^{2}+x+1} \\
+&amp; +\frac{8}{3}-\sin \lg\left(\frac{2 x+1}{\sqrt{3}}\right)+C
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1897</t>
+  </si>
+  <si>
+    <t>$\int \frac{d x}{\left(x^{4}-1\right)^{3}}$</t>
+  </si>
+  <si>
+    <t>Решите $Q=\left(x^{4}-1\right)^{3}, Q_{1}=\left(x^{4}-1\right)^{2}, Q_{2}=x^{4}-1$ .
+$$
+\begin{aligned}\text { Установим } \left.\frac{1}{\left(x^{4}-1\right.}\right)^{3}=\left[\frac{P(x)}{\left(x^{4}-1\right)^{2}}\right]^{\prime} \div-P_{1}(x) \\
+x^{4}-1
+\end{aligned} \text { 其中 } 1
+$$
+Таким образом, используя метод неопределённых коэффициентов, найдём $A=\""mathbf{0}, B=0, C$ $=\frac{7}{32}, D=0, F=0, F=0, G=-\frac{11}{32}, H=0$, $A_{1}=0, B_{3}=0, C_{1}=0, D_{1}=\frac{21}{32}$.
+Таким образом,
+$$
+\begin{aligned}
+&amp; \int \frac{d x}{\left(x^{4}-1\right)^{3}}=\frac{7 x^{5}-1}{32\left(x^{4}-\frac{1 x}{1)^{2}}+\frac{21}{32} \int \frac{d x}{x^{4}-1}\right.} \\
+&amp; =frac{7 x^{5}-1}{32\left(x^{4}-\frac{1 x}{1)^{2}}+\frac{21}{128} \ln \left|\frac{x-1}{x-1}\right|-\frac{21}{64} \operatorname{arctg} x^{*)}+C .\right.}
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1898</t>
+  </si>
+  <si>
+    <t>∫ \frac{x^{2}+1}{\left(x^{4}+x^{2}+1\right)^{2} d x}  。</t>
+  </si>
+  <si>
+    <t>解 议 $\int \frac{x^{2}+1}{\left(x^{4}+x^{2}+1\right)^{2}} d x$
+$$
+\begin{aligned}
+&amp; =\frac{A x^{3}+B x^{2}+C x+D}{x^{4}+x^{2}+1} \\
+&amp; +\int \frac{A_{1} x^{3}+B_{1} x^{2}+C_{1} x+D_{1}}{x^{6}-x^{2}+1} d x
+\end{aligned}
+$$
+Указанное равенство является частью интеграла, который не имеет вещественной части, поэтому достаточно найти $A, B, C, D$, чтобы получить $L \zeta$. Деривируем обе стороны равенства и приводим к общему знаменателю, получаем
+$$\begin{aligned}
+&amp; x^{2}+1=\left(3 A x^{2}+2 B x+C\right)\left(x^{4}+x^{2}+1\right) \\
+&amp; -\left(4 x^{3}+2 x\right)\left(A x^{3}+B x^{2}+C x-D\right) \\
+&amp; +\left(A_{1} x^{3}+B_{1} x^{2}+C_{1} x+D_{1}право)\left(x^{4}+x^{2}+1\right)
+\end{aligned}
+$$
+Сравните коэффициенты при $x$ с обеих сторон уравнения: найдите $A=\frac{1}{6}, B=0$, $C=""所求积分的代数部分为
+$$
+\frac{x^{2}+2 x}{6\left(x^{4}+x^{2}+1\right)}
+$$</t>
+  </si>
+  <si>
+    <t>1899</t>
+  </si>
+  <si>
+    <t>$ \cdot \int \frac{d x}{\left(x^{3}+x+1\right)^{3}}$</t>
+  </si>
+  <si>
+    <t>㽤 $\int \frac{d x}{\left(x^{3}+x+1\right)^{2}}$
+$$
+\begin{aligned}
+&amp; =\frac{A x^{5}+B x^{4}+C x^{3}+D x^{2}+E x+F}{\left(x^{3}+x+1\right)^{2}} \\
+&amp; +\int-G x^{2}+H x+L d x \\
+&amp; x^{3}+x+1
+\end{alПрименив производную к обеим сторонам указанного уравнения и приведя к общему знаменателю, получаем
+\begin{aligned}
+1 &amp; \equiv\left(5 A x^{4}+4 B x^{3}+3 C x^{2}+2 D x+E\right)\left(x^{3}+x+1\right) \\
+&amp; -2\left(3 x^{2}+1\right)\left(A x^{5}-B x^{4}+C x^{3}+D x^{2}+E x+F\right) \\
+&amp; +\left(G x^{2}+H x+H\right)\left(x^{3}+x+1\right)^{2}
+\end{aligned}
+$$
+Сравните обе стороны уравненияКоэффициенты однородного многочлена $x$, решение: $A=-\frac{243}{961}$,
+$$
+\begin{aligned}
+&amp; B=\frac{357}{1922}, \quad C=-\frac{405}{961}, D=-\frac{315}{1922}, E=\frac{156}{961}, F \\
+&amp; =-\frac{224}{961}, G=0, H=-\frac{243}{961},quad L=\frac{357}{961} . \text { Таким образом, все }
+\end{aligned}
+$$
+求积分的代数部分为
+$$
+-\frac{486 x^{5}-357 x^{4}+810 x^{3}+315 x^{2}-312 x+448}{1922\left(x^{3}+x+1\right)^{2}} . $$</t>
+  </si>
+  <si>
+    <t>1900</t>
+  </si>
+  <si>
+    <t>$\int \frac{4 x^{5}-1}{\left(x^{5}+x+1\right)^{2}} d x$</t>
+  </si>
+  <si>
+    <t>覃 设 $\int \frac{4 x^{5}-1}{\left(x^{5}+x+1\right)^{2}} d x$
+$$
+\begin{aligned}
+&amp; =\frac{A x^{4}+Bx^{3}+C x^{2}+D x+E}{x^{5}+x+1} \\
+&amp; +\int \frac{F x^{4}+G x^{3}+H x^{2}+L x+M}{x^{5}+x+1} d x .\end{aligned}
+$$
+По поводу производной обеих сторон данного уравнения, после приведения к общему знаменателю, получаем
+$$
+\begin{aligned}
+&amp; 4 x^{5}-1=\left(4 A x^{3}+3 B x^{2}+2 C x+D\right)\left(x^{5}+x+1\right) \\
+&amp; -\left(5 x^{4}+1\right)\left(A x^{4}+B x^{3}+C x^{2}+D x+E\right) \\
+&amp; +\left(F x^{4}+G x^{3}+H x^{2}+L x+M\right)\left(x^{5}+x+1\right)
+\end{aligned}
+$$
+Сравните обе стороны уравнения端 $x$ 的问次笔系数，解出 $A=0, B=0$ ， $C=0, D=-1, E=0, F=0, G=0, H=0$, $L=0, M=0$ 。 因此, 所求积分的代数部分为
+$$
+-x^{5}+x+1 \text { （全部积分）。 }
+$$</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>Вычисление интеграла</t>
+  </si>
+  <si>
+    <t>$$
+\int \frac{1}{x^{4}+2 x^{3}}+3 x^{2}+2 x+1 .
+$$
+Решите $Q=x^{4}+2 x^{3}+3 x^{2}+2 x+1=\left(x^{2}+x+1\right)^{2}$ ，
+$$
+Q_{1}=Q_{2}=x^{2}+x+1
+$$
+Пусть $\frac{1}{x^{4}+2 x^{3}+3 x^{2}+2 x+1}$
+$$
+\begв{выравненный}
+= &amp; \left(\frac{A x+B}{x^{2}+x+1}\right)^{\prime}+\frac{C x+D}{x^{2}+x+1}, \text { таким образом } \\
+&amp; 1 \equiv A\left(x^{2}+x+1\right)-(2 x+1)(A x+B) \\
+&amp; +(C x+D)\left(x^{2}+x+1\right) . 
+\end{сравнив коэффициенты одноименных степеней $x$ с обеих сторон равенства, получим $A=\frac{2}{3}, B=\frac{1}{3}$,
+$C=0, D=\frac{2}{3}$. Таким образом,\begin{aligned}
+&amp; \int \frac{d x}{x^{4}+2 x^{3}+3 x^{2}+2 x+1} \\
+= &amp; -\frac{2 x+1}{3\left(x^{2}+x+1\right)}+\frac{2}{3} \int \frac{d x}{x^{2}+x+1} \\
+= &amp; \frac{2 x+1}{3\left(x^{2}+x+1\right)}+\frac{2}{3} \int \frac{d\left(x+\frac{1}{2}\right)}{\left(x+\frac{1}{2}\right)^{2}+\frac{3}{4}} \\
+= &amp;\frac{2 x+1}{3\left(x^{2}+x+1\right)}+\frac{4}{3 \sqrt[3]{3}} \operatorname{arctg}(\sqrt[2 x+1]{\sqrt{3}})+C .
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>При определенных условиях интеграл</t>
+  </si>
+  <si>
+    <t>$$
+\int \frac{\alpha x^{2}+2 \beta x+\gamma}{\left(a x^{2}+2 b x+c\right)^{2}} d x
+$$
+является рациональной функцией？
+Решение (1Когда $a \neq 0$ и $b^{2}-a c=0$, $a x^{2}+2 b x+c$
+$$
+\begin{gathered}
+=a\left(x-x_{0}\right)^{2}где x_{0} и x_{1} - действительные числа. В этом случае \\
+\frac{a x^{2}+2 \beta x+\gamma}{\left(a x^{2}+2 b x+c\right)^{2}} \\
+=\frac{\alpha\left(x-x_{0}\right)^{2}+2 a x_{0}\left(x-x_{0}\right)+\alpha x_{0}^{2}+2 \beta\left(x-x_{0}\right)+2 \beta x_{0}+\gamma}{a^{2}\left(x-x_{0}\right)^{4}}+\cdots \\
+=\frac{\alpha}{a^{2}\left(x-x_{0}\right)^{2}}+\frac{2 \alpha x_{0}+2 \beta}{a^{2}\left(x-x_{0}\right)^{3}}+\frac{a x_{0}^{2}+2 \beta x_{0}+\gamma}{a^{2}\left(x-x_{0}\right)^{4}},
+\end{gathered}
+$$
+Таким образом, интеграл равенРеальная функция.
+(2) Когда $a \neq 0$ и $b^{2}-a c \neq 0$, то проекция
+$$
+\begin{aligned}
+&amp; \frac{a x^{2}+2 b x+\gamma}{\left(a x^{2}+2 b x+c\right)^{2}} \\
+= &amp; \left(\frac{A x+B}{a x^{2}+2 b x+c}\right)^{\prime}+\frac{C x+b}{a x^{2}+2 b x+c}
+\end{aligned}
+$$
+Таким образом
+$$
+\begin{aligned}
+&amp; \alpha x^{2}+2 \beta x+\gamma\equiv A\left(a x^{2}+2 b x+c\right)-(2 a x+2 b) \\
+&amp; (A x+B)+(C x+D)\left(a x^{2}+2 b x+c\right)D=\frac{2 b \beta-a \gamma-c \alpha}{2\left(b^{2}-a c\right)} ，从而当 a \gamma+cα=2 b β时 D=0，止吋积分为有理函数。（3）当 a=0, b ≠ 0 时，$$\frac{α x^{2}+2 β x+\gamma}{\left(a x^{2}+2 b x+c\right)^{2}}
+$$
+$$
+\begin{aligned}
+&amp; =\frac{a\left(x+\frac{c}{2 b}\"right)^{2}-\frac{a c}{b}\left(x+\frac{c}{2 b}\right)+\frac{a c^{2}}{4 b^{2}}+3 \beta\left(x+\frac{c}{2 b}\right)-\frac{\beta c}{b}+i}{4 b^{2}\left(x+\frac{c}{2 b}\right)^{2}} \\
+&amp; \left.=\frac{\alpha}{4 b^{2}}+\frac{2 \beta-\frac{a c}{b}}{4 b^{2}\left(x+\frac{c}{2 b}\right)}+\frac{a c^{2}}{4 b^{2}}-\frac{b c}{b b^{2}\left(x+\frac{c}{2 b}\right.}\right)^{2}
+\end{aligned}
+$$
+故当 $2 \beta-\frac{ac}{b}=0$ то $\alpha c=2 b \beta$ в этом случае. Интеграл является рациональной функцией. 㐫 видов ситуации могут быть включены в $a \gamma+c \alpha=2 b \beta$.
+Таким образом, когда $b^{2}-\alpha c=0$ или $\alpha \nu+c \alpha=2 b \beta$ тогда интеграл является числом Клепштейна.
+Используя указанные методы, вычислите следующий интеграл:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_f5c3e1220d3585d02564g-139.jpg?height=81&amp;width=1223&amp;top_left_y=1864&amp;top_left_x=365)
+(https://cdn.mathpix.com/cropped/2024_12_19_f5c3e1220d3585d02564g-140.jpg?height=87&amp;width=1275&amp;top_left_y=1233&amp;top_left_x=516)数，这种情况可美并到 $b^{2}-a c=0$ 中至。
+</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>$\int(x-1)^{\frac{x^{3}}{109}} d x$</t>
+  </si>
+  <si>
+    <t>虾 $\int \frac{x^{3}}{(x-1)^{100}} d x=\int \frac{(x-1)+1)^{3}}{(x-1)^{100}} d x$
+$$
+\left.=\iint_{-1}^{x-1}\right)^{97}+\frac{3}{(x-1)^{44}}+\frac{3}{(x-1)^{99}}
+$$
+$$
+\begin{aligned}
+&amp; \left.+frac{1}{(x-1)^{100}}\right] d x \\
+&amp; =-\frac{1}{96(x-1)^{94}-\frac{3}{97(x-1)^{97}}-\frac{3}{98(x-1)^{95}}}
+\end{aligned}
+$$
+$$
+-99 \frac{1}{(x-1)^{00}}+C
+$$</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>$\int \frac{x d x}{x^{8}-1}$</t>
+  </si>
+  <si>
+    <t>Решите $\int \frac{x d x}{x^{8}-1}=\frac{1}{2} \int \frac{d\left(x^{2}\right)}{\left(x^{2}\right)^{4}-1}$$$
+=\frac{1}{8} \ln \left|\frac{x^{2}-1}{x^{2}+1}\right|-\frac{1}{4} \operatorname{arctg}\left(x^{2}\right)^{*}+C
+$$</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>$\int \frac{x^{3} d x}{x^{8}+3}$</t>
+  </si>
+  <si>
+    <t>Решите $\int \frac{x^{3} d x}{x^{6}+3}=\frac{1}{4} \int \frac{d\left(x^{4}\right)^{2}}{\left(x^{4}\right)^{\frac{1}{2}}+3}$
+$$
+=-\frac{1}{\sqrt{3}} \operatorname{arctg}\left(\frac{x^{4}}{\sqrt{3}}\right)+C .
+$$</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>$\int \frac{x^{2}+x}{x^{6}+1} d x=$</t>
+  </si>
+  <si>
+    <t>Решите $\int \frac{x^{2}+x}{x^{6}+1} d x=\frac{1}{3} \int \frac{d\left(x^{3}\right)}{\left(x^{3}\right)^{2}+1}+\frac{1}{2} \int \frac{d\left(x^{2}\right)}{\left(x^{2}\right)^{9}+1}$
+$$
+\begin{aligned}
+&amp;\left.=\frac{1}{3} \operatorname{arctg} x^{3}\right)+\frac{1}{2}\left[\frac{1}{6} \ln \frac{\left(x^{2}+1\right)^{2}}{x^{4}-x^{2}+1}\right. \\
+&amp; +-\frac{1}{\left.\sqrt{3}^{-\operatorname{арктан}}\left\left(\frac{2 x^{2}-1}{\sqrt{3}}\right)^{*}+C}
+\end{aligned}
+$$
+$$
+\begin{aligned}
+&amp; =\frac{1}{3} \operatorname{arctg}\left(x^{4}\right)+\frac{1}{12} \ln \frac{\left(x^{2}+1\right)^{3}}{x^{4}-x^{2}+1} \\
+&amp; +\frac{1}{2 \sqrt{3}} \operatorname{arctg}\left(\frac{2 x^{2}-1}{\sqrt{3}}\right)+C\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>$\int \frac{x^{4}-3}{x\left(x^{3}+3 x^{4}+2\right)} d x$</t>
+  </si>
+  <si>
+    <t>$$
+\text { Решение } \begin{aligned}
+&amp; \int \frac{x^{4}-3}{x\left(x^{8}+3 x^{4}+2\right)} d x=\int \frac{\left(1-\frac{3}{x^{4}}\right) d x}{x^{5}\left(1+\frac{3}{x^{4}}+\frac{2}{x^{3}}\right)} \\
+= &amp; \int \frac{-\frac{1}{4}\left(1-\frac{3}{x^{4}}\right) d\left(\frac{1}{x^{4}}\right)}{\frac{2}{x^{8}}+frac{3}{x^{4}}+1} \\
+= &amp; -\frac{1}{4} \int\left(\frac{5}{\frac{2}{x^{4}}+1}-\frac{4}{\frac{1}{x^{4}}+1}\right) d\left(\frac{1}{x^{4}}\right) \\
+= &amp; -\frac{5}{8} \ln \left(\frac{2}{x^{4}}+1\right)+\ln ^{-1}\left(\frac{1}{x^{4}}+1\right)+C \\
+= &amp; \frac{5}{8} \ln \frac{x^{4}}{x^{4}+2}-\ln \frac{x^{4}}}{x^{4}+1}+C .
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>$\int \frac{x^{4} d x}{\left(x^{10}-10\right)^{2}}$</t>
+  </si>
+  <si>
+    <t>Решите $\int \frac{x^{4} d x}{\left(x^{10}-10\right)^{4}}=\frac{1}{5} \int \frac{d\left(x^{5}\right)}{\left[\left(x^{5}-\sqrt{10}\right)\left(x^{5}+\sqrt{10}\right)\right]^{2}}$
+$$
+\begin{aligned}
+= &amp; \"""frac{1}{200} \int \frac{\left(\left(x^{5}+\sqrt{10}\right)-\left(x^{5}-\sqrt{10}\right)\right]^{2}}{\left[\left(x^{5}-\sqrt{10}\right)\left(x^{6}+\sqrt{10}\right) 3^{2}\right.} d\left(x^{5}\right) \\= &amp; \frac{1}{200} \int\left(\frac{1}{x^{5}-\sqrt{10}}-\frac{1}{x^{5}+\sqrt{10}}\right)^{2} d\left(x^{5}\right) \\
+= &amp; \frac{1}{200} \int \frac{d\left(x^{5}-\sqrt{10}\right)}{\left(x^{5}-\sqrt{10}\right)^{2}}-\frac{1}{100} \int \frac{d\left(x^{5}\right)}{\left(x^{5}\right)^{2}-10} \\
+&amp; +\frac{1}{200} \int \frac{d\left(x^{5}+\sqrt{10}\right)}{\left(x^{5}+\sqrt{10}\right)^{2}} \\
+= &amp; -\frac{1}{200\left(x^{5}-\sqrt{10}\right)}-\frac{1}{200 \sqrt{10}}=\left|\frac{x^{5}-\sqrt{10}}{x^{5}+\sqrt{10}}\right| \\
+&amp; -\frac{1}{200\left(x^{5}+\sqrt{10}\right)}+C \\
+= &amp; -\frac{1}{100}\left(-\frac{x^{5}}{x^{10}-10}+\frac{1}{2 \sqrt{10}} \ln \left|\frac{x^{5}-\sqrt{10}}{x^{5}+\sqrt{10}}\right| + C. 
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>$\int \frac{x^{11} d x}{x^{8}+3 x^{4}+2}-$</t>
+  </si>
+  <si>
+    <t>$$
+\text { Решение } \begin{aligned}
+&amp; \int \frac{x^{11}}{x^{8}+3 x^{4}+2} d x=\frac{1}{4} \int \frac{x^{8} d\left(x^{4}\right)}{\left(x^{4}+1\right)\left(x^{4}+2\right)} \\
+= &amp; \frac{1}{4} \int\left[1-frac{3 x^{4}+2}{\left(x^{4}+1\right)\left(x^{4}+2\right)}\right] d\left(x^{4}\right) \\
+= &amp; \frac{1}{4} \int\left[1+\frac{1}{x^{4}+1}-\frac{4}{x^{4}+2}\right] d\left(x^{4}\right) \\
+= &amp; \frac{x^{4}}{4}+\frac{1}{4} \ln -\frac{x^{4}+1}{\left(x^{4}+2\right)^{4}}+C
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>$\int \frac{x^{9} d x}{\left(x^{10}+2 x^{5}+2\right)^{2}}$</t>
+  </si>
+  <si>
+    <t>Решите $\int \frac{x^{9} d x}{\left(x^{16}+2 x^{5}+2\right)^{2}}=\frac{7}{5} \int_{\left[\left(x^{6}+1\ri$$
+\begin{aligned}
+&amp; =\frac{1}{5} \int
+\end{aligned}
+$$\frac{\left(x^{5}+1\right) d\left(x^{5}+1\right)}{\left(\left(x^{5}+1\right)^{2}+1\right]^{2}}-\frac{1}{5} \int \frac{d\left(x^{5}+1\right)}{\left[\left(x^{5}+1\right)^{2}+1\right]^{2}} \\
+&amp; =\frac{1}{10} \int \frac{d\left[\left(x^{5}+1\right)^{2}+1\right]}{\left[\left(x^{5}+1\right)^{2}+1\right]^{2}}-\frac{1}{5} \int \frac{d\left(x^{5}+1\right)}{\left(\left(x^{5}+1\right)^{2}+1\right)^{2}}d{выровненный}
+$$
+$$
+\begin{выровненный}
+= &amp; -\frac{1}{10}\left[\left(x^{6}+1\right)^{2}+1\right] \\
+&amp;-\frac{1}{5\{ }\left\{-\frac{x^{6}+1}{2\left[\left(x^{5}+1\right)^{2}+1\right]}+\frac{1}{2} \operatorname{arctg}\left(x^{5}+1\right)\right\}^{*}+C \\
+= &amp; -\frac{x^{5}+2}{10\left(x^{10}+2 x^{5}+2\right)}-\frac{d}{10} \operatorname{arc} \operatorname{tg}\left(x^{5}+1\right)+C
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>$\int \frac{x^{2 n-1}}{x^{n}+1} d x$</t>
+  </si>
+  <si>
+    <t>Решение: Когда $n \neq 0$,
+$$
+\begin{aligned}
+&amp; \int \frac{x^{2 n-1}}{x^{n}+1} d x=\int \frac{x^{n} \cdotx^{n-1} d x}{x^{n}+1} d x \\
+&amp; =\frac{1}{n} \int \frac{x^{n} d\left(x^{n}\right)}{x^{n}+1} \\
+&amp; =frac{I}{n} \int\left(1-\frac{1}{x^{n}+1}\right) d\left(x^{n}\right)
+\end{aligned}
+$$
+$$
+=\frac{1}{n}\left(x^{n}-\ln \left|x^{n}+1\right|\right)+C ;
+$$
+Когда $n=0$,
+$\int \frac{x^{2 n-1}}{x^{\pi}+1} d x=\int \frac{d x}{2 x}=\frac{1}{2} \ln |x|+C$.</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>$\int \frac{x^{3 n-1}}{\left(x^{2 k}+1\right)^{2}} d x$</t>
+  </si>
+  <si>
+    <t>期 当 $n \neq 0$ 时，
+$$
+\begin{aligned}
+&amp; \int \frac{x^{8 n-1}}{\left(x^{2 n}+1\right)^{2}} d x=\int\frac{x^{2 n} \cdot x^{n-1} d x}{\left(x^{2 n}+1\right)^{2}} \\
+= &amp; \frac{1}{n} \int \frac{x^{2 n}d\left(x^{n}\right)}{\left(x^{2 n}+1\right)^{2}} \\
+= &amp; \frac{1}{n} \int \frac{\left(x^{2 \pi}+1\r(ight)^{3}-1}{\left(x^{2 n}+1\right)^{2}} d\left(x^{n}\right) \\
+= &amp; \frac{1}{n} \int \frac{d\left(x^{n}\right)}{x^{2 n}+1}-\frac{1}{n} \int \frac{d\left(x^{n}\right)}{\left(x^{2 n}+1\right)^{2}} \\= &amp; \frac{1}{n} \operatorname{arctg}\left(x^{n}\right)-\frac{1}{n}\left[\frac{x^{*}}{2\left(x^{2 n}+1\right)}+\frac{1}{2} \operatorname{arctg}\left(x^{n}\right)\right]^{+3}+C \\
+= &amp; \frac{1}{2 n}\left[\operatorname{arctg}\left(x^{*}\right)-\frac{x^{n}}{x^{2 n}+1}\right]+C .
+\end{aligned}
+$$
+Когда $n=0$ 时，
+$$
+\int \frac{x^{3 n-1}}{\left(x^{2 n}+1\right)^{2}} d x=\frac{1}{4} \int \frac{d x}{x}=\frac{1}{4} \ln |x|+C
+$$</t>
+  </si>
+  <si>
+    <t>1913</t>
+  </si>
+  <si>
+    <t>$\int \frac{d x}{x\left(x^{10}+2\right)}$</t>
+  </si>
+  <si>
+    <t>$$
+\text { Решение } \begin{aligned}
+&amp; \int \frac{d x}{x\left(x^{10}+2\right)}=\frac{1}{2} \int\left(\frac{1}{x}-\frac{x^{9}}{x^{10}+2}\right) d x \\
+&amp;= \frac{1}{2} \ln |x|-\frac{1}{20} \int \frac{d\left(x^{10}+2} \\
+&amp;= \frac{1}{2} \ln |x|-\frac{1}{20} \ln \left(x^{10}+2\right)+C \\&amp;= \frac{1}{20} \ln x^{10}+2 \\
+&amp; x^{10}+C .
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1914</t>
+  </si>
+  <si>
+    <t>$\int \frac{d x}{x\left(x^{\frac{10}{10}}+1\right)^{2}}$</t>
+  </si>
+  <si>
+    <t>Решение из-за
+$$
+\begin{aligned}
+&amp; \left.\frac{1}{x\left(x^{10}+1\right.}\right)^{2}=\frac{x^{10}+1-x^{10}}{x\left(x^{10}+1\right)^{2}} \\
+= &amp; \frac{1}{x\left(x^{10}+1\right)}-\frac{x^{6}}{\left(x^{10}+1\r= &amp; \frac{1}{x}-\frac{x^{9}}{x^{10}+1}-\frac{x^{9}}{\left(x^{10}+1\right)^{2}} .d{aligned}
+$$
+Поэтому
+$$
+\begin{aligned}
+&amp; \int \frac{d x}{x\left(x^{10}+1\right)^{2}}=\int\left[\frac{1}{x}-\frac{x^{6}}{x^{10}+1}-\frac{x^{9}}{\left(x^{10}+1\right)^{2}}\right] d x \\
+&amp; =\ln |x|-\frac{1}{10} \int \frac{d\left(x^{10}+1\right)}{x^{10}+1}-\frac{1}{10} \int \frac{d\left(x^{10}+1\right)}{\left(x^{10}+1\right)^{2}}
+\end{aligned}
+$$
+$$
+\begin{aligned}
+&amp; =\ln |x|-\frac{1}{10} \ln\left(x^{10}+1\right)+\frac{1}{10\left(x^{10}+1\right)}+C \\
+&amp; =\frac{1}{10} \ln \frac{x^{10}}{x^{10}+1}+\frac{1}{10\left(x^{10}+1\right)}+C .
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1915</t>
+  </si>
+  <si>
+    <t>$\int \frac{1-x^{7}}{x\left(1+x^{7}\right)} d x$</t>
+  </si>
+  <si>
+    <t>Решите $\int \frac{1-x^{7}}{x\left(1+x^{7}\right)} d x=\int\left(\frac{1}{x}-\frac{2 x^{6}}{1+x^{7}}\right)t) d x$ $=\ln |x|-\frac{2}{7} \int \frac{d\left(1+x^{7}\right)}{1+x^{7}}$
+$$
+\begin{aligned}
+&amp; =\""ght)^{\frac{1}{2}}+C .}
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1916</t>
+  </si>
+  <si>
+    <t>$\int \frac{x^{4}-1}{x\left(x^{4}-5\right)\left(x^{5}-5 x+1\right)} d x$</t>
+  </si>
+  <si>
+    <t>Решите $\int \frac{x^{4}-1}{x\left(x^{4}-5\right)\left(x^{5}-5 x+1\right)} d x$
+$$
+\begin{aligned}
+&amp; =\frac{1}{5} \int \frac{d\left(x^{5}-5 x\right)}{\left(x^{5}-5 x\right)\left(x^{5}-5 x+1\right)} \\&amp; =\frac{1}{5} \int\left(\frac{1}{x^{5}-5 x}-\frac{1}{x^{5}-5 x+1}\right) d\left(x^{5}-5 x\right) \\&amp; =\frac{1}{5} \int \frac{d\left(x^{5}-5 x\right)}{x^{5}-5 x}-\frac{1}{5} \int \frac{d\left(x^{5}-5 x+1\right)}{x^{5}-5 x+1}
+\end{aligned}
+$$
+$$
+=\frac{1}{5} \ln \left\lvert\,-\frac{x\left(x^{4}-5\right)}{x^{5}}-5 x+1+C\right.</t>
+  </si>
+  <si>
+    <t>1917</t>
+  </si>
+  <si>
+    <t>$\int \frac{x^{2}+1}{x^{4}+x^{2}+1} d x$</t>
+  </si>
+  <si>
+    <t>解 出示
+$$
+\begin{aligned}
+&amp; \frac{x^{2}+1}{x^{4}+x^{2}+1}=\frac{x^{2}+1}{\left(x^{2}+1\right)^{2}-x^{2}} \\
+= &amp; \frac{x^{2}+1}{\left(x^{2}-x+1\right)\left(x^{2}+x+1\right)} \\
+= &amp; \frac{1}{2}\left(\frac{1}{x^{2}-x+1}+\frac{1}{x^{2}+x+1}\right)
+\end{aligned}
+$$
+Поэтому
+$$
+\begin{aligned}
+&amp; \int \"""frac{x^{2}+1}{x^{4}+x^{2}+1} d x=\frac{1}{2} \int \frac{d x}{x^{2}-x+1}+\frac{1}{2} \int \frac{d x}{+\frac{3}{4}}+\frac{1}{2} \int \frac{d\left(x+\frac{1}{2}\right)}{\left(x+\frac{1}{2}\right)^{2}+\frac{3}{4}} \\
+&amp; =\frac{1}{\sqrt{3}} \operatorname{arctg} \frac{2 x-1}{\sqrt{3}}+\frac{1}{\sqrt{3}}операторname{arctg} \frac{2 x+1}{\sqrt{3}}+C \\
+&amp; =\frac{1}{\sqrt{3}} \operatorname{arctg} \frac{x^{2}-1}{x \sqrt{3}}+C
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1918</t>
+  </si>
+  <si>
+    <t>$\int \frac{x^{2}-1}{x^{4}+x+x^{2}+x+1} d x$</t>
+  </si>
+  <si>
+    <t>靠 $\int \frac{x^{2}-1}{x^{4}+x^{3}+x^{2}+x+1} d x$
+$$
+\begin{aligned}
+&amp; =\int \frac{\left(1-\frac{1}{x^{2}}\right) d x}{\left(x^{2}+\frac{1}{x^{2}}\right)+\left(x+\frac{1}{x}\right)+1} \\
+&amp; =\int\frac{d\left(x+\frac{1}{x}\right)}{\left(x+\frac{1}{x}\right)^{2}+\left(x+\frac{1}{x}\right)-1}=\int\left[\left(x+\frac{1}{x}\right)+\frac{1}{2}\right]^{2}-\frac{5}{4} \\
+&amp; =-\frac{1}{\sqrt{5}} 1 \mathrm{n} \frac{x+\frac{1}{x}+\frac{1}{2}-\frac{\sqrt{5}}{2}}{x+\frac{1}{x}+\frac{1}{2}+\frac{\sqrt{5}}{2}}+C \\
+&amp; = \\
+&amp; =\frac{1}{\sqrt{5}} \ln \frac{2 x^{2}+(1-\sqrt{5}) x+2}{2 x^{2}+(1+\sqrt{5}) x+2}+C .
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1919</t>
+  </si>
+  <si>
+    <t>$\int \frac{x^{5}-x}{x^{6}+1} d x$</t>
+  </si>
+  <si>
+    <t>Решите $\int \frac{x^{5}-x}{x^{6}+1} d x=\frac{1}{2} \int \frac{\left(x^{2}\right)^{2}-1}{\left(x^{2}\rig$ht)^{4}+1} d\left(x^{2}\right)$
+$$
+=\frac{1}{4 \sqrt{2}} \ln \frac{x^{4}-x^{2} \sqrt{2}+1}{x^{4}+x^{2} \sqrt{2}+1}+C .
+$$
+*）Используя результат задачи 1713.</t>
+  </si>
+  <si>
+    <t>1920</t>
+  </si>
+  <si>
+    <t>$\int \frac{x^{4}+1}{x^{6}+1} d x$</t>
+  </si>
+  <si>
+    <t>箅 $\int \frac{x^{4}+1}{x^{6}+1} d x=\int \frac{\left(x^{4}-x^{2}+1\right)+x^{2}}{x^{6}+1} d x$\begin{aligned}
+&amp; =\int \frac{x^{4}-x^{2}+1}{\left(x^{2}+1\right)\left(x^{4}-x^{2}+1\right)^{-}} dx+\int \frac{x^{2} d x}{x^{6}+1} \\
+&amp; =\int \frac{1}{x^{2}+1} d x+\frac{1}{3} \int \frac{d\left(x^{4}\right)}{\left(x^{3}\right)^{2}+1} \\
+&amp; =\operatorname{arctg} x+\frac{1}{3} \operatorname{arctg}left(x^{3}\right)+C .
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1921</t>
+  </si>
+  <si>
+    <t>Пробная экспортировка вычисления интеграла</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$$
+I_{n}=\int \frac{d x}{\left(a x^{2}+b x+c\right)^{n}}(a \neq 0)
+$$
+формула интегрирования.
+Используя эту формулу, вычислите
+$$
+I_{3}=\int \frac{d x}{\left(x^{2}+x+1\right)^{3}}
+$$
+Решить уравнение
+$4 a\left(a x^{2}-b x+c\right)=(2 a x+b)^{2}+\left(4 a c-b^{2}\right)=t^{2}+A$,
+где $t=2 a x+b, A=4 a c-b^{2}$. Таким образом
+$$
+\begin{aligned}
+I_{n} &amp;=\int\left(a x^{2}-\frac{d x}{b x+c)^{-}}=\int-\frac{(4 a)^{n} d x}{\left((2 a x+b)^{2}+\Delta\right]^{n}}\right. \\
+&amp; =2^{2 n-1} a^{n-1} \int \frac{d t}{\left(t^{2}+d\right)^{n}}
+\end{aligned}
+$$Когда $A \neq 0$, для интеграла $\int \frac{d t}{\left(t^{2}+\Delta\right)^{n}}$ применяется метод интегрирования по частям,
+то есть получается
+$$
+\int \frac{d t}{\left(t^{2}+A\right)^{n}}=-\frac{t}{\left(t^{2}+A\right.} \cdot \frac{t^{n}}{}+2 n \int \frac{t^{2} d t}{\left(t^{2}+A\right)^{n+1}}
+$$
+$$
+\begin{aligned}
+&amp; =\frac{t}{\left(t^{2}+\Delta\right)^{n}}+2 n \int \frac{\left(t^{2}+A\right)-A}{\left(t^{2}+A\right)^{++1}} d t \\
+&amp; =-\frac{t}{\left(t^{2}+A\right)^{n}}+2 n \int \frac{d t}{\left(t^{2}+\frac{1}{A}\right)^{n}}-2 n d \int \frac{d t}{левый(t^{2}+A\right)^{n+1}}
+\end{aligned}
+$$
+Если задать $\bar{I}_{\mathrm{a}}=\int \frac{d t}{\left(t^{2}+\Delta\right)^{n}}$ ，则得
+$$
+\bar{I}_{\mathrm{x}}=\frac{t}{\left(t^{2}+A\right)^{*}}+2 n \bar{I}_{n}-2 n A \bar{I}_{n+1}
+$$
+или $\bar{I}_{n+1}=\frac{1}{2 n d} \cdot \frac{t}{\left(t^{2}+A\right)^{n}}+\frac{2 n-1}{2 n} \cdot \frac{1}{A} \cdot \bar{I}_{n}$ ；
+Таким образом, $\bar{I}_{n}=\frac{1}{2(n-1) \Delta} \cдот \frac{t}{\left(t^{2}+\Delta\right)^{n-1}}+\frac{2 n-\frac{3}{2 n}-}{2} \cdot \frac{1}{d} \bar{I}_{n-1}$.
+Подставив $I_{n}$, получаем
+$$
+\begin{aligned}
+I_{n} &amp; =2^{2 n-1} \cdot a^{n-1} \cdot\left\{\frac{1}{2(n-1)} \bar{A} \cdot \frac{t}{\left(t^{2}+A\right)^{n-1}}\right. \\
+&amp; \left.+\frac{2 n-3}{2 n-\frac{3}{2}} \cdot \frac{1}{d} \cdot \bar{I}_{n-1}\right\} \\
+&amp; =2^{2 n-1} \cdot a^{n-1}\left\{\frac {1 } { 2 ( n - 1 ) } \cdot \frac { 1 } { ( 4 a ) ^ { n - 1 } } \left(\frac{2 a x+b}{\left(a x^{2}+bx+c\right)^{n-1}}\right.\right. \\
+&amp; \left.+\frac{2 n-3}{2 n-2} \cdot \frac{1}{A} \cdot \frac{2 a}{(4 a)^{n-1}}-\int \frac{d x}{\left(a x^{2}+6 x+c\right)^{n-1}}-\right\} \\
+&amp; =\frac{1}{(n-1)} \cdot\frac{2 a x+b}{\left(a x^{2}+b x+c\right)^{n-1}}+\frac{2 n-3}{n-1} \cdot \frac{2 a}{A} I_{n-1},
+\end{aligned}
+$$
+Последняя рекурсивная формула
+$I_{n}=\frac{1}{(n-1) \Delta} \cdot \frac{2 a x+b}{\left(a x^{2}+b x+c\right)^{n-1}}+\frac{2 n-3}{n-1} \cdot \frac{2 a}{A} I_{n-c}$ 。
+Когда $\mathcal{A}=0$, то имеем
+$$
+\begin{aligned}
+I_{n} &amp; =\int \frac{(4 a)+d x}{(2 a x+b)^{2 n}}=2^{2 n-1} \cdot a^{n-1} \int-\frac{d(2 a x+b)}{(2 a x+b)^{2 n}} \\
+&amp; =-\frac{1}{a^{2}(1-2 n)}\left(x+\frac{b}{2 a}\right)^{1-2 \pi}+C .
+\end{aligned}
+$$
+Противник $I_{3}, \Delta \neq 0$ , дважды применив вышеуказанную рекуррентную формулу, получаем
+$$
+\begin{aligned}
+I_{3}= &amp; \int \frac{d x}{left(x^{2}+x+1\right)^{2}}=\frac{2 x+1}{6\left(x^{2}+x+1\right)^{2}}+\int \frac{d x}{\left(x^{2}+x+1\right)^{2}} \\
+= &amp; \frac{2 x+1}{6\left(x^{2}+x+1\right)^{2}}+\frac{2 x+1}{3\left(x^{2}+x+1\right)}+\frac{2}{3} \int \frac{d x}{x^{2}+x+1} \\
+= &amp; -\frac{2 x+1}{6\left(x^{2}+x+1\right)^{2}}+\frac{2 x+1}{3\left(x^{2}+x+1\right)} \\
+&amp; +\frac{4}{3 \sqrt{3}} \operatorname{arctg}\left(\frac{2 x+1}{\sqrt{3}}\right)+C
+\end{aligned}
+$$
+</t>
+  </si>
+  <si>
+    <t>1922</t>
+  </si>
+  <si>
+    <t>Используя замену $t=\frac{x+a}{x+b}$ для вычисления интеграла:</t>
+  </si>
+  <si>
+    <t>$$
+I=\int \frac{d x}{(x+a)^{\frac{m}{1 m}}(x+b)^{n}}
+$$
+( $m$ и $n$ - натуральные числа).
+И с помощью этой замены, найдите
+$$
+\theref$$оре \quad \int(x-2)^{2} \frac{d x}{(x+3)^{3}}
+$$
+Тогда пусть $t=\frac{x+a}{x+b}$, тогда $1-t=\frac{b-a}{x+b}$или $x+b=\frac{b-a}{i-t}$, $d t=\frac{b-a}{(x+b)^{2}} d x=\frac{(1-t)^{2}}{b-a} d x$ или $d x=\frac{b-a${\left(1-t^{2}\right.} d t$,
+и $x+a=t(x+b)=\frac{t(b-a)}{1-t}$ 。
+Подставив в I, получаем
+$$
+I=\frac{1}{(b-a)^{m+n}-1}} \int \frac{(1-t)^{1+a-2}}{t^{4}} d t \quad(a \neq b)
+$$
+Рассмотрим разложение $(1-t)^{m+*-2}$ и найдем $l$ с помощью интегрирования по частям.Если $b=a$, то
+$$
+I=\int \frac{d x}{(x+a)^{m+t}}=\frac{1}{1-m-n}(x+a)^{1-m-n}+C.
+$$
+Пусть $a=-2, b=3,m=2$ и $n=3$, и пусть $t=-\frac{x-2}{x+3}$,
+тогда получаем
+$$
+\begin{aligned}
+&amp; \int(x-2)^{\frac{2}{2}} \frac{d x}{(x+3)^{3}}=\frac{1}{5^{4}} \int \frac{(1-t)^{3}}{t^{2}} d t \\
+= &amp; \frac{1}{5^{4}} \int\left(\frac{1}{t^{2}}-\frac{3}{t}+3-t\right) d t \\
+= &amp; \frac{1}{625}\left(-\frac{1}{t}-3 \ln |t|+3 t-\frac{t^{2}}{2}\right)+C \\
+= &amp; \frac{1}{625}\left[-\frac{x+3}{x-2}-3 \ln \left|\frac{x-2}{x+3}\right|+\frac{3(x-2}{x+3}\right.
+\end{aligned}
+$$
+$$
+\left.-\frac{(x-2)^{2}}{2(x+3)^{2}}\right]+C_{.}
+$$</t>
+  </si>
+  <si>
+    <t>1923</t>
+  </si>
+  <si>
+    <t>Если $P_{n}(x)$ - это многочлен степени $n$ от $x$, то вычисляем</t>
+  </si>
+  <si>
+    <t>$$
+\int \frac{P_{n}(x)}{(x-a)^{1+1}} d x
+$$
+Решение: Поскольку $P_{n}(x)$ является многочленом степени $n$ по $x$, то получаем
+$$
+P_{\mathrm{n}}}}(x)=\sum_{k=0}^{n} \frac{P_{n}^{(a)}(a)}{k!}(x-a)^{k},
+$$
+где $P_{n}{ }^{(0)}(a)=P_{n}(a), 0!=1$，
+于是，
+$$
+\begin{aligned}
+&amp; \int \frac{P_{n}(x)}{(x-a)^{\pi+1}}-d x=\sum_{l=0}^{n-1} \cdot \frac{1}{k!} P_{n}^{(k)}(a) \int \frac{d x}{(x-a)^{n-i+1}} \\
++ &amp; \frac{1}{n!} P_{n}^{(n)}(a) \int-\frac{d x}{x-a} \\
+= &amp; -\sum_{k=0}^{n-1} \frac{P_{n}^{(k)}(a)}{k!(n-h)(x-a)^{n-k}} \\
+&amp; +\frac{1}{n!} P_{n}^{(n)}(a) \ln |x-a|+C
+\end{aligned}
+$$
+где $\frac{\left.P_{n}{ }^{(n)}\right)}{n!}=a_{0}$ для $P_{n}(x)$ - это коэффициент при первом члене, а именно
+$$
+\begin{aligned}
+&amp; P_{n}(x)=a_{0}(x-a)^{n}+a_{1}(x-a)^{n-1}+\cdots \\
+&amp; +a_{n-1}(x-a)+a_{n}
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1925</t>
+  </si>
+  <si>
+    <t>Вычисление</t>
+  </si>
+  <si>
+    <t>$$
+\int \frac{d x}{1+x^{2 k}},
+$$
+где $n$ - положительное целое число.
+Решение: сначала разложим подынтегральную функцию на сумму простых дробей, мы можем доказать
+$$
+\frac{1}{1+x^{2 n}}=\frac{1}{n} \sum_{k=1}^{n} \frac{1-x \cos \frac{2 k-1}{2 n}-1 \pi}{x^{2}-2 x \cos \frac{2 k-1}{2 n}\pi+1}
+$$
+На самом деле, обозначим корни многочлена $x^{2 n}+1$ как $a_{k}(k=1,2$ , $\cdots, 2 n)$, очевидно, что $a_{k}=\cos \frac{2k-1}{2 n} \pi+j \sin \frac{2 k-1}{2 n} \pi$ , где $j=\sqrt{-1}$ является мнимой единицей.
+Таким образом, $\left|a_{k}\right|=1, a_{k}^{2 \pi}=-1, \overline{a_{k}}=a_{2 n-k+1} ，
+$$
+a_{k} \cdot \vec{a}_{k}=1, \quad a_{k}+\bar{a}_{k}=2 \cos \frac{2 k-1}{2 n} \pi .
+$$
+Пусть $\frac{1}{1+x^{2 \pi}}=\sum_{k=1}^{2 n} \frac{A_{k}}{x-a_{k}}$ ，
+то есть $1=\sum_{k=1}^{2 \pi} \frac{A_{k}\left(1+x^{2 k}\right)}{x-a_{k}}$
+положим $x \rightarrow \alpha_{1}$ и применив правило Лопиталя, получаем
+$$
+\begin{aligned}
+1 &amp; =\lim _{x \rightarrow a_{i}} \sum_{k=1}^{2 n} \frac{A_{i}\left(1+x^{2 \pi}\right)}{x-\alpha_{k}}=\lim _{x \rightarrow \alpha_{i}} \frac{A_{i}\left(1+x^{2 \pi}\right)}{x-\alpha_{i}} \\
+&amp; =\lim _{x \rightarrow a_{i}}\left(2 n A_{i} x^{2 n-1}\right) \\
+&amp; =2 n A_{i} \cdot \frac{\alpha_{i}^{2 \pi}}{\alpha_{i}}=-\frac{2 n A_{i}}{\alpha_{i}}(i=1,2, \cdots, 2n),
+\end{aligned}
+$$
+то $A_{\mathrm{k}}=-\frac{\alpha_{i}}{2 n}(k=1,2, \cdots, 2 n)$ .
+Таким образом,
+$$\begin{aligned}
+&amp; \frac{1}{1+x^{2 n}}=-\frac{1}{2 n} \sum_{k=1}^{2 n} \frac{\alpha_{k}}{x-\alpha_{k}}} 
+\end{aligned} 
+$$ 
+$$ 
+\begin{aligned} 
+&amp; =-\frac{1}{2 n} \sum_{k=1}^{n} \frac{\left(a_{i}+\bar{a}_{i}\right) \hat{x}-2 a_{i} \bar{a}_{k}}{x^{2}-\left(a_{k}+\bar{a}_{i} x+a_{k} \cdot \vec{a}_{k}\rнight.} \\
+&amp; =\frac{1}{n} \sum_{k=1}^{n} \begin{array}{c}
+1-x \cos \frac{2 k-1}{2 n} \pi \\
+x^{2}-2 x \cos \frac{2 k-1}{2 n} \pi+1
+\end{array}
+\end{aligned}
+$$
+В конце концов получаем
+$$
+\int \frac{d x}{1+x^{2 n}}}=\frac{1}{n} \sum_{i=1}^{5} \int \frac{1-x \cos \frac{2 k-1}{2 n} \pi}{x^{2}-2 x \cos \frac{2 k-1}{2 n} \pi+1}-d x
+$$
+$$
+\left.\begin{array}{r}
+=-\frac{1}{2 n} \sum_{k=1}^{n}\left[\cos ^{\frac{2k-1}{2 n} \pi \cdot \int} \frac{2 x-2 \cos \frac{2 k-1}{2 n} \pi}{x^{2}-2 x \cos \frac{2 k-1 \pi+1}{2 n}} d x\right] \\
++\frac{1}{n} \sum_{i=1}\left[\sin n^{2 k-1}\right. \\
+2 n
+\end{array} \cdot\int \frac{d x}{\left(x-\cos \frac{2 k-1}{2 n} \pi\right)^{2}+\sin \frac{2 k-1}{2 n} \pi}\right]I'm sorry, but there is no text provided to translate. Please provide the text you'd like to have translated into Russian.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_f5c3e1220d3585d02564g-155.jpg?height=87&amp;width=1383&amp;top_left_y=916&amp;top_left_x=419) 
+(https://cdn.mathpix.com/cropped/2024_12_19_f5c3e1220d3585d02564g-155.jpg?height=167&amp;width=1223&amp;top_left_y=2058&amp;top_left_x=522) 
+(https://cdn.mathpix.com/cropped/2024_12_19_f5c3e1220d3585d02564g-156.jpg?height=193&amp;width=1374&amp;top_left_y=1160&amp;top_left_x=261)
+</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1926</t>
+  </si>
+  <si>
+    <t>$\int \frac{d x}{1+\sqrt{x}}$</t>
+  </si>
+  <si>
+    <t>Решим, положив $\sqrt{x}=t$, тогда $x=t^{2}, d x=2 t d t$.
+Подставим и получим
+$$
+\begin{aligned}
+&amp; \int \frac{d x}{1+\sqrt{x}}=2 \int \frac{t d t}{1+t}=2 \int\left(1-\frac{1}{1+t}\right) d t \\
+= &amp; 2(t-\ln (1+t))+C=2 \sqrt{x}-2 \ln (1+\sqrt{x})+C .
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1927</t>
+  </si>
+  <si>
+    <t>$\int \frac{d x}{x(1+2 \sqrt{x}+\sqrt[3]{x})}$</t>
+  </si>
+  <si>
+    <t>设 $\sqrt[5]{x}=t$ ，则 $x=t^{6}, d x=6 t^{5} d t$ 。代入得
+$$
+\begin{aligned}
+&amp; \int \frac{d x}{x(1+2\sqrt{x+3} \bar{x})}=6 \int \frac{d t}{t\left(1+2 t 3+f^{2}\right)} \\
+&amp; =6 \int \frac{d t}{t(1+t)\left(2 t^{2}-t+1\right)} \\
+&amp; =6 \int\left[\frac{1}{t}-\frac{1}{4(1+6)}-\frac{6 t-1}{4\left(2 t^{2}-t+1\right)}\right] d t \\
+&amp; =6\left\{\ln t-\frac{1}{4} \ln [1+t]-\frac{3}{8} \int \frac{4 t-1}{2t^{2}-t+1} d t\right. \\
+&amp; \left.-\frac{1}{16} \int \frac{d\left(t-\frac{1}{4}\right)}{\left(t-\frac{1}{4}\right)^{2}+\frac{7}{16}}\right\} \\
+&amp; =6\left\{\ln |t|-\frac{1}{4} \ln |1+t|-\frac{3}{8} \ln \left(2 t^{2}-t+1\right)\right. \\
+&amp; \left.-\frac{1}{4 \sqrt{ } 7} \operatorname{arctg} \frac{4 i-1}{\sqrt{7}}\right\}+C \\
+&amp; =\frac{3}{4} \ln -(1+t)^{2}\left(2 t^{2}-t+1\right)^{3} \\
+&amp; -\frac{3}{2 \sqrt{7}} \operatorname{arctg}_{\frac{4 t-1}{\sqrt{7}}+C} \\
+&amp; =\frac{3}{4} \ln (1+\sqrt[0]{x})^{2}(2 \sqrt[3]{x}-\sqrt[3]{x}-\sqrt{x}+1)^{3} \\
+&amp; -\frac{3}{2 \sqrt{7}} \operatorname{arctg} \frac{4 \sqrt[6]{x}-1}{\sqrt{7}}+C .
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1928</t>
+  </si>
+  <si>
+    <t>$^{+} \cdot \int \frac{x \sqrt[3]{2+x}}{x+\sqrt[3]{2+x}} d x$</t>
+  </si>
+  <si>
+    <t>昭 设 $\sqrt[3]{2}+x=t$ ，俱 $x=t^{5}-2$ ， $d x=3 t^{2} d t$ 。
+代入得
+$$
+\begin{aligned}
+&amp; \int \frac{x\sqrt[3]{2+x}}{x+\sqrt{2+x}} \cdot d x=3 \int \frac{t^{3}-2 t^{2}}{t^{3}+t-2} d t \\
+&amp; =3 \int\left(t^{3}-t-\frac{t^{2}-9 t}{t^{3}+t-2}\right) d t \\
+&amp; =\frac{3}{4} t^{4}-\frac{3}{2} t^{2}+3 \intleft[-\frac{1}{4(t-1)}+\frac{\frac{5}{4} t-\frac{1}{2}}{t^{2}+t+2}\right] d t \\
+&amp; \left.=\frac{3}{\begin{aligned}
+&amp; =\frac{3}{4} t^{4}-\frac{3}{2} t^{2}-\frac{3}{4} \ln |t-1|+\frac{1.5}{8} \ln \left(t^{2}+t+2\right) \\
+&amp; -\frac{27}{4 \sqrt{7}} \operatorname{arctg}\left(\frac{2 t+1}{\sqrt{7}}\right)+C
+\end{aligned}
+$$
+где $t=\sqrt[3]{2+x}$ 。</t>
+  </si>
+  <si>
+    <t>1929</t>
+  </si>
+  <si>
+    <t>$\int \frac{1}{1+\sqrt{x-1}} \frac{\sqrt[3]{x+1}}{\sqrt{x}} d x$</t>
+  </si>
+  <si>
+    <t>Решим уравнение $\sqrt[6]{x+1}=t$, тогда $x=t^{8}-1, d x=6 t^{5} d t$.
+Подставим и получим
+$$
+\begin{aligned}
+&amp; \int \frac{\mathrm{I}-\sqrt{x+1}}{1+\sqrt[3]{x+1}} d x=6 \int \frac{t^{5}\left(1-t^{3}\right)}{1+t^{2}} d t \\
+&amp; =6 \int\left(-t^{6}+t^{4}+t^{3}-t^{2}-t+1+\frac{t-1}{1+t^{2}}\right) d t \\
+&amp; =-\frac{6}{7} t^{7}+\frac{6}{5} t^{5}+\frac{3}{2} t^{4}-2 t^{3}-3 t^{2-}+6 t \\
+&amp; +3^{\ln }\left(1+t^{2}\right)-6 a r c tg t+C \text { ， }
+\end{aligned}
+$$
+где $t=\sqrt[5]{x+1}$ 。</t>
+  </si>
+  <si>
+    <t>1930</t>
+  </si>
+  <si>
+    <t>$\int \frac{d x}{\sqrt{x}(\mathrm{t}+\sqrt[4]{x})^{\mathrm{m}}}$</t>
+  </si>
+  <si>
+    <t>Подстановка дает
+$$
+\begin{aligned}
+&amp; \int \frac{d x}{\sqrt{x}(1+\sqrt{x})^{3}}=4 \int \frac{t d t}{(1+t)^{3}} \\
+&amp; =4 \int\left[\frac{1}{(1+t)^{2}}-\frac{1}{(1+t)^{3}}\right] d t \\
+&amp; =-\frac{4}{1+t}+\frac{2}{(1+t)^{2}}+C \\
+&amp; =-\frac{2}{(1+\sqrt{x})^{2}}-\frac{4}{1+\sqrt{x}}+C
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_f5c3e1220d3585d02564g-163.jpg?height=78&amp;width=1018&amp;top_left_y=1383&amp;top_left_x=459)
+</t>
+  </si>
+  <si>
+    <t>1931</t>
+  </si>
+  <si>
+    <t>$\int \frac{\sqrt{x+1}-\sqrt{x-1}}{\sqrt{x+1}+\sqrt{x-1}} d x$</t>
+  </si>
+  <si>
+    <t>Используя замену $\sqrt{\frac{x+1}{x-1}}=t$, получаем
+$$
+x=\frac{t^{2}+1}{t^{2}+1}, \quad d x=-\frac{4 t}{\left(t^{2}-1\right)^{2}} d t .
+$$
+Подставляя, получаем
+$$
+\begin{aligned}
+&amp; \int \frac{\sqrt{x+1}-\sqrt{x-1}}{\sqrt{x+1}+\sqrt{x-1}} d x=\int \frac{\sqrt{\frac{x+1}{x-1}}-1}{\sqrt{\frac{x+1}{x-1}}+1} d x \\
+&amp; =-4 \cdot \in+\frac{1}{2: t-1}\right] d t \\
+&amp; =\frac{1}{(t-1)^{2}}-\frac{1}{t+1}+\frac{1}{2} \ln \left|\frac{t+1}{t-1}\right|+C_{1} \\
+&amp; =\frac{1}{2} x^{2}-\frac{1}{2} x \sqrt{x^{2}-1}+\frac{1}{2} \ln \left|x+\sqrt{x^{2}-1}\right|+C .
+\end{aligned}
+$$
+Если не ограничивать преобразование подынтегральной функции в рациональную, решение этой задачи может быть проще. На самом деле,
+$$
+\begin{aligned}
+&amp;∫ \frac{\sqrt{x+1}-\sqrt{x-1}}{\sqrt{x+1}+\sqrt{x-1}} d x = ∫ \frac{(\sqrt{x+1}-\sqrt{x}-1)^{2}}{(x+1)-(x-1)^{-}} d x \\
+&amp; =\int\left(x-\sqrt{ } x^{2}-1\right) d x \\
+&amp; =\frac{1}{2} x^{2}-\frac{1}{2} x \sqrt{x^{2}}-1+\frac{1}{2} \ln \left|x-\sqrt{x^{2}}-1\right|+C .
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1932</t>
+  </si>
+  <si>
+    <t>$\int \frac{d x}{\sqrt[3]{(x+1)^{2}(x-1)^{2}}}$ ：</t>
+  </si>
+  <si>
+    <t>诨 $\sqrt[3]{\frac{x+1}{x-1}}=t$ , тогда
+$$
+x=\frac{t^{3}+1}{t^{3}-1}, d x=-\frac{6 t^{2}}{\left(t^{5}-1\right)^{2}} d t
+$$
+Подставив, получаем
+$$
+\begin{aligned}
+&amp; \int \frac{d x}{\sqrt[3]{(x+1})^{2}(x-1)^{4}}=-\frac{3}{2} \int d t=-\frac{3}{2} t+C \\
+&amp; =-\frac{3}{2} \sqrt[3]{x+\frac{1}{x}}+C .
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1933</t>
+  </si>
+  <si>
+    <t>$\int \frac{x d x}{\sqrt{x^{-3}(a-x)}}(a&gt;0)$</t>
+  </si>
+  <si>
+    <t>О, пусть $\sqrt[4]{a}-x=t$, тогда $x=\frac{a}{1+t^{4}}$,
+$$
+d x=-\frac{4 a^{t^{3}}}{\left(1+b^{4}\right)}d t
+$$
+代入得
+$$
+\begin{aligned}
+&amp; \int \frac{x d x}{\sqrt{x^{4}(a-x)}}=\int \frac{d x}{\sqrt[4-x]{\frac{a-x}{x}}}=-4 a \int \frac{t^{2}}{\left(1+t^{4}\right)^{2}} d t \\
+= &amp; -4 a \int\left[\frac{t}{\left(t^{2}-t \sqrt{2}+1\right)\left(t^{2}+t \sqrt{2}+1\right)}\right]^{2} d t \\
+= &amp; -\frac{a}{2} \int\left(\frac{1}{i^{2}-t \sqrt{2}}+1-\frac{1}{t^{2}+t \sqrt{2}+1}\right)^{2} d t
+\end{aligned}$$
+$$
+\begin{aligned}
+= &amp; -\frac{a}{2} \int \frac{d t}{\left(t^{2}-t \sqrt{2}+\overline{1}\right})^{2}}-\frac{a}{2} \int \frac{d t}{\left(t^{2}+t \sqrt{2}+1\right)^{2}} \\
+&amp; +a \int \frac{d t}{t^{4}+1} .
+\end{aligned}
+$$
+Теперь найдем интеграл по отдельности, используя формулу свертки из задачи 1921 года, получаем
+$$
+\begin{aligned}
+&amp; \int \frac{d t}{\left(t^{2}-t \sqrt{2}+1\right)^{2}}=\frac{2 t-\sqrt{2}}{2\left(t^{2}-t \sqrt{2}+1\right)} \\
+&amp; \потому чтоe \int \frac{d t}{t^{2}-t \sqrt{2}+1} \\
+&amp; \left.=\frac{2 t-\sqrt{2}}{2 t^{2}}-\frac{2}{\sqrt{2}}+1\right)+\int \frac{d\left(t-\frac{\sqrt{2}}{2}\right)}{\left(t-\frac{\sqrt{2}}{2}\right)^{2}+\frac{1}{2}} \\
+&amp; =\frac{2 t--\sqrt{2}}{2\left(l^{2}-t \sqrt{2}+1\right)}+\sqrt{2} \operatorname{arctg}(\sqrt{2} t-1)+C_{1}
+\end{aligned}
+$$
+и
+$$
+\begin{aligned}
+&amp; \int \frac{d t}{\left(t^{2}+-\frac{\"sqrt{2}+1)^{2}}{\left.t \sqrt{2}+t^{2}+t \sqrt{2}+1\right)}\right.} \\
++ &amp; \int \frac{d t}{t^{2}+t\sqrt{2}+1} \\
+= &amp; \frac{2 t+\sqrt{2}}{2\left(t^{2}+t \sqrt{2}+1\right)}+\int \frac{d\left(t+\frac{\sqrt{2}}{2}\right)}{\left(t+\frac{\sqrt{2}}{2}\right)^{2}+\frac{1}{2}}
+\end{aligned}
+$$
+$$
+=\frac{2 t+\sqrt{2}}{2\left(t^{2}+t \sqrt{2}+1\right)}+\sqrt{2} \operatorname{arctg}(\sqrt{2} t+1)+C_{2}$$
+Используя результат задачи 1884 года, получаем
+$$
+\begin{aligned}
+&amp; \int \frac{d t}{t^{4}+1}=\frac{1}{4} \frac{1}{2} \ln \frac{t^{2}+t_{2} \sqrt{2}+1}{t^{2}-t \sqrt{2}+1} \\
+&amp; +\frac{1}{2 \sqrt{2}}=\operatorname{arctg} \frac{t \sqrt{2}}{1-t^{2}}+C_{3}
+\end{aligned}
+$$
+в конце получаем
+$$
+\begin{aligned}
+&amp; \int-\frac{x d x}{\sqrt[4]{ } x^{3}(a-x)}=-\frac{a}{2}\left[\frac{2 t-\sqrt{2}}{\left.2 t^{2}-t \sqrt{2}+1\right)}\right.\\
+&amp; \left.+\frac{\left.2 t+\frac{\sqrt{2}}{2\left(t^{2}+t\right.} \sqrt{2}+1\right)}{2}\right]-\frac{a \sqrt{2}}{2}[\operatorname{arctg}(\sqrt{2} t-1) \\
+&amp; +\operatorname{arctg}(\sqrt{2} t+1)]+\frac{a}{4 \sqrt{2}} \frac{t^{2}+\frac{1}{2}}{t^{2}-t \sqrt{2}+1} \\
+&amp; +\frac{a}{2} \operatorname{arctg\dot{a} \frac{a}{\sqrt{2}} \ln \frac{t^{2}+t \sqrt{t^{2}-t}+1}{\sqrt{2}+1} \\
+&amp; -\frac{a}{2 \sqrt{2}}} \operatorname{arctg}\left(\frac{t \sqrt{2}}{1-t^{2}}\right)+C_{4} \\
+&amp; =-\frac{a t^{3}}{1+t^{4}}+\frac{a}{4 \sqrt{2}} \operatorname{In} \frac{t^{2}+t}{t^{2}-t} \frac{\sqrt{2}+1}{\sqrt{2}+1} \\
+&amp;+\frac{a}{2} \frac{a}{2} \operatorname{arctg}\left(\frac{1-t^{2}}{t \sqrt{2}}\right)+C,
+\end{aligned}
+$$
+где $t=\sqrt[4]{-\frac{a-x}{x}} \quad(0&lt;x \leqslant a)$.</t>
+  </si>
+  <si>
+    <t>1934</t>
+  </si>
+  <si>
+    <t>$\int \frac{d x}{\sqrt{(x-a)^{r}+1}} \frac{(x-b)^{r-1}}{2}$ （ $n$ — натуральное число）。</t>
+  </si>
+  <si>
+    <t>角 当 $a=b$ 时，显然被积函数为 $(x-a)^{-2}$ ，因地积分为 $-\frac{1}{x-a}+C$; 光 $a \neq b$ 时，设 $\sqrt[n]{\frac{x-b}{x-a}}=t$ ，财
+$$
+\begin{aligned}
+&amp; x=a+\frac{a-b}{t^{n}-1}, d x=-\frac{n(a-b) t^{n-1}}{\left(t^{n}-1\right)^{2}} d t, \\
+&amp; x-a=\frac{a-b}{i^{n}-1}, x-b=\frac{(a-b) f^{n}}{t^{n}-1},
+\end{aligned}
+$$
+Он входит
+$$
+\begin{aligned}
+&amp; \int \frac{n}{\sqrt{(x-a)^{n+1}}(x-b)^{n-1}}=-\frac{n}{a-b} \int d l """\\
+&amp; =-\frac{n}{a-b}-C+ \\
+&amp; =-\frac{n}{a-b} \sqrt{\frac{x-b}{x}-a}+C
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1935</t>
+  </si>
+  <si>
+    <t>$\int \frac{d x}{1+\sqrt{x+\sqrt{1}+x}}$</t>
+  </si>
+  <si>
+    <t>解 倣 $\sqrt{ } \times=\frac{l^{2}-1}{2 t}$ 护限制 $t=-1$ ，则
+$$
+\begin{aligned}
+&amp; x=\left(\frac{t^{2}-1}{2 t}\right)^{2}, d x=-\frac{t^{4}-1}{2 t^{2}} d t, \sqrt{x+1}=\frac{t^{2}+\mathrm{t}}{2 t} \\
+&amp;t=\sqrt{x}+\sqrt{x+1}
+\end{aligned}
+$$
+Подставим получаем
+$$
+\begin{aligned}
+&amp; \int \frac{1 x}{1+\sqrt{x}+\sqrt{x+1}}=\frac{1}{2} \int \frac{t^{4}-1}{\left.t^{\frac{1}{t}}+1\right)} d t \\
+&amp; =\frac{1}{2} \int\left(1-\frac{1}{t}+\frac{1}{t^{2}}-\frac{1}{t^{2}}\right) d t \\
+&amp; =\frac{1}{2}\left(t-\ln t-\frac{1}{t}+\frac{1}{2 t^{2}}\right)+C_{1} \\
+&amp; =\sqrt{x}-\frac{1}{2} \ln (\sqrt{x}+\sqrt{x+1}) \\
+&amp; \quad+\frac{x}{2}-\frac{1}{2} \sqrt{x(x+1)}+C .
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1936</t>
+  </si>
+  <si>
+    <t>$$
+p+q=k n,
+$$
+в котором $k$ является целым числом, тогда интеграл
+$$
+\int R\left[x,(x-a)^{\frac{\pi}{\pi}}(x-b)^{\frac{\pi}{6}}\right] d x
+$$
+（式中 $R$ является рациональной функцией, а $p, q, n$ - целыми числами） является элементарной функцией。
+Когда $a \neq b$， пусть $\frac{x-a}{x-b}=y(\neq 1)$, тогда
+$$
+x=\frac{a-b y}{1-y}, d x=\frac{a-b}{(1-y)^{2}} d y
+$$
+$$
+x-a=\frac{(a-b) y}{1-y}, x-b=\frac{a-b}{1-y} .
+$$
+Подставляя, получаем
+$$
+\begin{aligned}
+&amp; \int R\left[x,(x-a)^{\frac{p}{n}}(x-b)^{\frac{g}{n}}\right] d x \\
+&amp; =(a-b) \int R\left[\frac{a-b y}{1-y}, y^{\frac{p}{n}}\left(\frac{a-b}{1-y}\right)^{x}\right] \frac{d y}{(1-y)^{2}}
+\end{aligned}
+$$
+Пусть $\sqrt[N]{y}=t$, тогда $y=t^{n}, d y=n t^{n-1} d t$ .Таким образом, вышеуказанный интеграл преобразуется в
+$$
+\begin{aligned}
+&amp; \int R\left[x,(x-a)^{\frac{b}{n}}(x-b)^{\frac{q}{n}}\right] d x \\&amp; =n(a-b) \int R\left[\frac{a-b t^{\pi}}{1-t^{n}} t^{n}\left(\frac{a-b}{1-b^{n}}\right)^{k}\right]\frac{t^{n-1}}{\left(1-t^{n}\right)^{2}} d t
+\end{aligned}
+$$
+Поскольку подынтегральная функция является рациональной функцией $t$, интеграл является элементарной функцией. Найдите самый простой второй порядок.Безумные интегралы:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_f5c3e1220d3585d02564g-169.jpg?height=124&amp;width=1406&amp;top_left_y=1857&amp;top_left_x=368)显然为初等函数。
+</t>
+  </si>
+  <si>
+    <t>1937</t>
+  </si>
+  <si>
+    <t>$\int \frac{x^{2}}{\sqrt{1+x+x^{2}}} d x$</t>
+  </si>
+  <si>
+    <t>Решите $\int \frac{x^{2}}{\sqrt{1+x}+x^{2}} d x=\int \frac{x^{2}+x+1}{\sqrt{x^{2}+x+1}} d x$выравненный}
+&amp; -\frac{1}{2} \int \frac{2 x+1}{\sqrt{1+x+x^{2}}} d x-\frac{1}{2} \int \frac{d x}{1+x+x^{2}} \\
+= &amp; \int \sqrt{\left(x+\frac{1}{2}\right)^{2}+\frac{3}{4}} d\left(x+\frac{1}{2}\right)-\frac{1}{2} \int \frac{d\left(1+x+x^{2}\right)}{\sqrt{1}+x+x^{2}}=
+\end{aligned}
+$$
+$$
+\begin{aligned} 
+&amp;-\frac{1}{2} \int \frac{d\left(x+\frac{1}{2}\right)}{\sqrt{\left(x+\frac{1}{2}\right)^{2}+\frac{3}{4}}} \\
+&amp;= \frac{2 x+1}{4} \sqrt{1+x+x^{2}}+\frac{3}{8} \ln \left(x+\frac{1}{2}+\sqrt{1+x+x^{2}}\right) \\
+&amp;-\sqrt{1+x+x^{2}}-\frac{1}{2} \ln \left(x+\frac{1}{2}+\sqrt{1+x}+x^{2}\right)+C \\
+&amp;=\frac{2 x-3}{4} \sqrt{1+x}+x^{2}-\frac{1}{8} \ln \left(x+\frac{1}{2}\right. \\
+&amp;\left.+\sqrt{1+x+x^{2}}\right)+C .
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1938</t>
+  </si>
+  <si>
+    <t>$^{+} \cdot \int \frac{d x}{(1+x) \sqrt{x^{2}+x+1}}=$</t>
+  </si>
+  <si>
+    <t>Решим $x+1=\frac{1}{t}$, тогда
+$$
+\begin{aligned}
+&amp; x=\frac{1-t}{t}, d x=-\frac{1}{t^{2}} d t \\
+&amp; \quad \sqrt{x^{2}+x+1}=\frac{\sqrt{ } t^{2}-t+1}{|t|}=\operatorname{sgn} t \cdot \frac{\sqrt{t^{2}-t+1}}{t} .
+\end{aligned}
+$$
+代入䆆
+$$
+\begin{aligned}
+&amp; \int \frac{d x}{(1+x) \sqrt{x^{2}+x+1}}=-\operatorname{sgn} t \int \frac{d t}{\sqrt{t^{2}-t+1}} \\
+= &amp; -\operatorname{sgn} t \cdot \ln \left|t-frac{1}{2}+\sqrt{t^{2}-t+1}\right|+C_{1}
+\end{aligned}
+$$
+$$
+\begin{aligned}
+&amp; =-\operatorname{sgn}(x+1) \\
+&amp; \cdot \ln _{i}\left|\frac{1-x+2(\operatorname{sgn}(x+1)] \cdot \sqrt{x^{2}+x+1}}{2(x+1)}\right|+C_{10}
+\end{aligned}
+$$
+Когда $x+1=0$,
+$$
+\begin{aligned}
+&amp; \int(1+x) \sqrt{x^{2}+x+1} \\
+= &amp; -1 \mathrm{l}\left|1-\frac{x+2 \sqrt{x^{2}+x+1}}{x+1}\right|+C ;
+\end{aligned}
+$$
+Когда $x+1=0$ тогда,
+$$
+\begin{aligned}
+&amp; \int(1+x) \frac{d x}{\sqrt{x^{2}+x+1}} \\
+&amp; =14\left|\frac{1-x-2 \sqrt{x^{2}}+x+1}{2\left(1 \frac{1}{x}\right)}\right|+C_{1} \\
+&amp; =11 \mid \underset{2\left(1-x+2 \sqrt{\left.x^{2}+x+1\right)}\right.}{-1+C_{1}} \\
+&amp; =-\ln \left|\frac{1-x+2 \sqrt{x^{2}+x+1}}{x+1}\right|+C .
+\end{aligned}
+$$
+В общем,
+$$
+\begin{aligned}
+&amp; \int \frac{d x}{(1+x)} \frac{d x}{x^{2}+x+1} \\
+&amp; =-\ln \left|\frac{1-x+2 \sqrt{x^{2}+x+1}}{x+1}\right|+C .
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1939</t>
+  </si>
+  <si>
+    <t>$\int \frac{d x}{(1-x)^{2} \sqrt{1-x^{2}}=}$</t>
+  </si>
+  <si>
+    <t>Решим уравнение $\sqrt{\frac{1-x}{1+x}}=i$, тогда
+$$
+\begin{aligned}
+&amp; x=\frac{1-t^{2}}{1+t^{2}}, \quad d x=-\frac{4 t}{\left(1+t^{2}\right)^{2}} d t \\
+&amp; 1-x=\frac{2 t^{2}}{1+t^{2}}, \quad \sqrt{1}-x^{2}=\frac{2t}{1+t^{2}}
+\end{aligned}
+$$
+化入得
+$$
+\begin{aligned}
+&amp; \int \frac{d x}{(1-x)^{2} \sqrt{1-x^{2}}}=-\frac{1}{2} \int \frac{1+t^{2}}{t^{4}} d t \\
+&amp; =\frac{1}{6 t^{9}}+\frac{1}{2 t}+C \\
+&amp; =\frac{9-x}{3(1-x)^{2}} \sqrt{1-x^{2}}+C .
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1940</t>
+  </si>
+  <si>
+    <t>$\int \frac{\sqrt{x^{2}}+2 x+2}{x} d x$</t>
+  </si>
+  <si>
+    <t>Решим уравнение $\sqrt{x^{2}+2 x+2}=t-x$, тогда
+$$
+\begin{gathered}
+x=\frac{t^{2}-2}{2(t+1)}, \quad d x=\frac{t^{2}+2 t+2}{2(t+1)^{2}} d t, \\
+\sqrt{x^{2}+2 x+2}=\frac{t^{2}+2 t+2}{2(t+1)} .
+\end{gathered}
+$$代入得
+$$
+\begin{aligned}
+&amp; \int \frac{\sqrt{x^{2}+2 x+2}}{x} d x=\frac{1}{2} \int \frac{\left(t^{2}+2 t+2\right)^{2}}{\left(t^{2}-2\right)(t+1)^{2}} d t \\
+&amp; =\frac{1}{2} \int\left[1+\frac{2}{t+1}-frac{1}{(t+1)^{2}}\right.
+\end{aligned}
+$$
+$$
+\begin{aligned}
+&amp; \left.-\frac{2 \sqrt{2}}{i+\sqrt{2}}+\frac{2 \sqrt{2}}{t-\sqrt{2}}\right] d t \\
+= &amp; \frac{t}{2}+\ln |t+1|+\frac{1}{2(t+1)}-\sqrt{2} \ln \left|t+\sqrt{\frac{2}{2}}\right|+C_{1} \\
+= &amp; \sqrt{x^{2}+2 x+2}+\ln \left(x+1+\sqrt{x^{2}+2 x+2}\right) \\
+&amp; -\sqrt{2} \ln \left|\frac{x+2+\sqrt{2\left(x^{2}+2 x+2\right)}}{x}\right|+C .end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1941</t>
+  </si>
+  <si>
+    <t>$\int \frac{x d x}{(1+x) \sqrt{1-x-x^{2}}}$</t>
+  </si>
+  <si>
+    <t>Решим уравнение $1+x=\frac{1}{t}$, тогда
+$$
+\begin{aligned}
+&amp; x-\frac{1}{t}-\frac{t}{t}, \quad d x=-\frac{1}{t^{2}}} d t, \\
+&amp; \\
+&amp; \sqrt{1--\bar{x}-x^{2}}=\frac{\sqrt{t^{2}+t-1}}{|t|}=\operatorname{sgn} t \frac{\sqrt{t^{2}}+\overline{t-1}}{t} .
+\end{aligned}
+$$
+代入锝
+$$
+\begin{aligned}
+&amp; \int \frac{x d x}{(1+x) \sqrt{1-x-x^{2}}} \\
+&amp; =\int\left(\frac{1}{\sqrt{1-x-x^{2}}}-\frac{1}{(1-x)} \frac{1}{\left.sqrt{1}-\overline{x-x^{2}}\right)}\right) d x \\
+&amp; =\int \frac{d x}{\sqrt{ } \frac{1}{-x}-}=\frac{x^{2}}{x}+\operatorname{sgn} \int \frac{d t}{\sqrt{t^{2}}+t-1}= \\
+&amp; =\arcsin \left(\frac{2 x+1}{\sqrt{5}}\right)+[\operatorname{sgn}(1+x)]
+\end{aligned}
+$$
+$$
+\text { - } \ln \left|\frac{3+x+2(\oоператорname{ssn}(x+1)) \sqrt{1-x-x^{2}}}{2(1+x)}\right|+c_{1}
+$$
+Когда $x+1=-0$ то,
+$$
+\begin{aligned} 
+&amp; \int \frac{x d x}{(1+x) \sqrt{1-x-x^{2}}}=\arcsin \left(\frac{2 x+1}{\sqrt{5}}\right) \\ 
++ &amp; \ln _{n}\left|\frac{3+x+2 \sqrt{1-x-x^{2}}}{1+x}\right|+C ;
+\end{aligned}
+$$
+Когда $x+1 \leqslant 0$，
+$$
+\begin{aligned}
+&amp; \int \frac{x d x}{(1+x) \sqrt{1-x-x^{2}}}=\arcsin \left(\frac{2 x+1}{\sqrt{5}}\right) \\
+&amp; -\ln _{n}\left|\frac{3+x-2 \sqrt{1-x-x^{2}}}{2(1+x}\right|+C_{1} \\
+&amp; =\arcsin \left\left(\frac{2 x+1}{\sqrt{5}}\right)+\ln \left|\frac{3+x+2 \sqrt{1-x-x^{2}}}{1+x}\right|+C . 
+\end{aligнед}
+$$
+总え,
+$$
+\begin{aligned}
+&amp; \int \frac{x d x}{(1+x) \sqrt{1-x-x^{2}}}=\arcsin \left(\frac{2 x+1}{\sqrt{5}}\right) \\
+&amp;+\ln \left\{\frac{3+x+2 \sqrt{1-x-x^{2}}}{1+x}+C .\right.}
+$$
+В задачах по тангу, когда встречается вторичный иррациональный выражение, может возникнуть проблема с $s g a t$, можно обратиться к задачам 1938 и 1941 года, которые схожи, но имеют другое решение. При решении подобных задач не помешает взять положительное значение после извлечения квадратного корня. Если нет особых случаев, в дальнейшем дополнительные пояснения не будут даваться.</t>
+  </si>
+  <si>
+    <t>1942</t>
+  </si>
+  <si>
+    <t>$\int \frac{1-x+x^{2}}{\sqrt{1}+x-x^{2}} d x$</t>
+  </si>
+  <si>
+    <t>Решите $\int \frac{1-x+x^{2}}{\sqrt{1+x-x^{2}}} d x=\int \frac{\left(x^{2}-x-1\right)+2}{\sqrt{1+x-x^{2}}}$} d x$
+$$
+\begin{aligned}
+= &amp; -\int \sqrt{\frac{5}{4}-\left(x-\frac{1}{2}\right)^{2} d\left(x-\frac{1}{2}\right)} \\
++ &amp; \ddots \int \frac{d\left(x-\frac{1}{2}\right)}{\sqrt{\frac{5}{4}-\left(x-\frac{1}{2}\right)^{2}}} \\
+= &amp; \frac{1-2 x}{4} \sqrt{1+x-x^{2}}-\frac{5}{8} \arcsin \left(\frac{2 x-1}{\sqrt{5}}\right) \\
+&amp; +2 \operatorname{arc} \sin \left(\frac{2 x-1}{\sqrt{5}}\right)+C \\
+= &amp; \frac{1-2 x}{4} \sqrt{1+x-x^{2}}-\frac{11}{8} \arcsin \left(\frac{1}{\sqrt{5}}\right)+C
+\end{aligned}
+$$
+Используя формулу
+$$
+\int \frac{P_{n}(x)}{y} d x=Q_{n-1}(x) y+\lambda \int \frac{d x}{y}
+$$
+В формуле $y=\sqrt{a x^{2}+b x+c, P_{n}(x)}$ является $n$-й степени полиномом, $Q_{n-1}(x)$ является полиномом степени $n-1$, который является константой. Найдите следующий интеграл:</t>
+  </si>
+  <si>
+    <t>1943</t>
+  </si>
+  <si>
+    <t>$\int \frac{x^{3}}{\sqrt{1+2 x-x^{2}}} d x$</t>
+  </si>
+  <si>
+    <t>卑 设 $\int \frac{x^{3}}{\sqrt{1+2 x-x^{2}}} d x$
+$$
+=\left(a x^{2}+b x+c\right) \sqrt{1+2 x-x^{2}}+\lambda \int \frac{d x}{\sqrt{1+2 x-x^{2}}},
+$$
+Держа обе стороны по $x$, получаем
+$$
+\begin{aligned}
+&amp; \frac{x^{3}}{\sqrt{1+2 x-x^{2}}}=(2 a x+b) \sqrt{1+2 x-x^{2}} \\
+&amp; +\frac{\left(a x^{2}+b x+c\right)(1-x)}{\sqrt{1+2 x-x^{2}}}+\frac{\lambda}{\sqrt{1+2 x-x^{2}}}
+\end{aligned}
+$$
+Таким образом, есть
+$$
+\begin{aligned}
+&amp; x^{3}=(2 a x+b)\left(1+2 x-x^{2}\right)+\left(a x^{2}+b x+c\right) \\
+&amp; \cdot(1-x)+\lambda . 
+\end{aСравнив коэффициенты при $x$ с одинаковыми степенями с обеих сторон уравнения, получаем
+\begin{array}{l|l}
+x^{3} &amp; -3 a=1, \\
+x^{2} &amp; 5 a-2 b=0, \\x^{2} &amp; 2 a+3 b-c=0, \\
+x^{0} &amp; b+c+\lambda=0 .
+\end{array}
+$$
+Отсюда, $a=-\frac{1}{3}, b=-\frac{5}{6}, c=-\frac{19}{6}, \lambda=4$ ：
+Рука это,
+$$
+\begin{aligned}
+&amp; \int \frac{x^{2}}{\sqrt{1+2 x-x^{2}}} d x=-\frac{19+5 x+2 x^{2}}{6} \sqrt{1+2 x-x^{2}} \\
+&amp; \quad+4 \int \frac{d x}{\sqrt{1+2 x-x^{2}}}\\
+&amp; =-\frac{19+5 x+2 x^{2}}{6} \cdot \sqrt{1+2 x-x^{2}}
+\end{aligned}
+$$
+$+4: a n c: \sin \left\left(\frac{x-1}{\sqrt{2}}\right)+C$</t>
+  </si>
+  <si>
+    <t>1944</t>
+  </si>
+  <si>
+    <t>$\int \frac{x^{10}}{\sqrt{1}+x^{2}} d x ;$</t>
+  </si>
+  <si>
+    <t>Решите $\int-\frac{x^{10}}{\sqrt{1+x^{2}}} d x=\left(a x^{9}+b x^{8}+a x^{7}+d x^{6}+e x^{5}\right.$$
+\begin{aligned}
+&amp; +f x^{4}+g x^{9}+h x^{2}+(x+m) \cdot \sqrt{1+x^{2}} \\
+&amp; +\lambda \int \frac{d x}{\sqrt{1+x^{2}}}
+\end{aligned}
+$$
+Таким образом, имеем
+$$
+\begin{aligned}
+x^{10} &amp; \equiv\left(9 a x^{8}+8b x^{7}+7 e x^{6}+6 d x^{5}+5 e x^{4}+4 f x^{3}\right. \\
+&amp; \left.+3 g x^{2}+2 h x+l\right)\left(1+x^{2}\right) \\
+&amp; +x\left(a x^{9}+b x^{8}+e x^{7}+d x^{6}+e x^{5}+f x^{4}+g x^{3}\right. \\
+&amp; \left.+h x^{2}+l x+m\right)+\lambda .
+\end{aligned}
+$$
+Сравнив коэффициенты при одинаковых степенях $x$ с обеих сторон уравнения, получаем
+$$
+\begin{aligned}
+&amp; a=\frac{1}{10}, b=0, c=-\frac{9}{80}, d=0, \\
+&amp; e=\frac{21}{160}, f=0, g=-\frac{21}{128} . \quad h=0, \\
+&amp; l=\frac{63}{256}, n=0, \lambda=-\frac{63}{256} .
+\end{aligned}
+$$
+Таким образом,
+$$
+\int-\frac{x^{10}}{1+x^{2}} d x=\left(\frac{63}{256} x-\frac{21}{128} x^{9}+\frac{21}{160} x^{5}-\frac{9}{80} x^{7}\right.
+$$
+$$
+\left.+\frac{1}{10} x^{9}\right) \sqrt{1}+\overline{x^{2}}-\frac{63}{256} \ln \left(x+\sqrt{1+x^{2}})+C.</t>
+  </si>
+  <si>
+    <t>1945</t>
+  </si>
+  <si>
+    <t>$\int x^{4} \sqrt{a^{2}}-x^{2} d x$</t>
+  </si>
+  <si>
+    <t>Решите $\int x^{4} \sqrt{a^{2}-x^{2}} d x=\int \frac{x^{4}\left(a^{3}-x^{2}\right)}{\sqrt{a^{2}-x^{2}}} d x$
+$$
+\begin{aligned}
+&amp; =\left(A x^{5}+B x^{4}+C x^{3}+D x^{2}+E x+F\right) \sqrt{a^{2}-x^{2}}\
+&amp; +\lambda \int \frac{d x}{\sqrt{g^{2}}-\frac{1}{2}}=
+\end{aligned}
+$$
+Таким образом, есть
+$$
+\begin{aligned} 
+&amp; x^{4}\left(a^{2}-x^{2}\right)=\left(5 A x^{4}+4 B x^{3}+3 C x^{2}+2 D x\right. \\
+&amp; +E)\left(a^{2}-x^{2}\right)-x\left(A x^{5}+B x^{4}+C x^{3}+D x^{2}\right. \\
+&amp; +E x+F)+\lambda
+\end{aligned}$$
+Сравнив однородные члены с обеих сторон равенства $x$, получаем
+$$
+\begin{aligned}
+&amp; A=\frac{1}{6}, B=0, C=-\frac{a^{2}}{24}, \quad D=""0, \\
+&amp; E=-\frac{a^{4}}{16}, F=0, \lambda=\frac{a^{4}}{16} .
+\end{aligned}
+$$
+干是，
+$$
+\begin{al\int x^{4} \sqrt{a^{2}}-x^{2} d x=\left(\frac{1}{6} x^{5}-\frac{a^{2}}{24} x^{3}-\frac{a^{4}}{16} x\right) \sqrt{a^{2}}-x^{2} \\
+&amp; +\frac{a^{4}}{16} \operatorname{arc} \sin -\frac{x}{|a|}+C \quad\left(a \gamma^{-} 0\right)
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1946</t>
+  </si>
+  <si>
+    <t>$\int \frac{x^{3}-6 x^{2}+11 x-6}{\sqrt{x^{2}+4 x+3}} d x$</t>
+  </si>
+  <si>
+    <t>Решите интеграл $\int \frac{x^{3}-6 x^{2}+11 x-6}{\sqrt{x^{2}+4 x+3}} d x$
+$$
+=\left(a x^{2}+b x+c\right) \sqrt{x^{2}+4 x+3}+\lambda \int \frac{d x}{\sqrt{x^{2}+4 x+3}}
+$$
+Таким образом, имеется
+$$
+\begin{aligned}
+&amp; x^{3}-6x^{2}+11 x-6 \equiv(2 a x+b)\left(x^{2}+4 x+3\right) \\
+&amp; \quad+(x+2)\left(a x^{2}+b x+c\right)+\lambda
+\end{aligned}
+$$
+Сравнив коэффициенты при одноименных членах на обеих сторонах равенства, получаем
+$$
+a=\frac{1}{3}, \quad b=-\frac{14}{3}, c=37, \lambda=-66
+$$
+Таким образом,
+$$
+\begin{aligned}
+&amp; \int \frac{x^{3}-6 x^{2}+11 x-6}{\sqrt{x^{2}+4 x+3}} d x \\&amp; =\left(\frac{1}{3} x^{2}-\frac{14}{3} x+37\right) \sqrt{x^{2}+4 x+3} \\
+&amp; -66 \ln \left|x+2+\sqrt{x^{2}+4 x+3}\right|+C_{4}
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1947</t>
+  </si>
+  <si>
+    <t>$\int \frac{d x}{x^{3} \sqrt{x^{2}+1}}$</t>
+  </si>
+  <si>
+    <t>Установим $x=\frac{1}{t}$, тогда $d x=-\frac{1}{t^{2}} d t$, здесь сталкиваемся с квадратичной иррациональностью $\sqrt{x^{2}+1}$, необходимо использовать $\operatorname{sgПроблема nt}$, возможно, задайте
+$$
+\sqrt{x^{2}+1}=\frac{\sqrt{t^{2}+1}}{t} \quad(t&gt;0)
+$$
+Подставив, получаем
+$$
+\begin{aligned}право)-1}{\sqrt{t^{2}+1}} d t \\
+= &amp; -\int \sqrt{t^{2}+1} d t+\int \frac{d t}{t^{2}+1} \\
+= &amp; -\frac{t}{2} \sqrt{t^{2}+1}-\frac{1}{2} \ln \left|t+\sqrt{t^{2}}+1\right| \\
+&amp; +\ln \left|t+\sqrt{t^{2}+1}\right|+C \\
+= &amp; -\frac{\sqrt{x^{2}+1}}{2 x^{2}}+\frac{1}{2} \ln \frac{1+\sqrt{x^{2}+1}}{|x|}+C\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1948</t>
+  </si>
+  <si>
+    <t>$^{+}</t>
+  </si>
+  <si>
+    <t>Решим, не устанавливая $x=\frac{1}{t}=0$, тогда $d x=-\frac{1}{t^{2}} d t$. Из $|x|&gt;1$ следует, что $|t|&lt;1$, тогда имеем
+$$
+\sqrt{x^{2}-1}=\frac{\sqrt{1-t^{2}}}{t} \quad(0&lt;t \leqslant 1)
+$$
+但入得
+$$
+\begin{aligned}
+&amp; \int \frac{d x}{x^{4} \sqrt{x^{2}-1}}=-\int \frac{t^{3}}{1-t^{2}} d t \\
+= &amp; \int \frac{t\left(1-t^{2}\right)-t}{\sqrt{1-t^{2}}} d t \\
+= &amp; \int t \sqrt{1-t^{2}} d t-\int \cdots \frac{t}{\sqrt{1}-t^{2}} d t
+\end{aliгнед}
+$$
+$$
+\begin{aligned}
+= &amp; -\frac{1}{2} \int\left(1-t^{2}\right)^{\frac{1}{2}} d\left(1-t^{2}\right) \\
+&amp; +\frac{1}{2} \int\left(1-t^{2}\right)^{-\frac{1}{2}} d\left(1-t^{2}\right) \\
+= &amp; -\frac{1}{3}\left(1-t^{2}\right)^{\frac{3}{2}}+\left(1-t^{2}\right)^{\frac{1}{2}}+C \\
+= &amp; \frac{1+2x^{2}}{3 x^{3}} \sqrt{ } \sqrt{x^{2}}-\frac{1}{1}+C .
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1949</t>
+  </si>
+  <si>
+    <t>$^{+} \cdot \int \frac{d x}{(x-1)^{3} \sqrt{x^{2}+3 x+1}}$</t>
+  </si>
+  <si>
+    <t>Решим, задав $x-1=\frac{1}{t}$, тогда $d x=-\frac{1}{t^{2}} d t$. Предположим, что $t&gt;0$,
+тогда имеем
+$$
+\sqrt{x^{2}-3 x+1}=\frac{\"sqrt{5 t^{2}+5 t+1}}{t}
+$$
+Подставляя, получаем
+$$
+\begin{aligned}
+&amp; \int \frac{d x}{(x-1)^{3} \sqrt{x^{2}}+3 x+1}=-\int \frac{t^{2}}{\sqrt{5 t^{2}+5 t+1}} d t \\
+&amp; =(a t+b) \sqrt{5 t^{2}}+5 \bar{t}+1 \\
+&amp; =\lambda \int \frac{d t}{\sqrt{5 t^{2}}+5 t+1}
+\end{aligned}
+$$
+Таким образом
+$$
+-t^{2} \equiv a\left(1+5 t+5t^{2}\right)+\left(5 t+\frac{5}{2}\right)(a t+b)+\lambda
+$$
+Сравнив коэффициенты при $t$ с обеих сторон уравнения, получаем
+$$
+a=-\frac{1}{10}, \quad b=\frac{3}{20}, \lambda=-\frac{11}{40^{\circ}} .
+$$
+于足，
+$$
+\begin{aligned}
+&amp; \int \frac{d x}{(x-1)^{3} \sqrt{x^{2}-3 x+1}}=\left(-\frac{t}{10}+\frac{3}{20}\right) \sqrt{5 t^{2}+5 t+1}\\
+&amp; -\frac{11}{40} \int \frac{d t}{\sqrt{5} t^{2}+5 t+1} \\
+&amp; \left.=-\frac{3-2 t}{20} \sqrt{5 t^{2}+5 t+1}-\frac{11}{40 \sqrt{5}} \ln _{1} \right\rvert\, t+\frac{1}{2} \\
+&amp; \left.+\sqrt{t^{2}+t+frac{1}{5}} \right\rvert\,+C_{1} \\
+&amp; =\frac{3 x-5}{20(x-1)^{2}} \sqrt{x^{2}+3 x+1} \\
+&amp; \quad-\frac{11}{40 \sqrt{5}} \ln \left\lvert\, \frac{\sqrt{5}(x+1)+2}{x-1} \sqrt{x^{2}+3 x+1}\right.
+\end{alигнед}+C . 
+$$</t>
+  </si>
+  <si>
+    <t>1950</t>
+  </si>
+  <si>
+    <t>$^{+} \cdot \int \frac{d x}{(x+1)^{5} \sqrt{x^{2}+2 x}}$</t>
+  </si>
+  <si>
+    <t>Решим, положив $x+1=\frac{1}{t}$, тогда $d x=-\frac{1}{t^{2}} d t$. Сначала положим $t=0$, тогда имеем
+$$
+\sqrt{x^{2}+2 x}=\sqrt{\frac{1-t^{2}}{t}} .
+$$
+- Подстановка дает
+$$
+\int(x+1) \frac{d x}{)^{5}} \sqrt{x^{2}+2 x}=-\int \frac{t 4}{\sqrt{1-t^{2}}} d t
+$$
+$$
+=\left(a^{a}+b t^{2}+c t+e\right) \sqrt{1-t^{2}}+\lambda \int \frac{d t}{\sqrt{-т\left(a l^{2}\right. \\
+&amp; \left.+b t^{2}+c t+e\right)+\lambda .
+\end{aligned}
+$$
+Сравните обе стороны уравнения; однородные члены одинаковой степени求得
+$$
+a=\frac{1}{4}, b=0, c=\frac{3}{8}, \quad e=0, \lambda=-\frac{3}{8} .
+$$
+Таким образом,
+$$
+\begin{aligned}
+&amp; \int \frac{d x}{(x+1)^{5} \sqrt{x^{2}}+2 x}=\left(\frac{1}{4} t^{3}+\frac{3}{8} t\right)\\
+&amp; \cdot \sqrt{1}-t^{2}-\frac{3}{8} \int \frac{d t}{\sqrt{1-t^{2}}} \\
+&amp; =-\frac{3 x^{2}+6 x+5}{3(x+1)^{4}} \sqrt{x^{2}+2 x-\frac{3}{8}} \text { arcsin } \frac{1}{x+1}+C .
+\end{aligned}
+$$
+$$\begin{aligned}
+&amp; \int(x+1)^{3} \cdot \frac{d x}{\sqrt{2}+2 x}=\frac{3 x^{2}+6 x+5}{8(x+1)^{2}} \sqrt{x^{2}+2 x} \\
+&amp; -\frac{3}{8} \arcsin \frac{1}{|x+1|}+C
+\end{aligned}
+$$
+где $x=0$ или $x&lt;-2$ .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_f5c3e1220d3585d02564g-184.jpg?height=78&amp;width=1394&amp;top_left_y=1640&amp;top_left_x=434)改变得号。因此，最后得到
+</t>
+  </si>
+  <si>
+    <t>1951</t>
+  </si>
+  <si>
+    <t>При каких условиях, новая часть</t>
+  </si>
+  <si>
+    <t>$$
+\int \frac{a_{1} x^{2}+b_{1} x+c_{1}}{\sqrt{a x^{2}+b x+c}} d x
+$$
+является алгебраической функцией?
+Пусть $\int \frac{a_{1} x^{2}+b_{1} x+c_{1}}{\sqrt{a x^{2}+b x+c}} d x$
+$$
+=(A x+B) \sqrt{a x^{2}+b x+c}+\lambda \int-frac{d x}{\sqrt{a x^{2}+b x+c}},
+$$
+Таким образом, есть
+$$
+\begin{aligned}
+&amp; a_{1} x^{2}+b_{1} x+c_{1} \equiv A\left(a x^{2}+b x+c\right) \\
+&amp; +\left(a x+\frac{b}{2}\right)(A x+B)+\lambda
+\end{aligned}
+$$
+СравнитьУравнение по обеим сторонам $x$ с одинаковыми коэффициентами, при $a \neq 0$ получаем
+$$
+\begin{gathered}
+A=\frac{a_{1}}{2 a}, \quad B=-\frac{4 a b_{1}}-3 a_{1} b}{4 c^{2}}, \\
+\lambda=\frac{8 a^{2} c_{1}+3 a_{1} b^{2}-4 a\left(a_{1} c+b b_{1}\right)}{8 a^{2}} .
+\end{gathered}
+$$
+Таким образом, когда $a \neq 0$ и $8 a^{2} c_{\mathrm{E}}+3 a_{1} b^{2}=4 a\left(a_{1} c+b b_{1}\right)$ при $\lambda=0$ интеграл является алгебраической функцией; когда $\alpha=0$, интеграл, безусловно, является алгебраической функцией.
+$$
+\text { требуется интеграл } \int \frac{P(x)}{Q(x) y} d x, где y=\sqrt{a x^{2}+b x+c}, 
+$$
+Сначала следует разложить рациональную функцию \frac{P(x)}{Q(x)}$ является наименьшей дробью.</t>
+  </si>
+  <si>
+    <t>1952</t>
+  </si>
+  <si>
+    <t>$\int \frac{x d x}{(x-1)^{2} \sqrt{1+2 x-x^{2}}}$</t>
+  </si>
+  <si>
+    <t>Решите $\int(x-1)^{2} \frac{x d x}{\sqrt{1+2 x-x^{2}}}=\int \frac{d x}{(x-1)^{2} \sqrt{1+2 x-x^{2}}}$+\int \frac{d x}{(x-1) \sqrt{1+2 x-x^{2}}}
+$$
+Пусть $x-1=\frac{1}{t}$, тогда $a x=-\frac{1}{t^{2}} d t$Не мешает установить $t=0$,
+тогда имеем
+$$
+\sqrt{1+2 x-x^{2}}=\frac{\sqrt{2 t^{2}-1}}{t}
+$$
+Подставляя, получаем
+$$
+\begin{aligned}
+&amp;\int \frac{x d x}{(x-1)^{2} \sqrt{1+2 x-x^{2}}} \\
+&amp; =-\int \frac{t d t}{\sqrt{2 t^{2}-1}}-\int \frac{d t}{\sqrt{2 t^{2}}-1} \\
+&amp; =-\frac{1}{2} \sqrt{2 t^{2}-1}-\frac{1}{\sqrt{2}} \mathbf{1 n}!\sqrt{2} t+\sqrt{2 t^{2}-1}!+C \\
+&amp; =\frac{\sqrt{1+2 x-x^{2}}}{2(1-x)}-\frac{1}{\sqrt{2}} \ln _{n}\left|\underline{\sqrt{2}+\sqrt{1+2 x-x^{2}}}\right|+C .</t>
+  </si>
+  <si>
+    <t>1953</t>
+  </si>
+  <si>
+    <t>$\int \frac{x d x}{\left(x^{2}-1\right) \sqrt{x^{2}-x-1}}$</t>
+  </si>
+  <si>
+    <t>Решите $\int \frac{x d x}{\left(x^{2}-1\right)} \frac{x d x}{x^{2}-x-1}$
+$$
+\begin{aligned}
+&amp; =\frac{1}{2} \int\left(\frac{1}{x+1}+\frac{1}{x-1}\right) \sqrt{x^{2}-x-1} \\
+&amp; =\frac{1}{2} \int \frac{d x}{(x+1) \sqrt{x^{2}-x-1}}+\frac{d}{2} \int \frac{d x}{(x-1) \sqrt{x^{2}-x-1}}
+\end{aligned}
+$$
+$$=\frac{1}{2} I_{1}+\frac{1}{2} I_{2}
+$$
+Для $I_{1}$ положим $x+1=\frac{1}{t}$, тогда $d x=-\frac{1}{t^{2}}d t$ 。不教设 $t&gt;0$ ，则有
+$$
+\sqrt{x^{2}-x-1}=\frac{\sqrt{t^{2}-3 t+}}{t}
+$$
+代入 $I_{1}$ ，得
+$$
+\begin{aligned}
+I_{1} &amp; =\int \frac{d x}{(x+1)} \sqrt{x^{2}-x-1}=-\int \frac{d t}{\sqrt{t^{2}-3 t+1}}&amp; =-\mathbf{1}_{1}\left|t-\frac{3}{2}+\sqrt{t^{2}-3 t+1}\right|+C_{1} \\
+&amp; =-\mathbf{l}_{1}\left|\frac{3 x+1-2 \sqrt{x-2}-x-\mathrm{L}}{x+1}\right|+C_{2} ;
+\end{aligned}
+$$
+Для положительного $I_{2}$, положим $x-1=\frac{1}{t}$ ，同上可得
+$$
+\begin{aligned}
+I_{2} &amp; =\int \frac{d x}{(x-1) \sqrt{x^{2}-x-1}} \\
+&amp; =\arcsв \left(\frac{x-3}{\mid x-1}-\frac{3}{5}\right)+C_{3} .
+\end{aligned}
+$$
+Таким образом,
+$$
+\begin{aligned}
+&amp; \left.\int \frac{d x}{\left(x^{2}-1\right)} \frac{\sqrt{x^{2}-x-1}}{x+1} \right\rvert\, \\
+&amp; =-\frac{1}{2} \ln \left|\frac{3 x+1-2 \sqrt{x} \overline{x^{2}-x-1}}{x+1}\right|$$
++\frac{1}{2} \text { арк } \sin \left(\frac{x-3}{|x-1| \sqrt{5}}\right)+C .
+$$</t>
+  </si>
+  <si>
+    <t>1954</t>
+  </si>
+  <si>
+    <t>$\int \frac{\sqrt{x^{2}+x+1}}{(x+1)^{2}} d x$</t>
+  </si>
+  <si>
+    <t>$$
+\text { Решение } \begin{aligned}
+&amp; \int \frac{\sqrt{x^{2}+x+1}}{(x+1)^{2}} d x=\int \frac{x^{2}+x+1}{(x+1)^{2}} \cdot \frac{d x}{\sqrt{x^{2}+x+1}} \\
+= &amp; \int \frac{(x+1)^{2}-(x+1)+1}{(x+1)^{2}} \cdott \frac{d x}{\sqrt{x^{2}+x+1}} \\
+= &amp; \int \frac{d x}{\sqrt{x^{2}+x+1}}-\int \frac{d x}{(x+1) \sqrt{x^{2}}+x+1} \\
++ &amp; \int \frac{d x}{(x+1)^{2}} \sqrt{x^{2}+x+1}=I_{1}-I_{2}+I_{3} \therefore
+\end{выравненный}
+$$
+Для $I_{1}$ очевидно, что
+$I_{1}=\int \frac{d x}{\sqrt{x^{2}+x+1}}=\ln \left(x+\frac{1}{2}+\sqrt{x^{2}+x+1}\right)+C_{1}$
+Для интеграла $I_{2}$, используя результат задачи 1938 года, получаем
+$$
+\begin{aligned}
+I_{2} &amp; =\int \frac{d x}{(x+1)} \frac{d x}{\sqrt{x^{2}+x+1}} \\
+&amp; =-\ln \left|\frac{1-x+2 \sqrt{x^{2}+x+1}}{x+1}\right|+\dot{C}_{2}
+\end{aligned}
+$$
+Для $I_{s}$, пусть $x+1=\frac{1}{l}$, тогда $d x=-\frac{1}{t^{2}} d t$. Предположим, что $t&gt;0$ 。则有
+$$
+\sqrt{x^{2}+x+1}=\frac{\sqrt{t^{2}-t+1}}{t}
+$$
+代入得
+$$
+\begin{aligned}
+&amp; I_{9}=-\int-\frac{t d t}{\sqrt{t^{2}-t+1}} \\
+&amp; =-\frac{1}{2} \int \frac{(2 t-1) d t}{\sqrt{t^{2}-t+1}}-\frac{1}{2} \int-\frac{d t}{\sqrt{t^{2}-t+1}} \\
+&amp; =-\sqrt{t^{2}-t+1}-\frac{1}{2} \mathbf{l}_{n}\left|t-\frac{1}{2}+\sqrt{t^{2}-t+1}\right|+C_{3} \\
+&amp; \left.=-\frac{\sqrt{x^{2}+x+1}}{x+1}-\frac{1}{2} \mathrm{t}_{0} \right\rvert\, 1-x+2 \sqrt{x^{2}+x+1} \\
+&amp; +C_{t} .
+\end{aligned}
+$$
+Таким образом, в конце мы получаем
+$$
+\begв{выравненный}
+&amp; \int \frac{\sqrt{x^{2}}+\frac{x+1}{(x+1)^{2}} d x}{} \\
+&amp; =\ln \left(x+\frac{1}{2}+\sqrt{x^{2}+x+1}\right)-\frac{\sqrt{x^{2}+x+1}}{x+1} \\
+&amp; \quad+\frac{1}{2} \ln \left|\frac{1-x+2 \s\frac{\sqrt{x^{2}}+x-1}{x+1}\right|+C
+\end{aligned}
+$$
+Как вариант, можно использовать следующий более простой метод:
+$$
+\begin{aligned}
+&amp; \int \frac{\sqrt{x^{2}+x+1}}{(x+1)^{2}} d x=-\int \sqrt{x^{2}+x+1} d\left(\frac{1}{x+1}\right) \\
+= &amp; -\frac{\sqrt{\frac{x^{2}+x+1}{x+1}}+\int \frac{\left(x+\frac{1}{2}\right) d x}{(x+1) \sqrt{x^{2}+x+1}}$$
+$$
+\begin{aligned}
+= &amp; -\frac{\sqrt{x^{2}+x+1}}{x+1}+\int \frac{d x}{\sqrt{x^{2}+x+1}} \\
+&amp;-\frac{1}{2} \int_{(x+1)} \frac{d x}{x^{2}+x+1} \\
+= &amp; -\frac{\sqrt{x^{2}+x+1}}{x+\frac{1}{1}}+\ln\left(x+\frac{1}{2}+\sqrt{x^{2}+x+1}\right) \\
+&amp; +\frac{1}{2} \ln _{n}\left|\frac{1-x+2 \sqrt{x^{2}}+x+1}}{x+1}\right|^{*)}+C .
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1955</t>
+  </si>
+  <si>
+    <t>$\int(1+x) \frac{x^{3}}{1+2 x-x^{2}} d x$</t>
+  </si>
+  <si>
+    <t>$$
+\text { Решение } \begin{aligned}
+&amp; \int \frac{x^{3}}{(1+x) \sqrt{1+2 x-x^{2}}} d x \\
+= &amp; \int \frac{\left(x^{2}+1\right)-1}{(1+x) \sqrt{1+2 x-x^{2}}} d x
+\end{aligned}
+$$
+$$
+\begin{aligned}
+= &amp;\int \frac{x^{2}-x+1}{\sqrt{1+2 x-x^{2}}} d x-\int \frac{d x}{(1+x) \sqrt{1+2 x-x^{2}}} \\
+= &amp; -\int \frac{1+2 x-x^{2}}{\sqrt{1+2 x-x^{2}}} d x+\frac{1}{2} \int \frac{(2 x-2) d x}{1+2 x-x^{2}} \\
+&amp; +3 \int \frac{d x}{\sqrt{1+2 x}-x^{2}}-\int \frac{d x}{(x+1)} \frac{d x}{1+2 x-x^{2}} \\
+= &amp; -\int\sqrt{2-(x-1)^{2}} d(x-1)-\frac{1}{2} \int \frac{d\left(1+2 x-x^{2}\right)}{\sqrt{1+2 x-x^{2}}} \\&amp; +3 \int \frac{d(x-1)}{\sqrt{2}-(x-1)^{2}}-I_{1}
+\end{aligned}
+$$
+$$
+\begin{aligned}
+= &amp; \frac{1-x}{2} \sqrt{1+2 x-x^{2}}-\operatorname{aresin}\left(\frac{x-1}{\sqrt{2}}\right) \\
+&amp; -\sqrt{1+2x - x^{2}} + 3 \operatorname{arc} \sin \left(\frac{x-1}{\sqrt{2}}\right) - I_{t} \\
+= &amp; -\frac{x+1}{2}sqrt{1+2 x-x^{2}}+2 \arcsin \left(\frac{x-1}{\sqrt{2}}\right)-I_{1}
+\end{aligned}
+$$
+Для $I_{1}$ ,Пусть $x+1=\frac{1}{t}$, тогда получаем
+$$
+\begin{aligned}
+I_{1} &amp; =\int \frac{d x}{(x+1) \sqrt{1+2 x-x^{2}}} \\
+&amp; =\frac{1}{\sqrt{2}} \arcsin \left(\frac{x \sqrt{2}}{x+1}\right)+C_{1} .
+\end{aligned}
+$$
+Таким образом: в концеПолучить
+$$
+\begin{aligned}
+&amp; \int \frac{x^{3}}{(x+1) \sqrt{1+2 x-x^{2}}} d x \\
+&amp; =-\frac{1+x}{2} \sqrt{1+2 x-x^{2}}-2 \arcsin \left(\frac{1-x}{\sqrt{2}}\right) \\
+&amp; -\frac{1}{\sqrt{2}} \arcsin \left(\frac{x \sqrt{2}}{1+x}\right)+C .
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1956</t>
+  </si>
+  <si>
+    <t>$\int \frac{x d x}{\left(x^{2}-3 x+2\right) \sqrt{x^{2}-4 x+3}}$</t>
+  </si>
+  <si>
+    <t>Решите $\int \frac{x d x}{\left(x^{2}-3 x+2\right) \sqrt{x^{2}-4 x+3}}$
+$$
+=\int\left(\frac{2}{x-2}-\frac{1}{x-1}\right) \cdot \frac{d x}{\sqrt{x^{2}-4 x+3}}
+$$
+$$
+\begin{aligned}
+&amp; =\int \frac{2 d x}{(x-2) \sqrt{x^{2}-4 x+3}}-\int \frac{d x}{(x-1) \sqrt{x^{2}-4 x+3}} \\
+&amp; =2 I_{1}-I_{2} .
+\end{aligned}
+$$
+Для $I_{1}$ положим $x-2=\frac{1}{t}$, получаем
+$$
+\begin{aligned}
+&amp; I_{1}=\int \frac{d x}{(x-2)\sqrt{x^{2}-4 x+3}} \\
+&amp; =-\arcsin \left(\frac{1}{|x-2|}\right)+G_{1}
+\end{aligned}
+$$
+Для $I_{2}$ ，设 $x-1=\frac{1}{t}$ ，可得
+$$
+I_{2}=\int \frac{d x}{(x-1) \sqrt{x^{2}-4 x+3}}=\frac{\sqrt{x^{2}-4x+3}}{x-1}+C_{2}
+$$
+К сожалению, текст неполный, но в конечном итоге получаем
+$$
+\begin{aligned}
+&amp; \int \frac{x d x}{\left(x^{2}-3 x+2\right) \sqrt{x^{2}-4 x+3}} \\
+&amp; =-2 \arcsin \left(\frac{1}{|x-2|}\right)-\frac{\sqrt{x^{2}-4 x+3}}{x-1}+C,\end{aligned}
+$$
+где $x&lt;1$ или $x&gt;3$ .</t>
+  </si>
+  <si>
+    <t>1957</t>
+  </si>
+  <si>
+    <t>$\int \frac{d x}{\left(1+x^{2}\right) \sqrt{1-x^{2}}}$</t>
+  </si>
+  <si>
+    <t>Решим уравнение $x=\sin t$ и ограничим $-\frac{\pi}{2}&lt;t&lt;\frac{\pi}{2}$, тогда
+$$
+d x=\cos t d t, \sqrt{1-x^{2}}=\cos t
+$$$$
+Подстановка даёт
+$$
+\begin{aligned}
+&amp; \int \frac{d x}{\left(1+x^{2}\right) \sqrt{1-x^{2}}}=\int \frac{d t}{1+\sin ^{2} t} \\
+= &amp; \int \frac{d t}{2 \sin ^{2} t+\cos ^{2} t}=\frac{1}{\sqrt{2}} \int \frac{d(\"sqrt{2} t g t)}{(\sqrt{2} t g t)^{2}+1} \\
+= &amp; \frac{1}{\sqrt{2}} \operatorname{arctg}(\sqrt{2} \operatorname{tg} t)+C \\
+= &amp; \frac{1}{\sqrt{2}} \operatorname{arc} \operatorname{tg}\left(\frac{x \sqrt{2}}{\sqrt{1-x^{2}}}\right)+C
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1958</t>
+  </si>
+  <si>
+    <t>$\int \frac{d x}{\left(x^{2}+1\right) \sqrt{x^{2}-1}}$</t>
+  </si>
+  <si>
+    <t>Решение. Когда $x&gt;1$, положим $x=\sec t$ и ограничим $0&lt;t&lt;\frac{\pi}{2}$, тогда
+$$
+d x=\text { sect } \cdot \lg d d t, \sqrt{x^{2}-1}=\operatorname{tg} t
+$$
+低入得
+$$
+\begin{aligned}
+&amp; \int \frac{d x}{\left(x^{2}+1\right) \sqrt{x^{2}-1}}=\int \frac{\operatorname{sect} d t}{1+\sec ^{2} t} \\
+= &amp; \int \frac{\cos t}{\cos ^{2} t+1} d t=\int \frac{d(\sin t)}{2-\sin ^{2} t} \\
+= &amp; \frac{1}{2 \sqrt{2}} \ln \left|\frac{\sqrt{2}+\sin t}{\sqrt{2}-\sin t}\right|+C \\
+= &amp; \frac{1}{2 \sqrt{2}} l_{n}\left|\frac{\sqrt{2} x+\sqrt{x^{2}-1}}{\sqrt{2} x-\sqrt{x^{2}-1}}\right|+C . \\
+&amp; \text { Когда } x&lt;-1 \text { , все еще задаем } x=8 e c t, \text { 但腿制 } \pi&lt;t \leq \frac{3}{2} \pi,
+\end{aligned}
+$$
+В результате вычислений можно получить тот же результат.
+В общем, когда $|x|&gt;1$ , 
+$$
+\begin{aligned}
+&amp; \int \frac{d x}{\left(x^{2}+1\right) \sqrt{x^{2}-1}} \\
+&amp; =\frac{1}{2 \sqrt{2}}\left|\frac{x \sqrt{2}+\sqrt{x^{2}-1}}{x \sqrt{2}-\sqrt{x^{2}-1}}\right|+C
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1960</t>
+  </si>
+  <si>
+    <t>$\int \frac{\sqrt{x^{2}+2}}{x^{2}+1} d x$</t>
+  </si>
+  <si>
+    <t>Решите $\int \frac{\sqrt{x^{2}+2}}{x^{2}+1} d x=\int \frac{\left(x^{2}+2\right) d x}{\left(x^{2}+1\right)\sqrt{x^{2}+2}}$
+$$
+\begin{aligned}
+&amp; =\int\left(1+\frac{1}{x^{2}+1}\right) \cdot \frac{d x}{\sqrt{x^{2}+2}} \\
+&amp; =\int \frac{d x}{\sqrt{x^{2}+2}+\int \frac{d x}{\left(x^{2}+1\right) \sqrt{x^{2}+2}}} \\
+&amp; =\ln \left(x+\sqrt{x^{2}+2}\right)+I_{1}
+\end{aligned}
+$$
+Для $t_{1}$, положим $x=\sqrt{2} \oоператорname{tg} t$ ，并限制 $-\frac{\pi}{2}&lt;t&lt;\frac{\pi}{2}$ ，则
+$$
+d x=\sqrt{2} \sec ^{2} t d t, \quad\sqrt{x^{2}+2}=\sqrt{2} s \mathrm{sec} t .
+$$
+Подставив, получаем
+$$
+\begin{aligned}
+&amp; I_{1}=\int \frac{d x}{left(x^{2}+1\right) \sqrt{x^{2}+2}}=\int \frac{\operatorname{sect} d t}{1+2 \operatorname{g} 2 t}&amp; =\int \frac{\cos t d t}{1+\sin ^{2} t}=\int \frac{d(\sin t)}{1+\sin ^{2} t}=\operatorname{arctg(\operatorname {sin}t)+C_{1}} \\
+&amp; =\operatorname{arctg}\left(\frac{x}{\sqrt{2}+x^{2}}\right)+C_{1}\\
+&amp; =-\operatorname{arctg}\left(\frac{\sqrt{x^{2}+2}}{x}\right)+C_{.}
+\end{aligned}
+$$
+Таким образом, в конечном итоге получаем$$
+\begin{aligned}
+&amp; \int \frac{\sqrt{x^{2}+2}}{x^{2}+1} d x=\ln \left(x+\sqrt{x^{2}+2}\right) \\Линейный интеграл:</t>
+  </si>
+  <si>
+    <t>1961</t>
+  </si>
+  <si>
+    <t>$\int \frac{d x}{\left(x^{2}+x+1\right) \sqrt{x^{2}}+x-1}$</t>
+  </si>
+  <si>
+    <t>Решите $\int \frac{d x}{\left(x^{2}-1-x+1\right)} \sqrt{x^{2}+x-1}$
+$=\int \frac{d x}{\left.\left[\left(x+\frac{1}{2}\right)^{2}+\frac{3}{4}\right] \sqrt{\left(x+\frac{1}{2}\right.}\right)^{2}-\frac{5}{4}}$.
+Когда $x+\frac{1}{2}=\frac{\sqrt{5}}{2}$, пусть $x+\frac{1}{2}=\frac{\sqrt{5}}{2} \operatorname{sect}$, и
+при $0&lt;t&lt;\frac{\pi}{2}$, тогда
+$$
+\begin{aligned}
+&amp; d x=\frac{\sqrt{5}}{2} \operatorname{sect} \oоператорname{tg} t d t, \sqrt{x^{2}+x}-1 \\
+&amp; =\frac{\sqrt{5}}{2} \mathrm{tg} t, \\
+&amp; x^{2}+x+1=\frac{1}{4}\left(5 \sec ^{2} t+3\right) .
+\end{aligned}
+$$
+Подставив, получаем
+$$
+\begin{aligned}
+&amp; \int \frac{dx}{\left(x^{2}+x+1\right) \sqrt{x^{2}+x-1}} \\
+= &amp; 4 \int \frac{\operatorname{sect} d t}{5 \sec ^{2} t+3}=4 \int \frac{\cos t d t}{5+3 \cos ^{2} t} \\
+= &amp; 4 \cdot \frac{1}{\sqrt{3}} \int \frac{d(\sqrt{3} \sin t)}{(\sqrt{8})^{2}-(\sqrt{3} \sin t)^{2}} \\
+= &amp; \left.4 \cdot-\frac{1}{\sqrt{3}} \cdot2 \sqrt{8} \cdot \frac{1}{2 \sqrt{8}+\sqrt{3} \sin t} \right\rvert\,+C
+\end{aligned}
+$$
+$$
+\begin{aligned}
+= &amp; \frac{1}{\sqrt{6}} \ln \left|\frac{(2 x+1) \sqrt{2}+\sqrt{3\left(x^{2}+x-1\right)}}{(2 x+1) \sqrt{2}-\sqrt{3\left(x^{2}+x-1\right)}}\right|+C . \\
+&amp; \text { когда } x+\frac{1}{2}&lt;-\frac{sqrt{5}}{2} \text { в то время, как } x+\frac{1}{2}=\frac{\sqrt{5}}{2} \operatorname{sect},
+\end{aligned}
+$$Но ограничьте $\pi&lt;t&lt;\frac{3}{2} \pi$. В результате расчетов можно получить тот же результат.
+В общем, когда $\left|x+\frac{1}{2}\right|=\frac{\sqrt{5}}{2}$,$$
+\begin{aligned}
+&amp; \int \frac{d x}{\left(x^{2}+x+1\right) \sqrt{x^{2}+x-1}} \\
+&amp; =-\frac{1}{\sqrt{6}} \ln \left|\frac{(2 x+1) \sqrt{2}+\sqrt{3\left(x^{2}+x-1\right)}}{(2 x+1) \sqrt{2}-\sqrt{3\left(x^{2}+x-1\right)}}\right|+C
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1962</t>
+  </si>
+  <si>
+    <t>$\int \frac{x^{2} d x}{\left(4-2 x+x^{2}\right) \sqrt{2+2 x-x^{2}}}$</t>
+  </si>
+  <si>
+    <t>Решите $\int \frac{x^{2} d x}{\left(4-2 x+x^{2}\right) \sqrt{2+2 x-x^{2}}}$
+$$
+=\int \frac{(x-1)^{2}+2x-1)+1}{\left(3+(x-1)^{2}\right) \sqrt{3-(x-1)^{2}}} d x
+$$
+Пусть $x-1=\sqrt{3} \sin t$ и ограничим $-\frac{pi}{2}&lt;t&lt;\frac{\pi}{2}$ , тогда $d x=\sqrt{ } 3 \cos t d t, \sqrt{2+2 x-x^{2}}=\sqrt{3} \cos t$.
+Он входит в
+$$\begin{aligned}
+&amp; \int \frac{x^{2} d x}{\left(4-2 x+x^{2}\right) \sqrt{2+2 x-x^{2}}} \\
+= &amp; \int\frac{1+2 \sqrt{3} \sin t+3 \sin ^{2} t}{3\left(1+\sin ^{2} t\right)} d t
+\end{aligned}
+$$
+$$начать{выравненные}
+&amp; =\int d t+\frac{2}{\sqrt{3}} \int \frac{\sin t}{1+\sin ^{2} t} d t-\frac{2}{3} \инt \frac{d t}{1+\sin ^{2} t} \\
+&amp; =t-\frac{2}{\sqrt{3}} \int \frac{d(\cos t)}{2-\cos ^{2} t}-\frac{2}{3} \int \frac{d(\operatorname{tg} t)}{1+2 \operatorname{bo} b^{2} t} \\
+&amp; =t-\frac{1}{\sqrt{6}}ln \left|\frac{\sqrt{2}+\cos t}{\sqrt{2}-\cos t}\right| \\
+&amp; =\frac{\sqrt{2}}{3} \operatorname{arc}\operatorname{tg}(\sqrt{2} \operatorname{tg} t)+C \\
+&amp; =\operatorname{arc} \sin \frac{x-1}{\sqrt{3}}}-\frac{1}{\sqrt{6}} \ln \frac{\sqrt{6}+\sqrt{2+2 x-x^{2}}}{\sqrt{6}-\sqrt{2+2 x-x^{2}}} \\
+&amp; -\frac{\sqrt{2}}{3} \operatorname{arc} \operatorname{tg} \frac{(x-1) \sqrt{2}}{\sqrt{2+2 x}-x^{2}}+C .\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1963</t>
+  </si>
+  <si>
+    <t>$\int \frac{(x+1) d x}{\left(x^{2}+x+1\right) \sqrt{x^{2}+x+1}}$</t>
+  </si>
+  <si>
+    <t>Решите $\int \frac{(x+1) d x}{\left(x^{2}+x+1\right) \sqrt{x^{2}+x+1}}$ 
+$$
+\begin{aligned}
+&amp; =\int \frac{\left(x+\frac{1}{2}\right)+\frac{1}{2}}{\left[\left(x+\frac{1}{2}\right)^{2}+\frac{3}{4}\right]^{\frac{3}{2}}} d\left(x+\frac{1}{2}\right) \\
+&amp; \left.=\int \frac{\left(x+\frac{1}{2}\right) d\left(x+\frac{1}{2}\right)}{\left[\left(x+\frac{1}{2}\right)^{2}+\frac{3}{4}\right]^{\frac{3}{2}}}+\frac{1}{2}\right] \\
+&amp; {\left[\frac{d\left(x+\frac{1}{2}\right)}{\left.\left(x+\frac{1}{2}\right)^{2}+\frac{3}{4}\right]^{\frac{3}{2}}}\right.} \\
+&amp; =\frac{1}{2} \int \frac{d\left[\left(x+\frac{1}{2}\right)^{2}+\frac{3}{4}\right]}{\left[\left(x+\frac{1}{2}\right)^{2}+\frac{3}{4}\right]^{\frac{1}{2}}}+\frac{1}{\frac{1}{2}}-\frac{x+\frac{1}{2}}{\frac{3}{4} \sqrt{x^{2}+x+1}}
+\end{aligned}
+$$
+$$
+\begin{aligned}
+&amp; =-\frac{1}{\sqrt{x^{2}+x+1}}+\frac{2 x+1}{3 \sqrt{x^{2}+x+1}}+C \\
+&amp; =\frac{2(x-1)}{3\sqrt{x^{2}+x+1}}+C .
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1964</t>
+  </si>
+  <si>
+    <t>${ }^{+}$。Используя замену линейной дроби $x=\frac{\alpha+\beta t}{1+t}$, вычислите интеграл:</t>
+  </si>
+  <si>
+    <t>$$
+\int \frac{d x}{\left(x^{2}-x+1\right) \sqrt{x^{2}+x+1}}=
+$$
+Решите замену линейной дроби
+$$
+x=\frac{\alpha+\beta t}{1+t}
+$$
+дайте
+$$
+x^{2} \pm x+1=\frac{\left(\beta^{2} \pm \beta+1\right) i^{2}+[2 \alpha \beta\pm(\alpha+\beta)+2] t+\left(\alpha^{2} \pm \alpha+1\right)}{(1+1)^{2}}
+$$
+Требуется $2 \alpha \beta \pm(\alpha+\beta)+2=0$ 既化成正 则型。当 $\alpha+\beta=0$ 及 $\alpha \beta=-1$ 时即得上式。例如，取
+$$
+\alpha=-1, \beta=1,
+$$
+Мы имеем
+$$
+\begin{aligned}
+&amp; x=\frac{t-1}{1+t}-\underline{y} t=\frac{1}{1}+\frac{x}{-x} \\
+&amp;d x=\frac{2 d t}{(1+t)^{2}}, x^{2}-x+1=\frac{t^{2}+3}{(t+1)^{2}}, \\
+&amp; \sqrt{x^{2}+x+1}=\frac{\sqrt{1+3 t^{2}}}{t+1},
+\end{aligned}
+$$
+где можно считать, что $1+1=0$ .
+Таким образом;
+$$
+\begin{aligned}
+&amp; \int \frac{d x}{\left(x^{2}-x+1\right) \sqrt{x^{2}+x+1}} \\
+&amp; =2 \int \frac{t+1}{\left(t^{2}+3\right)} \frac{1}{\sqrt{1+3 t^{2}}} d t \\
+&amp; =2 \int \frac{t d t}{\left(t^{2}+3\right) \sqrt{1+3 t^{2}}}+2 \int\left(t^{2}+\frac{d t}{3) \sqrt{1+3 t^{2}}}\right. \\
+&amp; =2\left(I_{1}+I_{2}\right)
+\end{aligned}
+$$
+Для $I_{1}$, пусть $u=\sqrt{1}+3 t^{2}$, тогда
+$$
+d u=\frac{3 t d t}{\sqrt{1+3}-3 t^{2}},: t^{2}+3=\frac{u^{2}+8}{3} .
+$$
+代入得
+$$
+\begin{aligned}
+&amp; I_{1}=\int \frac{t d t}{\left(t^{2}+3\right)} \sqrt{1+3 t^{2}}=\int \frac{d u}{i^{2}+8} \\
+&amp; =\frac{1}{2 \sqrt{2}} \operatorname{arctg}\left(\frac{u}{2} \frac{1}{\sqrt{2}}\right)+C_{1} \\
+&amp; =\frac{1}{2 \sqrt{2}} \text { арктан }\left[\frac{\sqrt{x^{2}+x+1}}{(1-x) \sqrt{2}}\right]+C_{1} . \\
+&amp; \text { Для } I_{2} \text { , положим } u=\frac{3 t}{\sqrt{1+}+3 t^{2}} \text { ，то } \\
+&amp; \frac{d t}{-\sqrt{-}+3 t^{2}}=\frac{d u}{3-u^{2}}, t^{2}+3=\frac{27-8 u^{2}}{3\left(3-u^{2}\right)},
+\end{aligned}
+$$
+代入得
+$$
+\begin{aligned}
+&amp; I_{2}=\int \frac{d t}{\left(t^{2}+3\right) \sqrt{1+3 t^{2}}}=3 \int \frac{d u}{27-8 u^{2}} \\
+&amp; =-\frac{1}{4 \sqrt{6}} \ln \left|frac{3 \sqrt{3}-2 \sqrt{2} u}{3 \sqrt{3}-2 \sqrt{2} u}\right|+C_{2} \\
+&amp; =\frac{1}{4 \sqrt{6}} \ln\left|\frac{\sqrt{3\left(x^{2}+x+1\right)}+(x+1) \sqrt{2}}{\sqrt{3\left(x^{2}+x+1\right)}-(x+1) \sqrt{2}}\right|+C_{2} \\
+&amp; =\frac{1}{2 \sqrt{6}} \ln \left|\frac{\sqrt{x^{2}-x+1}}{\sqrt{3\left(x^{2}+x+1\right)}-(x+1) \sqrt{2}}\right|+C_{2}
+\end{aligned}
+$$
+Таким образом, в итоге получаем
+$$
+\begin{aligned}
+&amp; \int \frac{d x}{\left(x^{2}-x+1\right) \sqrt{x^{2}+x+1}} \\
+&amp;=-\frac{1}{\sqrt{2}} \operatorname{arctg}\left[\frac{\sqrt{x^{2}+x+1}}{(x-1) \sqrt{2}}\right] \\
+&amp;+\frac{1}{\sqrt{6}} \mathbf{l n}_{n} \left\lvert\, \frac{\sqrt{x^{2}-x+1}}{\sqrt{3\left(x^{2}+x+1\right)}-(x+1)} \sqrt{2}\right. \\
+&amp; \cdots
+\end{согласованный}
+$$</t>
+  </si>
+  <si>
+    <t>1965</t>
+  </si>
+  <si>
+    <t>просить</t>
+  </si>
+  <si>
+    <t>$$
+\int \frac{d x}{\left(x^{2}+2\right) \sqrt{2 x^{2}-2 x+5}} \cdot
+$$
+Решение этой задачи аналогично решению задачи 1964 года, обе они относятся к следующему типу интегралов
+$$\int \frac{M x+N}{\left(x^{2}+p x-q\right)^{m}} \sqrt{a x^{2}+b x+c}
+$$
+【Смотрите курс по математическому анализу (I. M. Фихтенгольц) Том второй страница一分册55页"272，其它的计算方法"】
+设 $x=\frac{\alpha+\beta t}{1+1}$ ，适当选择 $\alpha$ 与 $\beta$ ，使得在两个三
+项式中同时消去一次项。Для этого подставим $x=\begin{gathered}\alpha+\beta t \\ i+t\end{gathered}$ в $x^{2}+2$ и $2 x^{2}-2 x+5$, и установим одноразовое.Коэффициент элемента равен нулю, находим
+$$
+\alpha=-1, \beta=2,
+$$
+ошибка
+$$
+x=\frac{2 t-1}{I+t}
+$$
+из имеющегося
+$$
+\begin{aligned}&amp; d x=\frac{3}{(t+1)^{2}} d t, x^{2}+2=\frac{3\left(2 t^{2}+1\right)}{(t+1)^{2}}, \\
+&amp; \sqrt{2 x^{2}-2 x+5}=\frac{3 \sqrt{t^{2}}+\frac{1}{t+1}}{}
+\end{aligned}
+$$
+Следовательно, предположим, что $t+1=0$.
+Подставив, получаем
+$$
+\begin{выравненный}
+&amp; \int \frac{d x}{\left(x^{2}+2\right) \sqrt{2 x^{2}-2 x+5}}= \\
+= &amp; \frac{1}{3} \int \frac{t+t}{\left(2 t^{2}+1\right) \sqrt{t^{2}}+1} d t \\
+= &amp; \frac{1}{3} \int \frac{t d t}{\left(2 t^{2}+1\right) \sqrt{t^{2}}+\mathrm{I}}+\frac{1}{3} \int \frac{d t}{\left(2 t^{2}+1\right) \sqrt{t^{2}}+1} .
+\end{aligned}
+$$
+Для первого интеграла на правом конце, положим $u=\sqrt{t^{2}}+1$, подставив, получаем
+$$
+\frac{1}{3} \int_{\left(2 t^{2}+1\right.} \frac{t d t}{\sqrt{t^{2}}+1}=\frac{1}{3} \int_{2 t^{2}} \frac{d u}{-1}
+$$
+$$
+\begin{выравненный}
+&amp; =\frac{1}{6 \sqrt{2}} \ln \frac{\sqrt{2} u-1}{\sqrt{2} u+1}+C_{1} \\
+&amp; =\frac{1}{6 \sqrt{2}} \ln \frac{\left.\sqrt{2\left(2 x^{2}-2 x+5\right.}\right)+(x-2)}{\sqrt{2\left(2 x^{2}-2 x+5\right.}-(x-2)}+C_{1}
+\end{aligned}
+$$
+$$
+\begin{aligned}
+&amp; \frac{1}{3} \int \frac{d t}{\left(2 t^{2}+1\right) \sqrt{t^{2}}+\frac{1}{1}}=\frac{1}{3} \int \frac{d u}{1+u^{2}} \\
+&amp; =\frac{1}{3} \operatorname{arctg} u+C_{2}=\frac{1}{3} \operatorname{arctg}\left(\frac{1+x}{\sqrt{2 x^{2}-2 x+5}}\right)+C_{2} \\
+&amp; =-\frac{1}{3} \operatorname{arctg}\left(\frac{\sqrt{2 x^{2}-2 x+5}}{x+1}\right)+C_{s}\end{aligned}
+$$
+открыто, в конце получается
+$$
+\begin{aligned}
+&amp; \int \frac{d x}{\left(x^{2}+2\right)} \frac{d x}{2 x^{2}-2 x+5} \\
+&amp;= \frac{1}{6 \sqrt{2}} \ln \frac{\sqrt{2\left(2 x^{2}-2 x+5\right)}+(x-2)}{\sqrt{2\left(2 x^{2}-2 x+5\right)}-(x-2)} \\
+&amp;-\frac{1}{3} \operatorname{arctg}\left(\frac{\sqrt{2 x^{2}-2 x+5}}{x+1}\right)+C
+\end{aligned}
+$$
+Используя замену Эйлера
+(1) Если $a=0, \sqrt{a x^{2}+b x+c}= \pm \sqrt{a x}+2 ;$
+(2) Если $c&gt;0, \sqrt{a x^{2}+b x+c}=x z \pm \sqrt{c}$;
+(3) $\sqrt{a\left(x-x_{1}\right)\left(x-x_{2}\right)}=x\left(x-x_{1}\right)$.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_f5c3e1220d3585d02564g-203.jpg?height=149&amp;width=1369&amp;top_left_y=725&amp;top_left_x=401)计算得
+</t>
+  </si>
+  <si>
+    <t>1966</t>
+  </si>
+  <si>
+    <t>$\int \frac{d x}{x+\sqrt{x^{2}+x+1}}$</t>
+  </si>
+  <si>
+    <t>Решим уравнение $\sqrt{x^{2}+x+1}=z-x$, тогда
+$$
+\begin{aligned}
+&amp; x=\frac{z^{2}-1}{1+2 z}, d x=\frac{2\left(z^{2}}+z+1\right)}{(1+2 z)^{2}} d z, \\
+&amp; \sqrt{x^{2}+x+1}=\frac{z^{2}+z+1}{1+2 z} .
+\end{aligned}
+$$代入得
+$$
+\begin{aligned}
+&amp; \int \frac{d x}{x+\sqrt{x^{2}+x+1}}=\frac{1}{2} \int \frac{z^{2}+z+1}{z\left(z+\frac{1}{2}\right)^{2}} d z \\
+= &amp; \frac{1}{2} \int\left[\frac{4}{z}-\frac{3}{z+\frac{1}{2}}-\frac{3}{2\left(z+\frac{1}{2}\right)^{\varepsilon}}\right] d z \\
+= &amp; \frac{1}{2} \ln \frac{z^{4}}{z+\left.\frac{1}{2}\right|^{3}}+\frac{3}{4\left(z+\frac{1}{2}\right)}+C_{1} \\
+= &amp; \frac{1}{2} \ln \frac{z^{4}}{|2 z+1|^{3}}+\frac{3}{2(2 z+1)}+C,
+\end{aligned}
+$$
+где $z=x+\sqrt{x^{2}}+x+1$ 。</t>
+  </si>
+  <si>
+    <t>1967</t>
+  </si>
+  <si>
+    <t>$\int \frac{d x}{1+\sqrt{1-2 x-x^{2}}}$</t>
+  </si>
+  <si>
+    <t>Решим уравнение $\sqrt{1-2 x-x^{2}}=x z-1$; тогда
+$$
+z=\frac{1+\sqrt{1-2 x+x^{2}}}{x}, \quad x=\frac{2(z-1)}{z^{2}}+1}
+$$
+$$
+\begin{aligned}
+&amp; d x=\frac{2\left(1+2 z-z^{2}\right)}{\left(z^{2}+1\right)^{2}} d z,\\
+&amp; \sqrt{1-2 x-x^{2}}+1=\frac{2 z(z-1)}{z^{2}+1} .
+\end{aligned}
+$$
+Подставив, получаем
+$$
+\begin{aligned}
+&amp; \int \frac{d x}{1-2 x-x^{2}}=\int \frac{1+2 z-z^{2}}{z(z-1)\left(z^{2}+1\right)}-d z \\
+= &amp; \intлево\left[\frac{1}{z-1}-\frac{1}{z}-z^{\frac{2}{2}+1}\right] d z \\
+= &amp; \ln \left|\frac{z}{z}\right|-2операторname{arctg} z+C,
+\end{aligned}
+$$
+где $z=1+\sqrt{1-2 x-x^{2}}$ 。</t>
+  </si>
+  <si>
+    <t>1968</t>
+  </si>
+  <si>
+    <t>$\int x \sqrt{x^{2}-2 x+2} d x$ .</t>
+  </si>
+  <si>
+    <t>Решите уравнение $\sqrt{x^{2}}-\overline{2 x+2}=z-x$, тогда
+$$
+\begin{aligned}
+&amp; x=\frac{z^{2}-2}{2(z-1)}, d x=-\f"""rac{z^{2}-2 z+2}{2(z-1)^{2}} d z, \\
+&amp; \sqrt{x^{2}-2 x+2}=\frac{z^{z}-2 z+2}{2(z-1)} .
+\end{aligned}
+$$
+代入得
+$$
+\begin{aligned}
+&amp; \int x \sqrt{ } x^{2}-2 x+2 d x \\
+= &amp; \frac{1}{8} \int \frac{\"""левый(z^{2}-2)\left(z^{2}-2 z+2\right)^{2}}{(z-1)^{4}} d z
+\end{aligned}
+$$
+$$
+\begin{aligned}
+= &amp; \frac{1}{8} \int \frac{\left((z-1)^{2}+2(z-1)-1\right) \cdot\left((z-1)^{2}+1\right]^{2}}{(z-1)^{4}} d z \\
+= &amp; \frac{1}{8} \int\left\{\left[(z-1)^{2}-(z-1)^{-4}\right]\right. \\
+&amp; +\left[2(z-1)+2(z-1)^{-3}\right] \\
+&amp; \left.+\left[1-(z-1)^{-2}\right]+4(z-1)^{-1}\right\} d(z-1) \\
+&amp; =\frac{1}{8}\left\{1\left[(z-1)^{3}+(z-1)^{-3}\right]\right. \\
+&amp; +\left[(z-1)^{2}-(z-1)^{-2}\right]\
+&amp; \left.+\left[(z-1)+(z-1)^{-1}\right]\right\}+\frac{1}{2} \ln |z-1|+C,
+\end{aligned}
+$$
+где $z=x+\sqrt{x^{2}-2 x+2}$.</t>
+  </si>
+  <si>
+    <t>1969</t>
+  </si>
+  <si>
+    <t>$\int \frac{x-\sqrt{x^{2}-3 x+2}}{x+\sqrt{x^{2}+3 x+2}} d x$</t>
+  </si>
+  <si>
+    <t>Решим уравнение $\sqrt{x^{2}+3 x+2}=z(x+1)$, тогда
+$$
+\begin{aligned}
+&amp; x=\frac{2-z^{2}}{z^{2}-1}, d x=-\frac{2 z}{\left(z^{2}-1\right)^{2}} d z, \\
+&amp; \sqrt{x^{2}+3 x+2}=\frac{z}{z^{2}-1} .
+\end{aligned}
+$$
+Подставить得
+$$
+\int \frac{x-\sqrt{x^{2}+3 x+2}}{x+\sqrt{x^{2}+3}} d x
+$$
+$$
+\begin{aligned}
+= &amp; \int \frac{2 z\left(2-z-z^{2}\right)}{\left(z^{2}-z-2\right)\left(z^{2}-1\right)^{2}} d z \\
+= &amp; \int\left[-\frac{17}{108(z+1)}+\frac{5}{18(z+1)^{2}}+\frac{1}{3(z+1)^{3}}\right. \\
+&amp; \left.+\frac{3}{4(z-1)}-\frac{16}{27(z-2)}\right] d z \\
+= &amp; -\frac{17}{108} \ln |z+1|-\frac{5}{18(z+1)}-\frac{1}{6(z+1)^{2}} \\
+&amp; +\frac{3}{4} \ln |z-1|-\frac{16}{27} \ln |z-2|+C
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1970</t>
+  </si>
+  <si>
+    <t>∫ \frac{d x}{\left(1+\sqrt{x(1+x))^{2}}\right</t>
+  </si>
+  <si>
+    <t>Решим уравнение $\sqrt{x(1-x)}=z+x$, тогда
+$$
+\begin{aligned}
+&amp; x=\frac{z^{2}}{1-2 z}, d x=\frac{2 z(1-z)}{(1-2 z})^{2}} d z, \\
+&amp; 1+\sqrt{x(1+x)}=\frac{1-z-z^{2}}{1-2 z} .
+\end{aligned}
+$$
+Подставив, получаем
+$$
+\begin{aligнед}
+&amp; \int \frac{d x}{\left(1+\sqrt{x(1+x)]^{2}}\right.}=2 \int \frac{z(1-z)}{\left(1-z-z^{2}\right)^{2}} d z \\
+&amp; =2 \int \frac{\left(1-z-z^{2}\right)+(2 z+1)-2}{\left(1-z-z^{2}\right)^{2}} d zend{aligned}
+$$
+$$
+\begin{aligned}
+&amp; =2 \int \frac{d z}{1-\frac{z}{-z^{2}}}-2 \int \frac{d\left(1-z-z^{2}\right)}{\left(1-z-z^{2}\right)^{2}} \\
+&amp; -4 \int \frac{d z}{\left(1-z-z^{2}\right)^{2}}=2\int \frac{d\left(z+\frac{1}{2}\right)}{\frac{5}{4}-\left(z+\frac{1}{2}\right)^{2}} \\
+&amp; +_{1-z-z^{2}}-4\left\{\frac{2 z+1}{5\left(1-z-z^{2}\right)}+\frac{2}{5} \int \frac{d\left(z+\frac{1}{2}\right)}{\frac{5}{4}-\left(z+\frac{1}{2}\right)^{2}}\right\} \\
+&amp; =\frac{2}{5} \sqrt{5}^{-1} n\left|\frac{\sqrt{5}+z+\frac{1}{2}}{\frac{2}{\frac{5}{2}}-z-\frac{1}{2}}\right| \\
+&amp; +\frac{2}{1-z-z^{2}}-\frac{4(2 z+1)}{5\left(1-z-z^{2}\right)}+C \\
+&amp; =\frac{2}{5} \frac{1}{5}^{1}\left|\frac{\sqrt{5}+2 z+1}{\sqrt{5}-2 z-1}\right|+\frac{2(3-4 z)}{5\left(1-z-z^{2}\right)}+C, \\
+&amp; \text { где } z=\sqrt{x(1+x})}-x \text {. }
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1971</t>
+  </si>
+  <si>
+    <t>$\int \frac{d x}{\sqrt{x^{2}+1}-\sqrt{x^{2}-1}}$</t>
+  </si>
+  <si>
+    <t>Решите $\int \frac{d x}{\sqrt{x^{2}-1}-\sqrt{x^{2}-1}}=\int \frac{\sqrt{x^{2}+1}+\sqrt{x^{2}-1}}{\left(x^{2}+1\right)-\left(x^{2}-1\right)} d x$
+$$
+=\frac{1}{2} \int \sqrt{x^{2}+1} d x+\frac{1}{2} \int \sqrt{x^{2}-1} d x
+$$
+$$
+=\frac{x}{4}\left(\sqrt{x^{2}+1}+\sqrt{x^{2}-1}\right)+\frac{1}{4} h_{11}\left|\frac{x+\sqrt{x^{2}+1}}{x+\sqrt{x^{2}-1}}\right|+C .</t>
+  </si>
+  <si>
+    <t>1972</t>
+  </si>
+  <si>
+    <t>$\int \frac{x d x}{\left(1-x^{3}\right) \sqrt{1-x^{2}}}$</t>
+  </si>
+  <si>
+    <t>Решим уравнение $\frac{1+x}{1-x}=z$, тогда
+$$
+x=\frac{z-1}{z+1} ; \quad d x=\frac{2}{(z+1)^{2}} d z,
+$$
+подставив, получаем
+$$\begin{aligned}
+&amp; \int \frac{x d x}{\left(1-x^{3}\right) \sqrt{1-x^{2}}}=\frac{1}{2} \int \frac{\left(z^{2}-1\right) d z}{\sqrt{z}\left(3 z^{2}+1\right)} \\
+&amp; \left.=\int \frac{\left(z^{2}-1\right)d(\sqrt{z})}{3 z^{2}+1}=\int\left[\frac{1}{3}-\frac{4}{3\left(3 z^{2}+1\right)}\right] d \cdot \sqrt{z}\right) \\
+&amp; =\frac{\sqrt{z}}{3}-\frac{4}{3} \cdot \frac{1}{\sqrt[4]{3}} \int \frac{d\left(\sqrt[2]{3 z^{2}}\right)}{\left(\sqrt[4]{3 z^{2}}\right)^{4}+1} \\
+&amp; =\frac{\sqrt{z}}{3}-\frac{4}{3} \frac{4}{\sqrt[4]{3}}\left[\frac{1}{4} \frac{1}{\sqrt{2}} \frac{z \sqrt{3}+\sqrt{12 z^{2}}+1}{z \sqrt{3}-\sqrt{12 z^{2}}+1}\right. \\
+&amp; \left.+\frac{1}{2 \sqrt{2}} \operatorname{arctg}\left(\frac{\sqrt[2]{12 z^{2}}}{1-z \sqrt{3}}\right)\right]^{*}+C \\
+&amp; =\frac{\sqrt{z}}{3}-\frac{1}{3} \frac{1}{12}лево[\ln \frac{z \sqrt{3}+\sqrt[4]{12 z^{2}}+1}{z \sqrt{3}-\sqrt[4]{12 z^{2}}+1}\right. \\
+&amp; \left.-2 \operatorname{arctg}\left(\frac{\sqrt[4]{12} z^{2}}{z \sqrt{3}-1}\right)\right]+C \text {, }d{выравненный}
+$$
+где: $z=\frac{1}{1} \frac{+x}{-x}$ 。</t>
+  </si>
+  <si>
+    <t>1973</t>
+  </si>
+  <si>
+    <t>$\int \frac{d x}{\sqrt{2}+\sqrt{1-x}+\sqrt{1+x}}$</t>
+  </si>
+  <si>
+    <t>Решите $\int \frac{d x}{\sqrt{2}+\sqrt{1-x}+\sqrt{1+x}}$
+$$
+\begin{aligned}
+=\int(\sqrt{2} &amp; =\frac{-sqrt{2}+\sqrt{1-x}+\sqrt{1+x}}{\sqrt{1+x})(-\sqrt{2}+\sqrt{1-x}+\sqrt{1+x})} d x \\
+&amp; =\int \frac{-\sqrt{2}+\sqrt{1-x}+\sqrt{1+x}}{2 \sqrt{1-x^{2}}} d x \\
+&amp; =-\frac{1}{\sqrt{2}} \int \frac{d x}{\sqrt{1-x^{2}}}+\frac{1}{2} \int \frac{d x}{\sqrt{1+x}}+\frac{1}{2} \int \frac{d x}{\sqrt{1-x}} \\
+&amp; =-\frac{1}{\sqrt{2}} \operatorname{arc} \sin x+\sqrt{1+x}-\sqrt{1-x}+C .
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1974</t>
+  </si>
+  <si>
+    <t>$\int \frac{x+\sqrt{1+x+x^{2}}}{1+x+\sqrt{1+x+x^{2}}} d x$</t>
+  </si>
+  <si>
+    <t>Решите $\int \frac{x+\sqrt{1+x+x^{2}}}{1+x+\sqrt{1+x+x^{2}}} d x$
+$$
+\begin{aligned}
+&amp; =\int \frac{\left(x+\sqrt{1+x+x^{2}}\right)\left(1+x-\sqrt{1+x+x^{2}}\right)}{(1+x)^{2}-\left(1+x+x^{2}\right)} d x\\
+&amp; =\int \frac{\sqrt{1+x+x^{2}}-1}{x} d x \\
+&amp; =\int \frac{\sqrt{1+x+x^{2}}}{x} d x-\ln |x|
+\eДля интеграла $\int \frac{\sqrt{1+x+x^{2}}}{x} d x$, положим $x=\frac{1}{t}$, тогда 
+$$
+d x=-\frac{1}{t^{2}} d t, \sqrt{1+x+x^{2}}=\frac{\sqrt{t^{2}+t+1}}{|t|}
+$$
+Не будем стесняться и положим $t=0$ , подставим и получим
+$$
+\begin{aligned}&amp; \int \frac{\sqrt{1+x+x^{2}}}{x} d x=-\int \frac{\sqrt{t^{2}+1+1}}{t^{2}} d t \\
+&amp; =\int \sqrt{t^{2}+t+1} d\left(\frac{1}{t}\right) \\
+&amp; =\frac{\sqrt{t^{2}+t+1}}{t}-\frac{1}{2} \int \frac{2 t+1}{t\sqrt{1+t+t^{2}}} d t \\
+&amp; =\sqrt{x^{2}+x+1}-\int \frac{d t}{\sqrt{1+t+t^{2}}}-\frac{1}{2} \int \frac{d t}{t \sqrt{1+t+t^{2}}} \\
+&amp; =\sqrt{x^{2}+x+1}-\ln \left(t+\frac{1}{2}+\sqrt{1+t+12}\right) \\&amp; +\frac{1}{2} \int-\frac{d\left(\frac{1}{t}\right)}{\sqrt{\left(\frac{1}{t}\right)^{2}+\left(\frac{1}{t}\right)+1}} \\
+&amp; =\sqrt{x^{2}+x+1}-\ln \frac{2+x+2 \sqrt{1+x+x^{2}}}{2 x} \\
+&amp; +\frac{1}{2}\ln \left(\frac{1}{t}+\frac{1}{2}+\sqrt{\frac{1}{t^{2}}+\frac{1}{t}+1}\right)+C_{1} \\
+&amp; =\sqrt{x^{2}+x+1}-\ln ^{2+x+2 \sqrt{1+x}+x^{2}}-2 x . \\
+&amp; +\frac{1}{2} \ln ^{2 x+1+2 \sqrt{1+x+x^{2}}}+C_{1}
+\end{aligned}
+$$
+$$
+\begin{aligned}
+= &amp; \sqrt{x^{2}+x+1}+\frac{1}{2} \ln \frac{2 x+1+2 \sqrt{1+x+x^{2}}}{\left(2+x+2 \sqrt{1+x+x^{2}}\right)^{2}} \\
+&amp; +\ln _{1} x+C .
+\end{aligned}
+$$
+Таким образом, когда$x&gt;0$时，最底得到
+$$
+\begin{aligned}
+&amp; \int \frac{x+\sqrt{1+x+x^{2}}}{1+x+\sqrt{1+x+x^{2}}} d x=\sqrt{x^{2}+x+1} \\
+&amp; +-\frac{1}{2} \ln ^{2 x+1+2 \sqrt{1+x+x^{2}}}\left(2+x+2 \sqrt{\left.1+x+x^{2}\right)^{2}}\right.
+\end{aligned} C,
+$$
+Когда $x \approx 0$, можно получить аналогичный результат.</t>
+  </si>
+  <si>
+    <t>1975</t>
+  </si>
+  <si>
+    <t>$\int \frac{\sqrt{x(x+1)}}{\sqrt{x+\sqrt{x+1}}} d x$</t>
+  </si>
+  <si>
+    <t>Решите $\int \frac{\sqrt{x(x+1)}}{\sqrt{x}+\sqrt{x+1}} d x$+1)} \cdot(\sqrt{x+1}-\sqrt{x})}{(x+1)-x} d x \\
+&amp; \left.=\int[(x+1) \sqrt{x}-x \sqrt{x}+1)\right]d x \\
+&amp; =\int\left[x^{\frac{3}{2}}+x^{\frac{1}{2}}-(x+1)^{\frac{3}{2}}+(x+1)^{\frac{1}{2}}\right]d x \\
+&amp; =\frac{2}{3}\left[(x+1)^{-\frac{3}{2}}+x^{\frac{3}{2}}\right]-\frac{2}{5}\left[(x+1)^{\frac{5}{2}}-x^{\frac{5}{2}}\right]+C
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1976</t>
+  </si>
+  <si>
+    <t>$\int \frac{\left(x^{2}-1\right) d x}{\left(x^{2}+1\right) \sqrt{x^{4}+1}}=$</t>
+  </si>
+  <si>
+    <t>Решите $\int \frac{\left(x^{2}-1\right) d x}{\left(x^{2}+1\right)} \sqrt{x^{4}+1}=\int \frac{\frac{x^{2}-1}{\left(x^{2}+1\right)^{2}} d x}{\sqrt{\frac{x^{4}+1}{\left(x^{2}+1\right)^{2}}}}$
+$$
+=\int \frac{\frac{x^{2}-1}{\left(x^{2}+1\right)^{2}} d x}{\left.\sqrt{1-\left(\frac{x}{x^{2}+1}-1\right.}\right)^{2}}
+$$
+Теперь сначала рассмотрим интеграл $\int \frac{x^{2}-1}{\left(x^{2}+1\right)^{2}} d x$ . Пусть $x=1 \mathrm{~g} t$ ,$-\frac{\pi}{2} \leqslant t&lt;\frac{\pi}{2}$, тогда $d x=\sec ^{2} t d t$.
+Подставляя, получаем
+$$
+\begin{aligned}
+&amp;\int \frac{x^{2}-1}{\left(x^{2}+1\right)^{2}} d x=\int \frac{4 g^{2} t-1}{\sec ^{4} t} \cdot \sec ^{2} t d t \\
+= &amp; \int\left(\sin ^{2} t-\cos ^{2} t\right) d t=-\int \cos 2 t d t \\
+= &amp; -\frac{1}{2} \sin 2 t+C_{1}=-\frac{x}{1+x^{2}}+C_{1}
+\end{aligned}
+$$
+Таким образом, мы можем получить $\frac{x^{2}-1}{\left(x^{2}+1\right)^{2}} d x=-\frac{1}{\sqrt{2}} d\left(\frac{x \sqrt{2}}{1+\frac{x^{2}}{2}}\right)$ 。
+Таким образом，
+$$
+\b\begin{aligned}
+&amp; \int \frac{\left(x^{2}-1\right) d x}{\left(x^{2}+1\right)}-\frac{1)}{x^{4}+1}=-\frac{1}{\sqrt{2}} \int \frac{d\left(\frac{x \sqrt{2}}{1+x^{2}}\right)}{\sqrt{1-\left(\frac{x \sqrt{2}}{1+x^{2}}\right)^{2}}} . \\
+= &amp; -\frac{1}{\sqrt{2}} \arcsin \left(x \sqrt{\frac{2}{2}}\right)+C .end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1977</t>
+  </si>
+  <si>
+    <t>$\int \frac{x^{2}+\frac{1}{\left(x^{2}-1\right)} \sqrt{x^{4}+1}}{d}$</t>
+  </si>
+  <si>
+    <t>Решение. Подобно задаче 1976 года, можно получить
+$$
+\begin{aligned}
+&amp; \int \frac{x^{2}+1}{\left(x^{2}-1\right) \sqrt{x^{4}+1}} d x=\int \frac{\frac{x^{2}+1}{\left(x^{2}-1\right)^{2}}}{\sqrt{\left(x^{2}-1\right)^{2}}} d x \\
+= &amp; -\frac{1}{\sqrt{2}} \int \frac{d\left(\frac{x \sqrt{2}}{x^{2}-1}\right)}{\left.\sqrt{1+\left(\frac{x}{x^{2}-1}\right.}\right)^{2}} \\
+= &amp; -\frac{1}{\sqrt{2}} \ln \left|\frac{x \sqrt{2}}{x^{2}-1}+\sqrt{1+\left(\frac{x \sqrt{2}}{x^{2}-1}\right)^{2}}\right|+C \\
+= &amp; -\frac{1}{\sqrt{2}} \ln \left|\frac{x\sqrt{2}+\sqrt{x^{4}+1}}{x^{2}-1}\right|+C .
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1978</t>
+  </si>
+  <si>
+    <t>$\int \frac{d x}{x \sqrt{ } x^{4}+2 x^{2}-1}$</t>
+  </si>
+  <si>
+    <t>Решение: произведем преобразование $\frac{1}{x}=\sqrt{t}$ (здесь предполагаем $x=0$, если $x \leq 0$, то делаем преобразование $\frac{l}{x}=-\sqrt{7}$. В конечном итоге результат одинаковый), удаляем.d x=-\frac{1}{2 t \sqrt{t}} d t, \sqrt{x^{4}+2 x^{2}}-1=\sqrt{\frac{1+2 t-t^{2}}{t}}
+$$
+化入得
+$$\begin{aligned}
+&amp; \int \frac{d x}{x \sqrt{x^{4}+2 x^{2}-\mathrm{I}}}=-\frac{1}{2} \int \frac{d t}{\mathrm{I}+2 t \cdots t^{2}} \\
+= &amp; \frac{1}{2} \int-\frac{d(1-t)}{\sqrt{2}-(1-t)} \\
+= &amp; -\frac{1}{2} \arcsin \left(1-\frac{1}{2}\right)+C
+\end{aligned}
+$$
+$$
+=\frac{1}{2} \arcsin \left(\frac{x^{2}-1}{x^{2} \sqrt{2}}\right)+C \quad(|x|=\sqrt{\sqrt{2}-1}) .
+$$</t>
+  </si>
+  <si>
+    <t>1979</t>
+  </si>
+  <si>
+    <t>$\int \frac{\left(x^{2}+1\right) d x}{x \sqrt{x^{4}+x^{2}+1}}$</t>
+  </si>
+  <si>
+    <t>$$
+\begin{aligned}
+&amp; \text { Решить } \int \frac{\left(x^{2}+1\right) d x}{x \sqrt{x^{4}+x^{2}+1}}=\int\frac{x d x}{\sqrt{x^{4}+x^{3}+1}}+\int \frac{d x}{x \sqrt{x^{4}+x^{2}+1}} \\
+&amp; =\frac{1}{2} \int\frac{d\left(x^{2}+\frac{1}{2}\right)}{\sqrt{\left(x^{2}+\frac{1}{2}\right)^{2}+\frac{3}{4}}}-\frac{1}{2} \int \frac{d\left(\frac{1}{x^{2}}\right)}{\sqrt{\left(\frac{1}{x^{2}}+\frac{1}{2}\right)^{2}+frac{3}{4}}} \\
+&amp; =\frac{1}{2} \frac{x^{2}+\frac{1}{2}+\sqrt{x^{4}+x^{2}+1}}{\frac{1}{x^{2}}+\frac{1}{2}+\sqrt{\frac{x^{4}+x^{2}+1}{x^{4}}}}+C \\
+&amp; =\frac{1}{2} 1_{n} \frac{x^{2}\left(1+2 x^{2}+2 \sqrt{x^{4}+x^{2}+1}\right)}{2+x^{2}+2 \sqrt{x^{4}+x^{2}+1}}+C .
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1980</t>
+  </si>
+  <si>
+    <t>Доказательство интеграла</t>
+  </si>
+  <si>
+    <t>$$
+\int R(x, \sqrt{a x+b}, \sqrt{c x+} d) d x
+$$
+(в формуле R является рациональной функцией) сводится к методу интегрирования рациональных функций.
+При этом $a$ и $c$ должны быть не менее одного.для нуля; тогда интеграл
+$$
+\int R(x, \sqrt{a x+b}, \sqrt{c x+d}) d x
+$$
+можно выразить методом интегрирования рациональных функций.
+Когда $a \neq 0, c \neq0$ когда, \sqrt{a x+b}=z $ , тогда
+$$
+\begin{aligned}
+&amp; x=\frac{z^{2}-b}{a}, \quad d x=\frac{2}{a} z d z\\
+&amp; \sqrt{c x+d}=\sqrt{\frac{c}{a} z^{2}+d-\frac{b c}{a}}=\sqrt{c_{1} z^{2}+d_{1}}
+\end{aligned}$$
+$c_{1}=\frac{c}{a}, \quad d_{1}=d-\frac{b c}{a}$.
+Подставив, получаем
+$$
+\begin{aligned}
+&amp; \int R(x, \sqrt{a x+b}, \sqrt{c x+d}) d x \\
+= &amp; \int R\left(z^{2}-b, z, \sqrt{c_{1}} z^{2}+d_{1}\right) \frac{2}{a} z d z, \\
+= &amp; \int R_{1}\left(z, \sqrt{c_{1} z^{2}+d_{1}}\right) d z,
+\end{aligned}
+$$
+где $\boldsymbol{R}_{\mathrm{i}}$ является рациональной функцией.
+Далее пусть $\sqrt{c_{1} z^{2}}+d_{1}= \pm \sqrt{c_{1}} z+u\left(c_{1}&gt;0\right)$ или $\sqrt{c_{1} z^{2}+d_{1}}=z u \pm \sqrt{d_{1}}\left(d_{1}=0\right)$ — замена Юла, вопрос о рационализации подынтегральной функции. Однако,Интеграл
+$$
+\int R(x, \sqrt{a x}+\ddot{b}, \sqrt{c x}+d) d x
+$$
+можно вычислить с помощью метода интегрирования рациональных функций.
+Биномиальная дифференциальная форма
+$$
+\int x^{m}\left(a+b x^{\pi}\right)^{p} d x
+$$
+（式中 $m, n$ 和 $p$ 为有理数）仅在下列三种情形可化为有理函数的积分（契比协歨定理）；
+第一种情形， $p$Для целого числа. Пусть $x=z^{N}$, где $N$ является общим знаменателем дробей $m$ и $n$.
+Во втором случае $\frac{m+1}{n}$ является целым числом. Пусть $a+b x^{n}=z^{N}$, где $N$ является делителем дроби $p$.
+Третий случай: $m_{n}+{ }_{n} \underline{1}+p$ является целым числом. Используя преобразование: $a x^{-n}+b=z^{n}$, где N является знаменателем дроби $p$.Вычислите следующие интегралы:</t>
+  </si>
+  <si>
+    <t>1981</t>
+  </si>
+  <si>
+    <t>$\int \sqrt{ } x^{3}+x^{4} d x$ +</t>
+  </si>
+  <si>
+    <t>Решите $\sqrt{x^{3}+x^{4}}=x^{\frac{3}{2}}(1+x)^{\frac{1}{2}}, m=\frac{3}{2}, n=1 . \quad p=\frac{1}{2}$.$\frac{m+1}{n}+p=3$ , это третий случай двоичного дифференциального уравнения.
+Пусть $x^{-1}+1=z^{2}$ , тогда
+$$
+x=-\frac{1}{z^{2}}-\frac{1}{1}, \quad d x=-\frac{2 z}{\left(z^{2}\right.} \frac{2 z}{-1)^{2}} d z,
+$$
+$$
+\sqrt{x^{3}}+x^{i}=\frac{z}{\left(z^{2}-1\right)^{2}} \text { (не устанавливая } z=0 \text { , далее каждое задание }
+$$
+больше не объясняется）：
+преобразуется в
+$$
+\begin{aligned}&amp; \int \sqrt{x^{3}+x^{4} d x=-2} \int \frac{z^{2}}{\left(z^{2}-1\right)^{4}} d z \\
+= &amp; -2 \int \frac{d z}{\left(z^{2}-1\right)^{4}}-2 \int \frac{d z}{\left(z^{2}-1\right)^{3}}
+\end{aligned}
+$$$$
+\begin{aligned}
+&amp; =-2\left[-\frac{z}{6\left(z^{2}-1\right)^{8}}-\frac{5}{6} \int \frac{d z}{\left(z^{2}-1\right)^{s}}\right]^{*)}-2 \int \frac{d z}{\left(z^{2}-1\right)^{3}} \\
+&amp; =\frac{z}{3\left(z^{2}-1\right)^{3}}-\frac{1}{3} \int \frac{d z}{\left(z^{2}-1\right)^{2}} \\
+&amp; =\frac{z}{3\left(z^{2}-1\right)^{3}}+\frac{z}{12\left(z^{2}-1\right)^{2}}-\frac{z}{8\left(z^{2}-1\right)} \\
+&amp; +\frac{3}{16} \ln -\frac{z+1}{z-1}+C \\
+&amp; =\frac{1}{3} \sqrt{\left(x+x^{2}\right)^{3}-1+2 x} \frac{1}{8}\sqrt{x+x^{2}} \\
+&amp; +\frac{1}{8} \ln (\sqrt{x}+\sqrt{1+x})+C^{\prime}(x&gt;0) . \\
+&amp; \text { * ）Аренда 1921 вопроса. } 
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1982</t>
+  </si>
+  <si>
+    <t>$\int \frac{\sqrt{x}}{(1+\sqrt[3]{x})^{2}} d x$</t>
+  </si>
+  <si>
+    <t>Решите $\frac{\sqrt{x}}{(1+\sqrt[3]{x})^{2}}=x^{\frac{1}{2}}\left(1+x^{\frac{1}{3}}\right)^{-2}+m=\frac{1}{2}, n=\frac{1}{3}, p=$
+$-2 ; p$ является целым числом, это первый случай данного двучленного дифференциального выражения.
+Пусть $x=z^{\circ}$, тогда
+$$
+d x=6 z^{5} d z, \sqrt{x}=z^{2}, \sqrt[3]{x}=z^{2}
+$$
+代入得
+$$
+\begin{aligned}
+&amp; \int \frac{\sqrt{x}}{(1+\sqrt[3]{x})^{2}} d x=6 \int \frac{z^{2}}{\left(z^{2}+1\right)^{2}} d z \\
+&amp; =6 \int\left[z^{4}-2 z^{2}+3-\frac{4}{z^{2}+1}+\frac{1}{\left(z^{2}+1\right)^{2}}\right] d z
+\end{aligned}
+$$
+$$
+\begin{aligned}
+&amp;=\frac{6}{5} z^{5}-4 x^{\mathrm{a}}+18 z-24 \mathrm{arctg} \mathrm{tg} \\
+&amp; +6\left[\frac{z}{2\left(z^{2}+1\right)}+\frac{1}{2} \mathrm{arctg} z\right]^{*}+C \\
+&amp; =\frac{6}{5} x^{\frac{5}{6}}-4 x^{\frac{1}{2}}+18 x^{\frac{1}{6}}+\frac{3 x^{\frac{1}{6}}}{1+x^{\frac{1}{8}}}-21 \mathrm{arctg}\left(x^{\frac{1}{6}}\right)+C .
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1983</t>
+  </si>
+  <si>
+    <t>$\int \frac{x d x}{\sqrt{1+\sqrt[3]{x^{2}}}}$</t>
+  </si>
+  <si>
+    <t>Решите $\frac{x}{\sqrt{1+\sqrt{x^{2}}}}=x\left(1+x^{\frac{2}{3}}\right)^{-\frac{1}{2}}, \mathrm{~m}=1, n=""\frac{2}{3}, p=-\frac{1}{2};
+\frac{m+1}{n}=3, это второй случай двоичного дифференциального выражения.
+Пусть 1+x^{\frac{2}{3}}=z^{2}, финансовыйx=\left(z^{2}-1\right)^{\frac{8}{2}}, \quad d x=3 z\left(z^{2}-1\right)^{\frac{1}{2}} d z .
+$$
+ХаВходить
+$$
+\begin{aligned}
+&amp; \int \frac{x d x}{\sqrt{1+\sqrt[2]{x^{2}}}}=3 \int\left(z^{2}-1\right)^{2} d z \\
+&amp; =\frac{3}{5} z^{5}-2 z^{3}+3 z+C
+\end{aligned}
+$$
+где $z=\sqrt{1+\sqrt[3]{x^{2}}}$ 。</t>
+  </si>
+  <si>
+    <t>1984</t>
+  </si>
+  <si>
+    <t>$\int \frac{x^{5} d x}{\sqrt{1-x^{2}}}$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Решение
+$$
+\frac{x^{5}}{\sqrt{1}-x^{2}}=x^{5}\left(1-x^{2}\right)^{-\frac{1}{2}} \cdot m=5, a=2, p=-\frac{1}{2} ;
+$$
+$$
+\begin{aligned}
+&amp; \frac{m+1}{n}=3 \text { , это второй случай биномной дифференциальной формы. } \\
+&amp; \text { Пусть } \sqrt{ } 1-x^{2}=z(\text { не стесняйтесь предположить } x&gt;0) \text { , неудача }
+\end{aligned}
+$$
+$$
+x=\sqrt{1-z^{2}}, \quad d x=-\frac{z}{\sqrt{1}-z^{2}} d z
+$$
+Подставив, получаем
+$$
+\int \frac{x^{5} d x}{\sqrt{1-x^{2}}}=-\int\left(1-z^{2}\right)^{2} d z
+$$
+- $=-z+\frac{2}{3} z^{3}-\frac{1}{5} z^{5}+C$,
+где $z=\sqrt{1}-x^{-\overline{2}}$.
+</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
+    <t>$\int \frac{d x}{\sqrt[3]{1+x^{9}}}$</t>
+  </si>
+  <si>
+    <t>Решите $\frac{1}{\sqrt{1+}+x^{3}}-x^{0}\left(1+x^{3}\right)^{-\frac{1}{3}} \cdot m=0, n=3, p=-\frac{1}{3}$$;
+$\frac{m+1}{n}+1+p=0$ ，这是二项微分式的第三种情形。
+设 $x^{-3}+1=z^{3}$ ，则
+$$
+x=\left(z^{3}-1\right)^{-\frac{1}{3}}, d x=-z^{2}\left(z^{3}-1\right)^{-\frac{4}{3}} d z
+$$
+Подставляем и получаем
+$$
+\begin{aligned}
+&amp; \int \frac{d z}{\sqrt[3]{1}+x^{3}}=-\int \frac{z}{z^{3}-1} d z \\
+= &amp; -\frac{1}{3} \int \frac{d z}{z-1}+\frac{1}{3} \int \frac{z-1}{z^{2}+z+1} d z \\
+= &amp; -\frac{1}{3} \ln |z-1|+\frac{1}{6} \ln \left(z^{2}+z+1\right)
+\end{aligned}
+$$
+$$
+\begin{aligned}
+&amp; -\frac{1}{\sqrt{3}} \operatorname{arctg}\left(frac{2 z+1}{\sqrt{3}}\right)+C \\
+&amp; =\frac{1}{6} \ln \frac{z^{2}+z+1}{(z-1)^{2}}-\frac{1}{\sqrt{3}}\operatorname{arctg}\left(\frac{2 z+1}{\sqrt{3}}\right)+C,
+\end{aligned}
+$$
+где $z=\frac{\sqrt[3]{1+x^{3}}}{x}$ 。</t>
+  </si>
+  <si>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>$\int \frac{d x}{\sqrt{1+x^{4}}}$</t>
+  </si>
+  <si>
+    <t>Решите $\frac{1}{\sqrt{1+x^{4}}}=x^{0}\left(1+x^{4}\right)^{-\frac{1}{4}} \cdot m=0, n=4, p=-\frac{1}{4}$； 
+$\frac{m+1}{n}+p=0$ ，这是二项微分式的第三种情形。 
+$$ 
+\text { 设 } x^{-4}+1=z^{4} \text {, 则 } 
+$$ 
+$$ 
+\begin{выравненный}
+&amp; z=\frac{\sqrt[1]{1}+x^{4}}{x},(z&gt;0, x&gt;0) \\
+&amp; x=\left(z^{4}-1\right)^{-\frac{1}{4}}, dx=-z^{3}\left(z^{4}-1\right)^{-\frac{5}{4}} d z
+\end{aligned}
+$$
+Подставив, получаем
+$$
+\begin{aligned}
+&amp; \int \frac{d x}{\sqrt[4]{1}+x^{4}}=-\int \frac{z^{2}}{z^{4}-1} d z \\
+&amp; =\int\left[\frac{1}{4(z+1)}-\frac{1}{4(z-1)}-\frac{1}{2\left(z^{2}+1\right)}\right] d z \\
+&amp; =\frac{1}{4} \mathrm{I}_{\mathrm{n}}\left|\frac{z+1}{z-1}\right|-\frac{1}{2} \mathrm{arc} \cdot \mathrm{tg} z+C
+\end{aligned}
+$$
+где $z=\frac{\sqrt{1+x^{4}}}{x}.</t>
+  </si>
+  <si>
+    <t>1987</t>
+  </si>
+  <si>
+    <t>$\int \frac{d x}{x+1+x^{3}}$</t>
+  </si>
+  <si>
+    <t>Решите $\frac{1}{x \sqrt[6]{1}+x^{6}}=x^{-1}\left(1+x^{6}\right)^{-\frac{1}{6}}, m=-1, n=6, p$
+$=-\frac{x^{6}}(z&gt;0, x&gt;0), \\
+&amp; x=\sqrt[6]{z^{6}-1}, d x=z^{5}\left(z^{6}-1\right)^{-5} d z .
+\end{aligned}$$
+Подстановка дает
+$$
+\begin{aligned}
+&amp; \int \frac{d x}{x \sqrt{1+x^{6}}}=\int \frac{z^{1} d z}{z^{6}-1}\
+&amp; =\int\left[-\frac{1}{6(z+1)}+\frac{z+1}{6\left(z^{2}-z+1\right)}\right. \\
+&amp; \left.+\frac{1}{6(z-1)}+\frac{-z+1}{6\left(z^{2}+\frac{z}{z+1}\right)}\right] d z \\
+= &amp; \frac{1}{6} 1_{n} \frac{z-1}{z+1}+\frac{1}{12} \ln \frac{z^{2}-z+1}{z^{2}+z+1} \\
++ &amp; \frac{1}{2 \sqrt{3}}\left[\operatorname{arctg}\left(\frac{2 z-1}{\sqrt{3}}\right)+\operatorname{arctg}\left(\frac{2 z+1}{\sqrt{3}}\right)\right]+C_{1} \\
+= &amp; \frac{1}{6} \operatorname{In} \frac{z-1}{z+1}+\frac{1}{12} \ln \frac{z^{2}-z+1}{z^{2}+z+1}
+\end{aligned}
+$$
+$$
++\frac{1}{2 \sqrt{3}} \operatorname{arctg}\left(\frac{z^{2}-1}{z_{\sqrt{ }}-\frac{1}{3}}\right)+C
+$$
+где $z=\sqrt[6]{1+x^{6}}$ 。</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>$\int \frac{d x}{x^{3} \sqrt[5]{1+\frac{1}{x}}}$</t>
+  </si>
+  <si>
+    <t>Решите $\frac{1}{x^{3} \sqrt[5]{1+\frac{1}{x}}}=x^{-3}\left(1+x^{-1}\right)^{-\frac{1}{5}}, m=-3, n=-1$ ，$p=-\frac{1}{5} ; \frac{m+1}{n}=2$ ，这是二项譈分式的第二种情形。设 $1+x^{-1}=z^{5}$ ，则
+$$
+x=\left(z^{5}-1\right)^{-1}, d x=-5 z^{*}\left(z^{5}-1\right)^{-2} d z
+$$
+倮入得
+$$
+\begin{aligned}
+&amp; \int \frac{d x}{x^{3} \sqrt[5]{1+\frac{1}{x}}}=-5 \int z^{3}\left(z^{5}-1\right) d z \\
+= &amp; -\frac{5}{9} z^{9}+\frac{5}{4} z^{4}+C
+\end{aligned}
+$$
+где $z=\sqrt[5]{1+\frac{1}{x}}$.</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>$\int \sqrt[3]{3 x-x^{3}} d x$</t>
+  </si>
+  <si>
+    <t>Решите $\sqrt[3]{3 x-x^{3}}=x^{\frac{1}{4}}\left(3-x^{2}\right)^{\frac{1}{3}}, m=\frac{\boldsymbol{\lambda}}{3}, n=2, p=\frac{1}{3}；
+пусть $3 x^{-2}-1=z^{3}($ не предполагать $x=0$），тогда
+$$
+z=\begin{gathered}
+\sqrt[3]{3 x-x^{3}} \\
+x
+\end{gathered}, \quad x=-\frac{\sqrt{3}}{\sqrt{3}} z^{3}+1
+$$
+$$
+d x=-\frac{3}{2} \sqrt{3}_{2}^{\left(z^{3}+1\right)^{2}} \frac{z^{2}}{(z .} d z .
+$$
+Подставив, получаем
+$$
+\begin{aligned}&amp; \int \sqrt[3]{3 x-x^{3}} d x=-\frac{9}{2} \int\left(z^{3}+1\right)^{2} \\
+= &amp; -\frac{9}{2} \intfrac{d z}{z^{2}+1}+\frac{9}{2} \int \frac{d z}{\left(z^{3}+1\right)^{2}} \\
+= &amp; -\frac{9}{2}\left[\""frac{1}{6} \ln _{n}\left(\frac{(z+1)^{2}}{z^{2}-z+1}+\frac{1}{\sqrt{3}} \operatorname{arctg}\left(\frac{2 z-1}{\sqrt{3}}\right)\right]^{*}\right. \\
++ &amp; \frac{9}{2}\left[\frac{z}{3\left(z^{3}+1\right)}+\frac{1}{9} \ln -\frac{(z+1)^{2}}{z^{2}-z+1}\right. \\
++ &amp; \left.\frac{2}{3 \sqrt{3}} \operatorname{арктг}\left(\frac{2 z-1}{\sqrt{3}}\right)\right]^{* *)}+C \\
+= &amp; \frac{3 z}{2\left(z^{3}+1\right})}-\frac{1}{4} \ln \frac{(z+1)^{2}}{z^{2}-z+1} \\
+- &amp; \frac{\sqrt{3}}{2} \operatorname{arctg}\left(\frac{2 z-1}{\sqrt{3}}\right)+C
+\end{aligned}
+$$
+где $z=\sqrt[3]{3 x}-x^{3}$ 。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_f5c3e1220d3585d02564g-223.jpg?height=118&amp;width=1260&amp;top_left_y=2374&amp;top_left_x=381)
+</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>В каких случаях, баллы</t>
+  </si>
+  <si>
+    <t>$$
+\int \sqrt{1+x^{m}} d x
+$$
+(в формуле $m$ является рациональным числом) является элементарной функцией?
+Меня интересует $\sqrt{1+x^{n}}=x^{0}\left(1+x^{n}\right)^{"""frac{1}{2}}$ 。Поскольку $p=\frac{1}{2}$, то согласно теореме о соотношении только в следующих двух случаях интеграл этой функции может быть преобразован в интеграл рациональной функции.
+Первый случай, $\frac{1}{m}$ целое число, то $m=\frac{\lambda}{k_{1}}=\frac{2}{2 k_{1}}$ ，其中 $k_{1}= \pm 1, \pm 2, \cdots$;
+Второй случай, $\frac{1}{m}+frac{1}{2}$ является целым числом, то $m=\frac{2}{2 k_{2}-1}$, где $k_{2}=0, \pm 1, \pm 2, \cdots$.
+Таким образом, получаем: когда
+$$
+m=\frac{2}{k}
+$$
+（式中 $k= \pm 1, \pm 2, \cdots$ ）时，积分
+$$
+\int \sqrt{1+x^{\sigma}} d x
+$$
+является элементарной функцией。</t>
   </si>
 </sst>
 </file>
@@ -4074,8 +7887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4117,7 +7930,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>679</v>
       </c>
       <c r="C4">
@@ -4128,7 +7941,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>680</v>
       </c>
       <c r="C5">
@@ -4262,6 +8075,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" location="'Часть 1'!A1" display="Наиболее простой неопределенный интеграл" xr:uid="{104B74F7-9B3E-462A-BC4F-4901527EC402}"/>
+    <hyperlink ref="B4" location="'Часть 2'!A1" display="Метод приближения рациональных функций" xr:uid="{A8964D5F-F5FE-4B92-80B8-D02668BB1A5E}"/>
+    <hyperlink ref="B5" location="'Часть 3'!A1" display="Метод интегрирования иррациональных функций" xr:uid="{B13A55BB-CBA4-4CA6-B6AA-8074DD31412E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4271,7 +8086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F501AB-CEA5-4EF9-93C5-D1F9CACFD2BD}">
   <dimension ref="A1:E238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+    <sheetView topLeftCell="A214" workbookViewId="0">
       <selection activeCell="A221" sqref="A221:E238"/>
     </sheetView>
   </sheetViews>
@@ -8326,4 +12141,2142 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF73F07B-41F8-40D3-AB51-5843E93D53AE}">
+  <dimension ref="A1:E59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>736</v>
+      </c>
+      <c r="B2" t="s">
+        <v>737</v>
+      </c>
+      <c r="C2" t="s">
+        <v>738</v>
+      </c>
+      <c r="D2" t="s">
+        <v>739</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>736</v>
+      </c>
+      <c r="B3" t="s">
+        <v>740</v>
+      </c>
+      <c r="C3" t="s">
+        <v>741</v>
+      </c>
+      <c r="D3" t="s">
+        <v>742</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>736</v>
+      </c>
+      <c r="B4" t="s">
+        <v>743</v>
+      </c>
+      <c r="C4" t="s">
+        <v>744</v>
+      </c>
+      <c r="D4" t="s">
+        <v>745</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>736</v>
+      </c>
+      <c r="B5" t="s">
+        <v>746</v>
+      </c>
+      <c r="C5" t="s">
+        <v>747</v>
+      </c>
+      <c r="D5" t="s">
+        <v>748</v>
+      </c>
+      <c r="E5" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>736</v>
+      </c>
+      <c r="B6" t="s">
+        <v>750</v>
+      </c>
+      <c r="C6" t="s">
+        <v>751</v>
+      </c>
+      <c r="D6" t="s">
+        <v>752</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>736</v>
+      </c>
+      <c r="B7" t="s">
+        <v>753</v>
+      </c>
+      <c r="C7" t="s">
+        <v>754</v>
+      </c>
+      <c r="D7" t="s">
+        <v>755</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>736</v>
+      </c>
+      <c r="B8" t="s">
+        <v>756</v>
+      </c>
+      <c r="C8" t="s">
+        <v>757</v>
+      </c>
+      <c r="D8" t="s">
+        <v>758</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>736</v>
+      </c>
+      <c r="B9" t="s">
+        <v>759</v>
+      </c>
+      <c r="C9" t="s">
+        <v>760</v>
+      </c>
+      <c r="D9" t="s">
+        <v>761</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>736</v>
+      </c>
+      <c r="B10" t="s">
+        <v>762</v>
+      </c>
+      <c r="C10" t="s">
+        <v>763</v>
+      </c>
+      <c r="D10" t="s">
+        <v>764</v>
+      </c>
+      <c r="E10" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>736</v>
+      </c>
+      <c r="B11" t="s">
+        <v>766</v>
+      </c>
+      <c r="C11" t="s">
+        <v>767</v>
+      </c>
+      <c r="D11" t="s">
+        <v>768</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>736</v>
+      </c>
+      <c r="B12" t="s">
+        <v>769</v>
+      </c>
+      <c r="C12" t="s">
+        <v>770</v>
+      </c>
+      <c r="D12" t="s">
+        <v>771</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>736</v>
+      </c>
+      <c r="B13" t="s">
+        <v>772</v>
+      </c>
+      <c r="C13" t="s">
+        <v>773</v>
+      </c>
+      <c r="D13" t="s">
+        <v>774</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>736</v>
+      </c>
+      <c r="B14" t="s">
+        <v>775</v>
+      </c>
+      <c r="C14" t="s">
+        <v>776</v>
+      </c>
+      <c r="D14" t="s">
+        <v>777</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>736</v>
+      </c>
+      <c r="B15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C15" t="s">
+        <v>779</v>
+      </c>
+      <c r="D15" t="s">
+        <v>780</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>736</v>
+      </c>
+      <c r="B16" t="s">
+        <v>781</v>
+      </c>
+      <c r="C16" t="s">
+        <v>782</v>
+      </c>
+      <c r="D16" t="s">
+        <v>783</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>736</v>
+      </c>
+      <c r="B17" t="s">
+        <v>784</v>
+      </c>
+      <c r="C17" t="s">
+        <v>785</v>
+      </c>
+      <c r="D17" t="s">
+        <v>786</v>
+      </c>
+      <c r="E17" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>736</v>
+      </c>
+      <c r="B18" t="s">
+        <v>788</v>
+      </c>
+      <c r="C18" t="s">
+        <v>789</v>
+      </c>
+      <c r="D18" t="s">
+        <v>790</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>736</v>
+      </c>
+      <c r="B19" t="s">
+        <v>791</v>
+      </c>
+      <c r="C19" t="s">
+        <v>792</v>
+      </c>
+      <c r="D19" t="s">
+        <v>793</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>736</v>
+      </c>
+      <c r="B20" t="s">
+        <v>794</v>
+      </c>
+      <c r="C20" t="s">
+        <v>795</v>
+      </c>
+      <c r="D20" t="s">
+        <v>796</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>736</v>
+      </c>
+      <c r="B21" t="s">
+        <v>797</v>
+      </c>
+      <c r="C21" t="s">
+        <v>798</v>
+      </c>
+      <c r="D21" t="s">
+        <v>799</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>736</v>
+      </c>
+      <c r="B22" t="s">
+        <v>800</v>
+      </c>
+      <c r="C22" t="s">
+        <v>801</v>
+      </c>
+      <c r="D22" t="s">
+        <v>802</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>736</v>
+      </c>
+      <c r="B23" t="s">
+        <v>803</v>
+      </c>
+      <c r="C23" t="s">
+        <v>804</v>
+      </c>
+      <c r="D23" t="s">
+        <v>805</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>736</v>
+      </c>
+      <c r="B24" t="s">
+        <v>806</v>
+      </c>
+      <c r="C24" t="s">
+        <v>807</v>
+      </c>
+      <c r="D24" t="s">
+        <v>808</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>736</v>
+      </c>
+      <c r="B25" t="s">
+        <v>809</v>
+      </c>
+      <c r="C25" t="s">
+        <v>810</v>
+      </c>
+      <c r="D25" t="s">
+        <v>811</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>736</v>
+      </c>
+      <c r="B26" t="s">
+        <v>812</v>
+      </c>
+      <c r="C26" t="s">
+        <v>813</v>
+      </c>
+      <c r="D26" t="s">
+        <v>814</v>
+      </c>
+      <c r="E26" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>736</v>
+      </c>
+      <c r="B27" t="s">
+        <v>816</v>
+      </c>
+      <c r="C27" t="s">
+        <v>817</v>
+      </c>
+      <c r="D27" t="s">
+        <v>818</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>736</v>
+      </c>
+      <c r="B28" t="s">
+        <v>819</v>
+      </c>
+      <c r="C28" t="s">
+        <v>820</v>
+      </c>
+      <c r="D28" t="s">
+        <v>821</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>736</v>
+      </c>
+      <c r="B29" t="s">
+        <v>822</v>
+      </c>
+      <c r="C29" t="s">
+        <v>823</v>
+      </c>
+      <c r="D29" t="s">
+        <v>824</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>736</v>
+      </c>
+      <c r="B30" t="s">
+        <v>825</v>
+      </c>
+      <c r="C30" t="s">
+        <v>826</v>
+      </c>
+      <c r="D30" t="s">
+        <v>827</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>736</v>
+      </c>
+      <c r="B31" t="s">
+        <v>828</v>
+      </c>
+      <c r="C31" t="s">
+        <v>829</v>
+      </c>
+      <c r="D31" t="s">
+        <v>830</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>736</v>
+      </c>
+      <c r="B32" t="s">
+        <v>831</v>
+      </c>
+      <c r="C32" t="s">
+        <v>832</v>
+      </c>
+      <c r="D32" t="s">
+        <v>833</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>736</v>
+      </c>
+      <c r="B33" t="s">
+        <v>834</v>
+      </c>
+      <c r="C33" t="s">
+        <v>835</v>
+      </c>
+      <c r="D33" t="s">
+        <v>836</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>736</v>
+      </c>
+      <c r="B34" t="s">
+        <v>837</v>
+      </c>
+      <c r="C34" t="s">
+        <v>838</v>
+      </c>
+      <c r="D34" t="s">
+        <v>839</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>736</v>
+      </c>
+      <c r="B35" t="s">
+        <v>840</v>
+      </c>
+      <c r="C35" t="s">
+        <v>841</v>
+      </c>
+      <c r="D35" t="s">
+        <v>842</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>736</v>
+      </c>
+      <c r="B36" t="s">
+        <v>843</v>
+      </c>
+      <c r="C36" t="s">
+        <v>844</v>
+      </c>
+      <c r="D36" t="s">
+        <v>845</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>736</v>
+      </c>
+      <c r="B37" t="s">
+        <v>846</v>
+      </c>
+      <c r="C37" t="s">
+        <v>847</v>
+      </c>
+      <c r="D37" t="s">
+        <v>848</v>
+      </c>
+      <c r="E37" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>736</v>
+      </c>
+      <c r="B38" t="s">
+        <v>850</v>
+      </c>
+      <c r="C38" t="s">
+        <v>851</v>
+      </c>
+      <c r="D38" t="s">
+        <v>852</v>
+      </c>
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>736</v>
+      </c>
+      <c r="B39" t="s">
+        <v>853</v>
+      </c>
+      <c r="C39" t="s">
+        <v>854</v>
+      </c>
+      <c r="D39" t="s">
+        <v>855</v>
+      </c>
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>736</v>
+      </c>
+      <c r="B40" t="s">
+        <v>856</v>
+      </c>
+      <c r="C40" t="s">
+        <v>857</v>
+      </c>
+      <c r="D40" t="s">
+        <v>858</v>
+      </c>
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>736</v>
+      </c>
+      <c r="B41" t="s">
+        <v>859</v>
+      </c>
+      <c r="C41" t="s">
+        <v>860</v>
+      </c>
+      <c r="D41" t="s">
+        <v>861</v>
+      </c>
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>736</v>
+      </c>
+      <c r="B42" t="s">
+        <v>862</v>
+      </c>
+      <c r="C42" t="s">
+        <v>863</v>
+      </c>
+      <c r="D42" t="s">
+        <v>864</v>
+      </c>
+      <c r="E42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>736</v>
+      </c>
+      <c r="B43" t="s">
+        <v>865</v>
+      </c>
+      <c r="C43" t="s">
+        <v>866</v>
+      </c>
+      <c r="D43" t="s">
+        <v>867</v>
+      </c>
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>736</v>
+      </c>
+      <c r="B44" t="s">
+        <v>868</v>
+      </c>
+      <c r="C44" t="s">
+        <v>869</v>
+      </c>
+      <c r="D44" t="s">
+        <v>870</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>736</v>
+      </c>
+      <c r="B45" t="s">
+        <v>871</v>
+      </c>
+      <c r="C45" t="s">
+        <v>872</v>
+      </c>
+      <c r="D45" t="s">
+        <v>873</v>
+      </c>
+      <c r="E45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>736</v>
+      </c>
+      <c r="B46" t="s">
+        <v>874</v>
+      </c>
+      <c r="C46" t="s">
+        <v>875</v>
+      </c>
+      <c r="D46" t="s">
+        <v>876</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>736</v>
+      </c>
+      <c r="B47" t="s">
+        <v>877</v>
+      </c>
+      <c r="C47" t="s">
+        <v>878</v>
+      </c>
+      <c r="D47" t="s">
+        <v>879</v>
+      </c>
+      <c r="E47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>736</v>
+      </c>
+      <c r="B48" t="s">
+        <v>880</v>
+      </c>
+      <c r="C48" t="s">
+        <v>881</v>
+      </c>
+      <c r="D48" t="s">
+        <v>882</v>
+      </c>
+      <c r="E48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>736</v>
+      </c>
+      <c r="B49" t="s">
+        <v>883</v>
+      </c>
+      <c r="C49" t="s">
+        <v>884</v>
+      </c>
+      <c r="D49" t="s">
+        <v>885</v>
+      </c>
+      <c r="E49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>736</v>
+      </c>
+      <c r="B50" t="s">
+        <v>886</v>
+      </c>
+      <c r="C50" t="s">
+        <v>887</v>
+      </c>
+      <c r="D50" t="s">
+        <v>888</v>
+      </c>
+      <c r="E50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>736</v>
+      </c>
+      <c r="B51" t="s">
+        <v>889</v>
+      </c>
+      <c r="C51" t="s">
+        <v>890</v>
+      </c>
+      <c r="D51" t="s">
+        <v>891</v>
+      </c>
+      <c r="E51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>736</v>
+      </c>
+      <c r="B52" t="s">
+        <v>892</v>
+      </c>
+      <c r="C52" t="s">
+        <v>893</v>
+      </c>
+      <c r="D52" t="s">
+        <v>894</v>
+      </c>
+      <c r="E52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>736</v>
+      </c>
+      <c r="B53" t="s">
+        <v>895</v>
+      </c>
+      <c r="C53" t="s">
+        <v>896</v>
+      </c>
+      <c r="D53" t="s">
+        <v>897</v>
+      </c>
+      <c r="E53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>736</v>
+      </c>
+      <c r="B54" t="s">
+        <v>898</v>
+      </c>
+      <c r="C54" t="s">
+        <v>899</v>
+      </c>
+      <c r="D54" t="s">
+        <v>900</v>
+      </c>
+      <c r="E54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>736</v>
+      </c>
+      <c r="B55" t="s">
+        <v>901</v>
+      </c>
+      <c r="C55" t="s">
+        <v>902</v>
+      </c>
+      <c r="D55" t="s">
+        <v>903</v>
+      </c>
+      <c r="E55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>736</v>
+      </c>
+      <c r="B56" t="s">
+        <v>904</v>
+      </c>
+      <c r="C56" t="s">
+        <v>905</v>
+      </c>
+      <c r="D56" t="s">
+        <v>906</v>
+      </c>
+      <c r="E56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>736</v>
+      </c>
+      <c r="B57" t="s">
+        <v>907</v>
+      </c>
+      <c r="C57" t="s">
+        <v>908</v>
+      </c>
+      <c r="D57" t="s">
+        <v>909</v>
+      </c>
+      <c r="E57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>736</v>
+      </c>
+      <c r="B58" t="s">
+        <v>910</v>
+      </c>
+      <c r="C58" t="s">
+        <v>911</v>
+      </c>
+      <c r="D58" t="s">
+        <v>912</v>
+      </c>
+      <c r="E58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>736</v>
+      </c>
+      <c r="B59" t="s">
+        <v>913</v>
+      </c>
+      <c r="C59" t="s">
+        <v>914</v>
+      </c>
+      <c r="D59" t="s">
+        <v>915</v>
+      </c>
+      <c r="E59" t="s">
+        <v>916</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389FADFF-9791-47C2-9201-084BB57B1D91}">
+  <dimension ref="A1:E65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>917</v>
+      </c>
+      <c r="B2" t="s">
+        <v>918</v>
+      </c>
+      <c r="C2" t="s">
+        <v>919</v>
+      </c>
+      <c r="D2" t="s">
+        <v>920</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>917</v>
+      </c>
+      <c r="B3" t="s">
+        <v>921</v>
+      </c>
+      <c r="C3" t="s">
+        <v>922</v>
+      </c>
+      <c r="D3" t="s">
+        <v>923</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>917</v>
+      </c>
+      <c r="B4" t="s">
+        <v>924</v>
+      </c>
+      <c r="C4" t="s">
+        <v>925</v>
+      </c>
+      <c r="D4" t="s">
+        <v>926</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>917</v>
+      </c>
+      <c r="B5" t="s">
+        <v>927</v>
+      </c>
+      <c r="C5" t="s">
+        <v>928</v>
+      </c>
+      <c r="D5" t="s">
+        <v>929</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>917</v>
+      </c>
+      <c r="B6" t="s">
+        <v>930</v>
+      </c>
+      <c r="C6" t="s">
+        <v>931</v>
+      </c>
+      <c r="D6" t="s">
+        <v>932</v>
+      </c>
+      <c r="E6" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>917</v>
+      </c>
+      <c r="B7" t="s">
+        <v>934</v>
+      </c>
+      <c r="C7" t="s">
+        <v>935</v>
+      </c>
+      <c r="D7" t="s">
+        <v>936</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>917</v>
+      </c>
+      <c r="B8" t="s">
+        <v>937</v>
+      </c>
+      <c r="C8" t="s">
+        <v>938</v>
+      </c>
+      <c r="D8" t="s">
+        <v>939</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>917</v>
+      </c>
+      <c r="B9" t="s">
+        <v>940</v>
+      </c>
+      <c r="C9" t="s">
+        <v>941</v>
+      </c>
+      <c r="D9" t="s">
+        <v>942</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>917</v>
+      </c>
+      <c r="B10" t="s">
+        <v>943</v>
+      </c>
+      <c r="C10" t="s">
+        <v>944</v>
+      </c>
+      <c r="D10" t="s">
+        <v>945</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>917</v>
+      </c>
+      <c r="B11" t="s">
+        <v>946</v>
+      </c>
+      <c r="C11" t="s">
+        <v>947</v>
+      </c>
+      <c r="D11" t="s">
+        <v>948</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>917</v>
+      </c>
+      <c r="B12" t="s">
+        <v>949</v>
+      </c>
+      <c r="C12" t="s">
+        <v>689</v>
+      </c>
+      <c r="D12" t="s">
+        <v>950</v>
+      </c>
+      <c r="E12" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>917</v>
+      </c>
+      <c r="B13" t="s">
+        <v>952</v>
+      </c>
+      <c r="C13" t="s">
+        <v>953</v>
+      </c>
+      <c r="D13" t="s">
+        <v>954</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>917</v>
+      </c>
+      <c r="B14" t="s">
+        <v>955</v>
+      </c>
+      <c r="C14" t="s">
+        <v>956</v>
+      </c>
+      <c r="D14" t="s">
+        <v>957</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>917</v>
+      </c>
+      <c r="B15" t="s">
+        <v>958</v>
+      </c>
+      <c r="C15" t="s">
+        <v>959</v>
+      </c>
+      <c r="D15" t="s">
+        <v>960</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>917</v>
+      </c>
+      <c r="B16" t="s">
+        <v>961</v>
+      </c>
+      <c r="C16" t="s">
+        <v>962</v>
+      </c>
+      <c r="D16" t="s">
+        <v>963</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>917</v>
+      </c>
+      <c r="B17" t="s">
+        <v>964</v>
+      </c>
+      <c r="C17" t="s">
+        <v>965</v>
+      </c>
+      <c r="D17" t="s">
+        <v>966</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>917</v>
+      </c>
+      <c r="B18" t="s">
+        <v>967</v>
+      </c>
+      <c r="C18" t="s">
+        <v>968</v>
+      </c>
+      <c r="D18" t="s">
+        <v>969</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>917</v>
+      </c>
+      <c r="B19" t="s">
+        <v>970</v>
+      </c>
+      <c r="C19" t="s">
+        <v>971</v>
+      </c>
+      <c r="D19" t="s">
+        <v>972</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>917</v>
+      </c>
+      <c r="B20" t="s">
+        <v>973</v>
+      </c>
+      <c r="C20" t="s">
+        <v>974</v>
+      </c>
+      <c r="D20" t="s">
+        <v>975</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>917</v>
+      </c>
+      <c r="B21" t="s">
+        <v>976</v>
+      </c>
+      <c r="C21" t="s">
+        <v>977</v>
+      </c>
+      <c r="D21" t="s">
+        <v>978</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>917</v>
+      </c>
+      <c r="B22" t="s">
+        <v>979</v>
+      </c>
+      <c r="C22" t="s">
+        <v>980</v>
+      </c>
+      <c r="D22" t="s">
+        <v>981</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>917</v>
+      </c>
+      <c r="B23" t="s">
+        <v>982</v>
+      </c>
+      <c r="C23" t="s">
+        <v>983</v>
+      </c>
+      <c r="D23" t="s">
+        <v>984</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>917</v>
+      </c>
+      <c r="B24" t="s">
+        <v>985</v>
+      </c>
+      <c r="C24" t="s">
+        <v>986</v>
+      </c>
+      <c r="D24" t="s">
+        <v>987</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>917</v>
+      </c>
+      <c r="B25" t="s">
+        <v>988</v>
+      </c>
+      <c r="C25" t="s">
+        <v>989</v>
+      </c>
+      <c r="D25" t="s">
+        <v>990</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>917</v>
+      </c>
+      <c r="B26" t="s">
+        <v>991</v>
+      </c>
+      <c r="C26" t="s">
+        <v>992</v>
+      </c>
+      <c r="D26" t="s">
+        <v>993</v>
+      </c>
+      <c r="E26" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>917</v>
+      </c>
+      <c r="B27" t="s">
+        <v>995</v>
+      </c>
+      <c r="C27" t="s">
+        <v>996</v>
+      </c>
+      <c r="D27" t="s">
+        <v>997</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>917</v>
+      </c>
+      <c r="B28" t="s">
+        <v>998</v>
+      </c>
+      <c r="C28" t="s">
+        <v>999</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>917</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>917</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>917</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>917</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>917</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>917</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>917</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>917</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>917</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>917</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>917</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>917</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>917</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>917</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>917</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>917</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>917</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>917</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>917</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>917</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>917</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>917</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>917</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>917</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>917</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>917</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>917</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>917</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>917</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>917</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>917</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>917</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>917</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E61" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>917</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>917</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>917</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>917</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>